--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
     <sheet name="Costos Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="Remuneraciones" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Hosting</t>
   </si>
@@ -23,15 +24,6 @@
     <t>Plan de internet</t>
   </si>
   <si>
-    <t>Salario de desarrolladores</t>
-  </si>
-  <si>
-    <t>Salario de cadetes</t>
-  </si>
-  <si>
-    <t>Salario de logística</t>
-  </si>
-  <si>
     <t>Luz</t>
   </si>
   <si>
@@ -105,12 +97,123 @@
   </si>
   <si>
     <t xml:space="preserve">Nueva publicidad </t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Semestre 1 - 2016</t>
+  </si>
+  <si>
+    <t>Semestre 1 - 2017</t>
+  </si>
+  <si>
+    <t>Semestre 2 - 2016</t>
+  </si>
+  <si>
+    <t>Semestre 2 - 2017</t>
+  </si>
+  <si>
+    <t>Salario (Desarrollo, Marketing,Logística)</t>
+  </si>
+  <si>
+    <t>Cotización Dolar</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Salario Neto</t>
+  </si>
+  <si>
+    <t>Subsistema Entrepeneur</t>
+  </si>
+  <si>
+    <t>Córdoba Pablo</t>
+  </si>
+  <si>
+    <t>Domingues Jacobo</t>
+  </si>
+  <si>
+    <t>Subsistema Gerencial</t>
+  </si>
+  <si>
+    <t>Gerente General</t>
+  </si>
+  <si>
+    <t>Equipo de Desarrollo</t>
+  </si>
+  <si>
+    <t>Lider de Desarrollo</t>
+  </si>
+  <si>
+    <t>Front-End</t>
+  </si>
+  <si>
+    <t>Back-End</t>
+  </si>
+  <si>
+    <t>Equipo de Marketing</t>
+  </si>
+  <si>
+    <t>Lider de Marketing</t>
+  </si>
+  <si>
+    <t>Equipo de Logística</t>
+  </si>
+  <si>
+    <t>Lider de Logística</t>
+  </si>
+  <si>
+    <t>Cadete 1</t>
+  </si>
+  <si>
+    <t>Cadete 2</t>
+  </si>
+  <si>
+    <t>Cadete 3</t>
+  </si>
+  <si>
+    <t>Cadete 4</t>
+  </si>
+  <si>
+    <t>Cadete 5</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Aporte SEG social + Jubilación</t>
+  </si>
+  <si>
+    <t>Aporte Obra Social</t>
+  </si>
+  <si>
+    <t>Cuota Sindical</t>
+  </si>
+  <si>
+    <t>Adicionales *</t>
+  </si>
+  <si>
+    <t>Ley 19072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Corresponde a los extras asignados por los diferentes sindicatos, colegios, uniones etc </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$$-2C0A]\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +250,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,15 +283,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,122 +662,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5088</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12">
+        <f>SUM(Remuneraciones!H16,Remuneraciones!H13,Remuneraciones!H24)*6</f>
+        <v>705612</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
+        <f>25*F2</f>
+        <v>369.75</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -594,70 +902,637 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13">
+        <v>24000</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
+        <f>SUM(B3:D3)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13">
+        <v>24000</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
+        <f>SUM(B4:D4)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
+        <f>SUM(H3:H4)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <f>SUM(B7:D7)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <f>SUM(H7)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="13">
+        <v>18425</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5527.5</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
+        <f>SUM(B10:G10)</f>
+        <v>23952.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <v>15125</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2420</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <f>SUM(B11:G11)</f>
+        <v>17545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13">
+        <v>15125</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2420</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
+        <f>SUM(B12,C12)</f>
+        <v>17545</v>
+      </c>
+      <c r="XFD12" s="16">
+        <f>SUM(B12:XFC12)</f>
+        <v>35090</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <f>SUM(H10:H12)</f>
+        <v>59042.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13">
+        <v>12900</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2064</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <f>SUM(B15:G15)</f>
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
+        <f>SUM(H15)</f>
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="13">
+        <v>18425</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5527.5</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="13">
+        <v>7824</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-273</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-227</v>
+      </c>
+      <c r="H19" s="13">
+        <f>SUM(E19:G19,C19,B19)</f>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="13">
+        <v>7824</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F20" s="13">
+        <v>-273</v>
+      </c>
+      <c r="G20" s="13">
+        <v>-227</v>
+      </c>
+      <c r="H20" s="13">
+        <f>SUM(E20:G20,C20,B20)</f>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13">
+        <v>7824</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-273</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-227</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" ref="H21:H23" si="0">SUM(E21:G21,C21,B21)</f>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="13">
+        <v>7824</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F22" s="13">
+        <v>-273</v>
+      </c>
+      <c r="G22" s="13">
+        <v>-227</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="13">
+        <v>7824</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F23" s="13">
+        <v>-273</v>
+      </c>
+      <c r="G23" s="13">
+        <v>-227</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21">
+        <f>SUM(H19:H23)</f>
+        <v>43595.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="22">
+        <f>SUM(H24,H16,H13,H8,H5)</f>
+        <v>185602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
     <sheet name="Costos Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Remuneraciones" sheetId="3" r:id="rId3"/>
+    <sheet name="Amortizaciones " sheetId="5" r:id="rId4"/>
+    <sheet name="Depreciaciones" sheetId="4" r:id="rId5"/>
+    <sheet name="Impuestos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Hosting</t>
   </si>
@@ -36,24 +39,12 @@
     <t>Patente</t>
   </si>
   <si>
-    <t>Aportes</t>
-  </si>
-  <si>
     <t>Github privado</t>
   </si>
   <si>
-    <t>Bienes de uso</t>
-  </si>
-  <si>
     <t>Viaticos</t>
   </si>
   <si>
-    <t>Aguinaldo</t>
-  </si>
-  <si>
-    <t>Impuestos</t>
-  </si>
-  <si>
     <t>Insumos (Tonner, tickets, papel)</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Acesoría Legal</t>
   </si>
   <si>
-    <t>Acesoría Contable</t>
-  </si>
-  <si>
     <t>Seguros</t>
   </si>
   <si>
@@ -81,18 +69,6 @@
     <t>Gastos de representación (invitaciones, Agazajos)</t>
   </si>
   <si>
-    <t>Publicidad en medios gráficos</t>
-  </si>
-  <si>
-    <t>Folleteria</t>
-  </si>
-  <si>
-    <t>Tarjetas de presentación</t>
-  </si>
-  <si>
-    <t>Merchandising</t>
-  </si>
-  <si>
     <t>Fiesta de celebración</t>
   </si>
   <si>
@@ -114,9 +90,6 @@
     <t>Semestre 2 - 2017</t>
   </si>
   <si>
-    <t>Salario (Desarrollo, Marketing,Logística)</t>
-  </si>
-  <si>
     <t>Cotización Dolar</t>
   </si>
   <si>
@@ -186,9 +159,6 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Aporte SEG social + Jubilación</t>
   </si>
   <si>
@@ -205,6 +175,72 @@
   </si>
   <si>
     <t xml:space="preserve">* Corresponde a los extras asignados por los diferentes sindicatos, colegios, uniones etc </t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alumbrado y barrido Publico  </t>
+  </si>
+  <si>
+    <t>Recepcionista</t>
+  </si>
+  <si>
+    <t>Salario Bruto</t>
+  </si>
+  <si>
+    <t>Inflación (Por semestre)</t>
+  </si>
+  <si>
+    <t>Valor Actual</t>
+  </si>
+  <si>
+    <t>Vida Útil</t>
+  </si>
+  <si>
+    <t>Amortización Anual</t>
+  </si>
+  <si>
+    <t>Depreciación Anual</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Taller</t>
+  </si>
+  <si>
+    <t>Publicidad AudioVisual</t>
+  </si>
+  <si>
+    <t>Folleteria General</t>
+  </si>
+  <si>
+    <t>EcoGift</t>
+  </si>
+  <si>
+    <t>Motos (Compra)</t>
+  </si>
+  <si>
+    <t>Salario(Entrepeneur,Gte General, Admin,Lider Logistica)</t>
+  </si>
+  <si>
+    <t>Salario (Desarrollo,Marketing)</t>
+  </si>
+  <si>
+    <t>Salario (Cadetes)</t>
+  </si>
+  <si>
+    <t>Asesoría Contable</t>
   </si>
 </sst>
 </file>
@@ -212,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +317,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -324,11 +385,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -341,23 +415,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,29 +772,32 @@
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="A1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -713,186 +812,453 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="41">
+        <v>14.79</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44">
+        <v>5088</v>
+      </c>
+      <c r="C3" s="44">
+        <f>B3+(B3*G2)</f>
+        <v>6105.6</v>
+      </c>
+      <c r="D3" s="45">
+        <f>C3+(B3*G2)</f>
+        <v>7123.2000000000007</v>
+      </c>
+      <c r="E3" s="45">
+        <f>D3+(B3*G2)</f>
+        <v>8140.8000000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="44">
+        <f>SUM(Remuneraciones!I14,Remuneraciones!I17)*6</f>
+        <v>444039</v>
+      </c>
+      <c r="C4" s="44">
+        <f>B4+$B$4*$G$2</f>
+        <v>532846.80000000005</v>
+      </c>
+      <c r="D4" s="45">
+        <f t="shared" ref="D4:E4" si="0">C4+$B$4*$G$2</f>
+        <v>621654.60000000009</v>
+      </c>
+      <c r="E4" s="45">
+        <f t="shared" si="0"/>
+        <v>710462.40000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="44">
+        <f>SUM(Remuneraciones!I25)*6</f>
+        <v>261573</v>
+      </c>
+      <c r="C5" s="44">
+        <f>B5+B5*G2</f>
+        <v>313887.59999999998</v>
+      </c>
+      <c r="D5" s="45">
+        <f>C5*2+C5*2*G2</f>
+        <v>753330.24</v>
+      </c>
+      <c r="E5" s="45">
+        <f>D5+D5*G2</f>
+        <v>903996.28799999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="44">
+        <f>770*6</f>
+        <v>4620</v>
+      </c>
+      <c r="C6" s="44">
+        <f>B6+B6*G2</f>
+        <v>5544</v>
+      </c>
+      <c r="D6" s="45">
+        <f>C6+$B$6*$G$2</f>
+        <v>6468</v>
+      </c>
+      <c r="E6" s="45">
+        <f>D6+$B$6*$G$2</f>
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="44">
+        <v>972</v>
+      </c>
+      <c r="C7" s="44">
+        <f>B7+$B$7*$G$2</f>
+        <v>1166.4000000000001</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" ref="D7:E7" si="1">C7+$B$7*$G$2</f>
+        <v>1360.8000000000002</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="1"/>
+        <v>1555.2000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44">
+        <f>(25*F2)*6</f>
+        <v>2218.5</v>
+      </c>
+      <c r="C8" s="44">
+        <f>B8+$B$8*$G$2</f>
+        <v>2662.2</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" ref="D8:E8" si="2">C8+$B$8*$G$2</f>
+        <v>3105.8999999999996</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="2"/>
+        <v>3549.5999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="37">
+        <f>SUM(B3:B8)</f>
+        <v>718510.5</v>
+      </c>
+      <c r="C9" s="37">
+        <f>SUM(C3:C8)</f>
+        <v>862212.6</v>
+      </c>
+      <c r="D9" s="37">
+        <f>SUM(D3:D8)</f>
+        <v>1393042.74</v>
+      </c>
+      <c r="E9" s="37">
+        <f>SUM(E3:E8)</f>
+        <v>1635096.2880000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="44">
+        <f>SUM(Remuneraciones!I5,Remuneraciones!I9,Remuneraciones!I19)*6</f>
+        <v>617157</v>
+      </c>
+      <c r="C11" s="44">
+        <f>B11+$B$11*$G$2</f>
+        <v>740588.4</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" ref="D11:E11" si="3">C11+$B$11*$G$2</f>
+        <v>864019.8</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="3"/>
+        <v>987451.20000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14">
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>5088</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12">
-        <f>SUM(Remuneraciones!H16,Remuneraciones!H13,Remuneraciones!H24)*6</f>
-        <v>705612</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="12">
-        <f>25*F2</f>
-        <v>369.75</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B12" s="44">
+        <f>(900*5*6)</f>
+        <v>27000</v>
+      </c>
+      <c r="C12" s="44">
+        <f>B12+$B$12*$G$2</f>
+        <v>32400</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" ref="D12:E12" si="4">C12+$B$12*$G$2</f>
+        <v>37800</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="4"/>
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="44">
+        <f>300*5*6</f>
+        <v>9000</v>
+      </c>
+      <c r="C13" s="44">
+        <f>B13+$B$13*$G$2</f>
+        <v>10800</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" ref="D13:E13" si="5">C13+$B$13*$G$2</f>
+        <v>12600</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="44">
+        <f>6200*6</f>
+        <v>37200</v>
+      </c>
+      <c r="C14" s="44">
+        <f>B14+$B$14*$G$2</f>
+        <v>44640</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" ref="D14:E14" si="6">C14+$B$14*$G$2</f>
+        <v>52080</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="6"/>
+        <v>59520</v>
+      </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="44">
+        <f>380*6</f>
+        <v>2280</v>
+      </c>
+      <c r="C15" s="44">
+        <f>B15+$B$15*G2</f>
+        <v>2736</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" ref="D15:E15" si="7">C15+$B$15*H2</f>
+        <v>2736</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="7"/>
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="44">
+        <f>59.9*6</f>
+        <v>359.4</v>
+      </c>
+      <c r="C16" s="44">
+        <f>B16+$B$16*G2</f>
+        <v>431.28</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" ref="D16:E16" si="8">C16+$B$16*H2</f>
+        <v>431.28</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="8"/>
+        <v>431.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="37">
+        <f>SUM(B11:B17)</f>
+        <v>692996.4</v>
+      </c>
+      <c r="C18" s="37">
+        <f>SUM(C11:C17)</f>
+        <v>831595.68</v>
+      </c>
+      <c r="D18" s="37">
+        <f>SUM(D11:D17)</f>
+        <v>969667.08000000007</v>
+      </c>
+      <c r="E18" s="37">
+        <f>SUM(E11:E17)</f>
+        <v>1107738.4800000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="44">
+        <v>12000</v>
+      </c>
+      <c r="C20" s="44">
+        <f>B20+$B$20*$G$2</f>
+        <v>14400</v>
+      </c>
+      <c r="D20" s="45">
+        <f t="shared" ref="D20:E20" si="9">C20+$B$20*$G$2</f>
+        <v>16800</v>
+      </c>
+      <c r="E20" s="45">
+        <f t="shared" si="9"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="44">
+        <f>3000*6</f>
+        <v>18000</v>
+      </c>
+      <c r="C21" s="44">
+        <f>B21+$B$21*$G$2</f>
+        <v>21600</v>
+      </c>
+      <c r="D21" s="45">
+        <f t="shared" ref="D21:E21" si="10">C21+$B$21*$G$2</f>
+        <v>25200</v>
+      </c>
+      <c r="E21" s="45">
+        <f t="shared" si="10"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="44">
+        <v>4650</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45">
+        <f>B22+B22*(G2*2)</f>
+        <v>6510</v>
+      </c>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="37">
+        <f>SUM(B20:B22)</f>
+        <v>34650</v>
+      </c>
+      <c r="C23" s="37">
+        <f>SUM(C20:C22)</f>
+        <v>36000</v>
+      </c>
+      <c r="D23" s="37">
+        <f>SUM(D20:D22)</f>
+        <v>48510</v>
+      </c>
+      <c r="E23" s="37">
+        <f>SUM(E20:E22)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="39">
+        <f>SUM(B23,B18,B9)</f>
+        <v>1446156.9</v>
+      </c>
+      <c r="C24" s="39">
+        <f>SUM(C23,C18,C9)</f>
+        <v>1729808.28</v>
+      </c>
+      <c r="D24" s="39">
+        <f>SUM(D23,D18,D9)</f>
+        <v>2411219.8200000003</v>
+      </c>
+      <c r="E24" s="39">
+        <f>SUM(E23,E18,E9)</f>
+        <v>2790834.7680000002</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35">
+        <f>SUM(B24:F24)</f>
+        <v>8378019.7680000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="48">
+        <f>SUM(C24,B24)</f>
+        <v>3175965.1799999997</v>
+      </c>
+      <c r="D26" s="48">
+        <f>SUM(D24,E24)</f>
+        <v>5202054.5880000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,22 +1286,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -953,13 +1319,13 @@
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="25"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -968,101 +1334,120 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="23"/>
       <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="27"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="23"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F13" s="28"/>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD27"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,38 +1470,40 @@
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1125,10 +1512,11 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13">
         <v>24000</v>
@@ -1138,14 +1526,15 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="13">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
         <f>SUM(B3:D3)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" s="13">
         <v>24000</v>
@@ -1155,29 +1544,31 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
         <f>SUM(B4:D4)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="5" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
-        <f>SUM(H3:H4)</f>
+        <v>45</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
+        <f>SUM(I3:I4)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1186,10 +1577,11 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B7" s="13">
         <v>20000</v>
@@ -1199,79 +1591,82 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13">
         <f>SUM(B7:D7)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
-        <f>SUM(H7)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="B8" s="13">
+        <v>10907</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13">
+        <f>SUM(B8:G8)</f>
+        <v>10907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
+        <f>SUM(I7:I8)</f>
+        <v>30907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="13">
         <v>18425</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C11" s="13">
         <v>5527.5</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
-        <f>SUM(B10:G10)</f>
-        <v>23952.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="13">
-        <v>15125</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2420</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
         <f>SUM(B11:G11)</f>
-        <v>17545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23952.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B12" s="13">
         <v>15125</v>
@@ -1283,132 +1678,137 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13">
-        <f>SUM(B12,C12)</f>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <f>SUM(B12:G12)</f>
         <v>17545</v>
       </c>
-      <c r="XFD12" s="16">
-        <f>SUM(B12:XFC12)</f>
+    </row>
+    <row r="13" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13">
+        <v>15125</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2420</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <f>SUM(B13,C13)</f>
+        <v>17545</v>
+      </c>
+      <c r="XFD13" s="15">
+        <f>SUM(B13:XFC13)</f>
         <v>35090</v>
       </c>
     </row>
-    <row r="13" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
-        <f>SUM(H10:H12)</f>
+    <row r="14" spans="1:9 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
+        <f>SUM(I11:I13)</f>
         <v>59042.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="13">
+        <v>12900</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2064</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
+        <f>SUM(B16:G16)</f>
+        <v>14964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="13">
-        <v>12900</v>
-      </c>
-      <c r="C15" s="13">
-        <v>2064</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
-        <f>SUM(B15:G15)</f>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
+        <f>SUM(I16)</f>
         <v>14964</v>
       </c>
     </row>
-    <row r="16" spans="1:8 16384:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <f>SUM(H15)</f>
-        <v>14964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="13">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="13">
         <v>18425</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="13">
         <v>5527.5</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="13">
-        <v>7824</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2670</v>
-      </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="13">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F19" s="13">
-        <v>-273</v>
-      </c>
-      <c r="G19" s="13">
-        <v>-227</v>
-      </c>
-      <c r="H19" s="13">
-        <f>SUM(E19:G19,C19,B19)</f>
-        <v>8719.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <f>SUM(B19:H19)</f>
+        <v>23952.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B20" s="13">
         <v>7824</v>
@@ -1426,14 +1826,15 @@
       <c r="G20" s="13">
         <v>-227</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
         <f>SUM(E20:G20,C20,B20)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B21" s="13">
         <v>7824</v>
@@ -1451,14 +1852,15 @@
       <c r="G21" s="13">
         <v>-227</v>
       </c>
-      <c r="H21" s="13">
-        <f t="shared" ref="H21:H23" si="0">SUM(E21:G21,C21,B21)</f>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <f>SUM(E21:G21,C21,B21)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B22" s="13">
         <v>7824</v>
@@ -1476,14 +1878,15 @@
       <c r="G22" s="13">
         <v>-227</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" si="0"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13">
+        <f>SUM(E22:G22,C22,B22)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B23" s="13">
         <v>7824</v>
@@ -1501,39 +1904,542 @@
       <c r="G23" s="13">
         <v>-227</v>
       </c>
-      <c r="H23" s="13">
-        <f t="shared" si="0"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <f>SUM(E23:G23,C23,B23)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21">
-        <f>SUM(H19:H23)</f>
+    <row r="24" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="13">
+        <v>7824</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F24" s="13">
+        <v>-273</v>
+      </c>
+      <c r="G24" s="13">
+        <v>-227</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13">
+        <f>SUM(E24:G24,C24,B24)</f>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20">
+        <f>SUM(I20:I24)</f>
         <v>43595.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="22">
-        <f>SUM(H24,H16,H13,H8,H5)</f>
-        <v>185602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="21">
+        <f>SUM(I25,I17,I14,I9,I5)</f>
+        <v>196509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Depreciaciones" sheetId="4" r:id="rId5"/>
     <sheet name="Impuestos" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -402,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -421,7 +424,6 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -454,12 +456,42 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -760,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,22 +809,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -812,453 +844,453 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="41">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="40">
         <v>14.79</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="43">
         <v>5088</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <f>B3+(B3*G2)</f>
         <v>6105.6</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <f>C3+(B3*G2)</f>
         <v>7123.2000000000007</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <f>D3+(B3*G2)</f>
         <v>8140.8000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <f>SUM(Remuneraciones!I14,Remuneraciones!I17)*6</f>
         <v>444039</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <f>B4+$B$4*$G$2</f>
         <v>532846.80000000005</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <f t="shared" ref="D4:E4" si="0">C4+$B$4*$G$2</f>
         <v>621654.60000000009</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <f t="shared" si="0"/>
         <v>710462.40000000014</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <f>SUM(Remuneraciones!I25)*6</f>
         <v>261573</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <f>B5+B5*G2</f>
         <v>313887.59999999998</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <f>C5*2+C5*2*G2</f>
         <v>753330.24</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <f>D5+D5*G2</f>
         <v>903996.28799999994</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <f>770*6</f>
         <v>4620</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <f>B6+B6*G2</f>
         <v>5544</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <f>C6+$B$6*$G$2</f>
         <v>6468</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <f>D6+$B$6*$G$2</f>
         <v>7392</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>972</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <f>B7+$B$7*$G$2</f>
         <v>1166.4000000000001</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <f t="shared" ref="D7:E7" si="1">C7+$B$7*$G$2</f>
         <v>1360.8000000000002</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <f t="shared" si="1"/>
         <v>1555.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <f>(25*F2)*6</f>
         <v>2218.5</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <f>B8+$B$8*$G$2</f>
         <v>2662.2</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <f t="shared" ref="D8:E8" si="2">C8+$B$8*$G$2</f>
         <v>3105.8999999999996</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <f t="shared" si="2"/>
         <v>3549.5999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <f>SUM(B3:B8)</f>
         <v>718510.5</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <f>SUM(C3:C8)</f>
         <v>862212.6</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <f>SUM(D3:D8)</f>
         <v>1393042.74</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <f>SUM(E3:E8)</f>
         <v>1635096.2880000002</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <f>SUM(Remuneraciones!I5,Remuneraciones!I9,Remuneraciones!I19)*6</f>
         <v>617157</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <f>B11+$B$11*$G$2</f>
         <v>740588.4</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <f t="shared" ref="D11:E11" si="3">C11+$B$11*$G$2</f>
         <v>864019.8</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <f t="shared" si="3"/>
         <v>987451.20000000007</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <f>(900*5*6)</f>
         <v>27000</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <f>B12+$B$12*$G$2</f>
         <v>32400</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <f t="shared" ref="D12:E12" si="4">C12+$B$12*$G$2</f>
         <v>37800</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <f t="shared" si="4"/>
         <v>43200</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <f>300*5*6</f>
         <v>9000</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <f>B13+$B$13*$G$2</f>
         <v>10800</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <f t="shared" ref="D13:E13" si="5">C13+$B$13*$G$2</f>
         <v>12600</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <f t="shared" si="5"/>
         <v>14400</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <f>6200*6</f>
         <v>37200</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <f>B14+$B$14*$G$2</f>
         <v>44640</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <f t="shared" ref="D14:E14" si="6">C14+$B$14*$G$2</f>
         <v>52080</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <f t="shared" si="6"/>
         <v>59520</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <f>380*6</f>
         <v>2280</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="43">
         <f>B15+$B$15*G2</f>
         <v>2736</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <f t="shared" ref="D15:E15" si="7">C15+$B$15*H2</f>
         <v>2736</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="44">
         <f t="shared" si="7"/>
         <v>2736</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <f>59.9*6</f>
         <v>359.4</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="43">
         <f>B16+$B$16*G2</f>
         <v>431.28</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <f t="shared" ref="D16:E16" si="8">C16+$B$16*H2</f>
         <v>431.28</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <f t="shared" si="8"/>
         <v>431.28</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <f>SUM(B11:B17)</f>
         <v>692996.4</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <f>SUM(C11:C17)</f>
         <v>831595.68</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <f>SUM(D11:D17)</f>
         <v>969667.08000000007</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <f>SUM(E11:E17)</f>
         <v>1107738.4800000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>12000</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="43">
         <f>B20+$B$20*$G$2</f>
         <v>14400</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <f t="shared" ref="D20:E20" si="9">C20+$B$20*$G$2</f>
         <v>16800</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <f t="shared" si="9"/>
         <v>19200</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <f>3000*6</f>
         <v>18000</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="43">
         <f>B21+$B$21*$G$2</f>
         <v>21600</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="44">
         <f t="shared" ref="D21:E21" si="10">C21+$B$21*$G$2</f>
         <v>25200</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="44">
         <f t="shared" si="10"/>
         <v>28800</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <v>4650</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45">
+      <c r="C22" s="43"/>
+      <c r="D22" s="44">
         <f>B22+B22*(G2*2)</f>
         <v>6510</v>
       </c>
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <f>SUM(B20:B22)</f>
         <v>34650</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <f>SUM(C20:C22)</f>
         <v>36000</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <f>SUM(D20:D22)</f>
         <v>48510</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <f>SUM(E20:E22)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="38">
         <f>SUM(B23,B18,B9)</f>
         <v>1446156.9</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="38">
         <f>SUM(C23,C18,C9)</f>
         <v>1729808.28</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="38">
         <f>SUM(D23,D18,D9)</f>
         <v>2411219.8200000003</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="38">
         <f>SUM(E23,E18,E9)</f>
         <v>2790834.7680000002</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35">
+      <c r="F24" s="33"/>
+      <c r="G24" s="34">
         <f>SUM(B24:F24)</f>
         <v>8378019.7680000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="48">
+      <c r="B26" s="47">
         <f>SUM(C24,B24)</f>
         <v>3175965.1799999997</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <f>SUM(D24,E24)</f>
         <v>5202054.5880000005</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1271,7 +1303,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1357,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="24"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1334,8 +1366,8 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1344,8 +1376,8 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1354,8 +1386,8 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1364,8 +1396,8 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1374,8 +1406,8 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1384,8 +1416,8 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1394,8 +1426,8 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1413,8 +1445,8 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1423,8 +1455,8 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1433,8 +1465,8 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1443,11 +1475,11 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F15" s="27"/>
+      <c r="F15" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,17 +1969,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19">
         <f>SUM(I20:I24)</f>
         <v>43595.5</v>
       </c>
@@ -1956,17 +1988,24 @@
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <f>SUM(I25,I17,I14,I9,I5)</f>
         <v>196509</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="48" t="s">
         <v>51</v>
       </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:E28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2006,126 +2045,126 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+    <row r="2" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,125 +2205,125 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2321,125 +2360,125 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
     <sheet name="Costos Variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Remuneraciones" sheetId="3" r:id="rId3"/>
-    <sheet name="Amortizaciones " sheetId="5" r:id="rId4"/>
-    <sheet name="Depreciaciones" sheetId="4" r:id="rId5"/>
-    <sheet name="Impuestos" sheetId="6" r:id="rId6"/>
+    <sheet name="Estimacion de pedidos" sheetId="7" r:id="rId3"/>
+    <sheet name="Remuneraciones" sheetId="3" r:id="rId4"/>
+    <sheet name="Amortizaciones " sheetId="5" r:id="rId5"/>
+    <sheet name="Depreciaciones" sheetId="4" r:id="rId6"/>
+    <sheet name="Impuestos" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Hosting</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Costos Administrativos</t>
   </si>
   <si>
-    <t>Acesoría Legal</t>
-  </si>
-  <si>
     <t>Seguros</t>
   </si>
   <si>
@@ -244,14 +242,58 @@
   </si>
   <si>
     <t>Asesoría Contable</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>Inflación</t>
+  </si>
+  <si>
+    <t>???fijo o variable?</t>
+  </si>
+  <si>
+    <t>Consumo por km</t>
+  </si>
+  <si>
+    <t>Precio de combustible</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>% estimado de pedidos</t>
+  </si>
+  <si>
+    <t>Estimado estandar de pedidos por semestre año 1</t>
+  </si>
+  <si>
+    <t>Estimado estandar de pedidos por semestre año 2</t>
+  </si>
+  <si>
+    <t>Medidas estimadas</t>
+  </si>
+  <si>
+    <t>Porcentajes estimados</t>
+  </si>
+  <si>
+    <t>Estimado Km por pedido en promedio</t>
+  </si>
+  <si>
+    <t>????????</t>
+  </si>
+  <si>
+    <t>Asesoría Legal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -277,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -415,10 +463,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -427,8 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -458,6 +502,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,13 +848,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -809,26 +865,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -844,453 +900,456 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="40">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="36">
         <v>14.79</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="23">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="39">
         <v>5088</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="39">
         <f>B3+(B3*G2)</f>
         <v>6105.6</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="40">
         <f>C3+(B3*G2)</f>
         <v>7123.2000000000007</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="40">
         <f>D3+(B3*G2)</f>
         <v>8140.8000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="43">
+      <c r="A4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="39">
         <f>SUM(Remuneraciones!I14,Remuneraciones!I17)*6</f>
         <v>444039</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="39">
         <f>B4+$B$4*$G$2</f>
         <v>532846.80000000005</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="40">
         <f t="shared" ref="D4:E4" si="0">C4+$B$4*$G$2</f>
         <v>621654.60000000009</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="40">
         <f t="shared" si="0"/>
         <v>710462.40000000014</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="43">
+      <c r="A5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="39">
         <f>SUM(Remuneraciones!I25)*6</f>
         <v>261573</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="39">
         <f>B5+B5*G2</f>
         <v>313887.59999999998</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <f>C5*2+C5*2*G2</f>
         <v>753330.24</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="40">
         <f>D5+D5*G2</f>
         <v>903996.28799999994</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="39">
         <f>770*6</f>
         <v>4620</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <f>B6+B6*G2</f>
         <v>5544</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <f>C6+$B$6*$G$2</f>
         <v>6468</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <f>D6+$B$6*$G$2</f>
         <v>7392</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="39">
         <v>972</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="39">
         <f>B7+$B$7*$G$2</f>
         <v>1166.4000000000001</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="40">
         <f t="shared" ref="D7:E7" si="1">C7+$B$7*$G$2</f>
         <v>1360.8000000000002</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="40">
         <f t="shared" si="1"/>
         <v>1555.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="39">
         <f>(25*F2)*6</f>
         <v>2218.5</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <f>B8+$B$8*$G$2</f>
         <v>2662.2</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="40">
         <f t="shared" ref="D8:E8" si="2">C8+$B$8*$G$2</f>
         <v>3105.8999999999996</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="40">
         <f t="shared" si="2"/>
         <v>3549.5999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="36">
+    <row r="9" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="32">
         <f>SUM(B3:B8)</f>
         <v>718510.5</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <f>SUM(C3:C8)</f>
         <v>862212.6</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <f>SUM(D3:D8)</f>
         <v>1393042.74</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <f>SUM(E3:E8)</f>
         <v>1635096.2880000002</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="43">
+      <c r="A11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="39">
         <f>SUM(Remuneraciones!I5,Remuneraciones!I9,Remuneraciones!I19)*6</f>
         <v>617157</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="39">
         <f>B11+$B$11*$G$2</f>
         <v>740588.4</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="40">
         <f t="shared" ref="D11:E11" si="3">C11+$B$11*$G$2</f>
         <v>864019.8</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="40">
         <f t="shared" si="3"/>
         <v>987451.20000000007</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="A12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="39">
         <f>(900*5*6)</f>
         <v>27000</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <f>B12+$B$12*$G$2</f>
         <v>32400</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="40">
         <f t="shared" ref="D12:E12" si="4">C12+$B$12*$G$2</f>
         <v>37800</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="40">
         <f t="shared" si="4"/>
         <v>43200</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="39">
         <f>300*5*6</f>
         <v>9000</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <f>B13+$B$13*$G$2</f>
         <v>10800</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="40">
         <f t="shared" ref="D13:E13" si="5">C13+$B$13*$G$2</f>
         <v>12600</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="40">
         <f t="shared" si="5"/>
         <v>14400</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="43">
+      <c r="A14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="39">
         <f>6200*6</f>
         <v>37200</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <f>B14+$B$14*$G$2</f>
         <v>44640</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="40">
         <f t="shared" ref="D14:E14" si="6">C14+$B$14*$G$2</f>
         <v>52080</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="40">
         <f t="shared" si="6"/>
         <v>59520</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="43">
+      <c r="A15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="39">
         <f>380*6</f>
         <v>2280</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="39">
         <f>B15+$B$15*G2</f>
         <v>2736</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="40">
         <f t="shared" ref="D15:E15" si="7">C15+$B$15*H2</f>
         <v>2736</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="40">
         <f t="shared" si="7"/>
         <v>2736</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="43">
+      <c r="A16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="39">
         <f>59.9*6</f>
         <v>359.4</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="39">
         <f>B16+$B$16*G2</f>
         <v>431.28</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="40">
         <f t="shared" ref="D16:E16" si="8">C16+$B$16*H2</f>
         <v>431.28</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="40">
         <f t="shared" si="8"/>
         <v>431.28</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-    </row>
-    <row r="18" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="36">
+      <c r="A17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="32">
         <f>SUM(B11:B17)</f>
         <v>692996.4</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="32">
         <f>SUM(C11:C17)</f>
         <v>831595.68</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="32">
         <f>SUM(D11:D17)</f>
         <v>969667.08000000007</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="32">
         <f>SUM(E11:E17)</f>
         <v>1107738.4800000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="43">
+      <c r="A20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="39">
         <v>12000</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="39">
         <f>B20+$B$20*$G$2</f>
         <v>14400</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="40">
         <f t="shared" ref="D20:E20" si="9">C20+$B$20*$G$2</f>
         <v>16800</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="40">
         <f t="shared" si="9"/>
         <v>19200</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="43">
+      <c r="A21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="39">
         <f>3000*6</f>
         <v>18000</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="39">
         <f>B21+$B$21*$G$2</f>
         <v>21600</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="40">
         <f t="shared" ref="D21:E21" si="10">C21+$B$21*$G$2</f>
         <v>25200</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="40">
         <f t="shared" si="10"/>
         <v>28800</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="43">
+      <c r="A22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="39">
         <v>4650</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44">
+      <c r="C22" s="39"/>
+      <c r="D22" s="40">
         <f>B22+B22*(G2*2)</f>
         <v>6510</v>
       </c>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="36">
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="32">
         <f>SUM(B20:B22)</f>
         <v>34650</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="32">
         <f>SUM(C20:C22)</f>
         <v>36000</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="32">
         <f>SUM(D20:D22)</f>
         <v>48510</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="32">
         <f>SUM(E20:E22)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="38">
+    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="34">
         <f>SUM(B23,B18,B9)</f>
         <v>1446156.9</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="34">
         <f>SUM(C23,C18,C9)</f>
         <v>1729808.28</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="34">
         <f>SUM(D23,D18,D9)</f>
         <v>2411219.8200000003</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="34">
         <f>SUM(E23,E18,E9)</f>
         <v>2790834.7680000002</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34">
+      <c r="F24" s="29"/>
+      <c r="G24" s="30">
         <f>SUM(B24:F24)</f>
         <v>8378019.7680000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="47">
+      <c r="B26" s="43">
         <f>SUM(C24,B24)</f>
         <v>3175965.1799999997</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <f>SUM(D24,E24)</f>
         <v>5202054.5880000005</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
+      <c r="B28" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1300,16 +1359,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
@@ -1318,24 +1377,26 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1357,136 +1418,315 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="23"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="51">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46">
+        <f>3980+3980*G2</f>
+        <v>4776</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47">
+        <f>3980+3980*60%</f>
+        <v>6368</v>
+      </c>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47">
+        <f>99500+99500*40%</f>
+        <v>139300</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="46">
+        <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B11)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6</f>
+        <v>73664.639999999999</v>
+      </c>
+      <c r="C6" s="46">
+        <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B12)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+B6*G2</f>
+        <v>96582.528000000006</v>
+      </c>
+      <c r="D6" s="47">
+        <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B13)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+C6*G2</f>
+        <v>167055.0336</v>
+      </c>
+      <c r="E6" s="48">
+        <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B14)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+D6*G2</f>
+        <v>188925.24672</v>
+      </c>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="46">
+        <f>C7+C7*'Estimacion de pedidos'!B11</f>
+        <v>540</v>
+      </c>
+      <c r="C7" s="46">
+        <f>500+500*G2</f>
+        <v>600</v>
+      </c>
+      <c r="D7" s="47">
+        <f>(C7+C7*'Estimacion de pedidos'!B13)+C7*G2</f>
+        <v>690</v>
+      </c>
+      <c r="E7" s="47">
+        <f>(D7+D7*'Estimacion de pedidos'!B14)+D7*G2</f>
+        <v>828</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="46">
+        <f>SUM(B6:B7)</f>
+        <v>74204.639999999999</v>
+      </c>
+      <c r="C8" s="46">
+        <f>SUM(C3:C7)</f>
+        <v>101958.52800000001</v>
+      </c>
+      <c r="D8" s="47">
+        <f>SUM(D3:D7)</f>
+        <v>307045.03359999997</v>
+      </c>
+      <c r="E8" s="48">
+        <f>SUM(E3:E7)</f>
+        <v>196121.24672</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F15" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="52"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="53">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="53">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="53">
+        <f>B4+B4*90%</f>
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="52"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="55">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="55">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD28"/>
   <sheetViews>
@@ -1508,34 +1748,34 @@
   <sheetData>
     <row r="1" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1546,61 +1786,61 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="13">
+    <row r="3" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11">
         <v>24000</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
         <f>SUM(B3:D3)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11">
         <v>24000</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11">
         <f>SUM(B4:D4)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="5" spans="1:9 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
+    <row r="5" spans="1:9 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14">
         <f>SUM(I3:I4)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="6" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1611,61 +1851,61 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="11">
         <v>20000</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
         <f>SUM(B7:D7)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="11">
         <v>10907</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
         <f>SUM(B8:G8)</f>
         <v>10907</v>
       </c>
     </row>
-    <row r="9" spans="1:9 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
+    <row r="9" spans="1:9 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
         <f>SUM(I7:I8)</f>
         <v>30907</v>
       </c>
     </row>
     <row r="10" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1676,89 +1916,89 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="11">
         <v>18425</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>5527.5</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
         <f>SUM(B11:G11)</f>
         <v>23952.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="11">
         <v>15125</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>2420</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
         <f>SUM(B12:G12)</f>
         <v>17545</v>
       </c>
     </row>
-    <row r="13" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="11">
         <v>15125</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>2420</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11">
         <f>SUM(B13,C13)</f>
         <v>17545</v>
       </c>
-      <c r="XFD13" s="15">
+      <c r="XFD13" s="13">
         <f>SUM(B13:XFC13)</f>
         <v>35090</v>
       </c>
     </row>
-    <row r="14" spans="1:9 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
+    <row r="14" spans="1:9 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
         <f>SUM(I11:I13)</f>
         <v>59042.5</v>
       </c>
     </row>
     <row r="15" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1769,45 +2009,45 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11">
         <v>12900</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>2064</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11">
         <f>SUM(B16:G16)</f>
         <v>14964</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
         <f>SUM(I16)</f>
         <v>14964</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1818,189 +2058,189 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13">
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="11">
         <v>18425</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>5527.5</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11">
         <f>SUM(B19:H19)</f>
         <v>23952.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="13">
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="11">
         <v>7824</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>2670</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
         <v>-1274.9000000000001</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <v>-273</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>-227</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
         <f>SUM(E20:G20,C20,B20)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="13">
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="11">
         <v>7824</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>2670</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
         <v>-1274.9000000000001</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <v>-273</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>-227</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11">
         <f>SUM(E21:G21,C21,B21)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="13">
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="11">
         <v>7824</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>2670</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11">
         <v>-1274.9000000000001</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <v>-273</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <v>-227</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11">
         <f>SUM(E22:G22,C22,B22)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="13">
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11">
         <v>7824</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>2670</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
         <v>-1274.9000000000001</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <v>-273</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <v>-227</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11">
         <f>SUM(E23:G23,C23,B23)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13">
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="11">
         <v>7824</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>2670</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
         <v>-1274.9000000000001</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <v>-273</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <v>-227</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11">
         <f>SUM(E24:G24,C24,B24)</f>
         <v>8719.1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19">
+    <row r="25" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17">
         <f>SUM(I20:I24)</f>
         <v>43595.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="20">
+        <v>43</v>
+      </c>
+      <c r="I26" s="18">
         <f>SUM(I25,I17,I14,I9,I5)</f>
         <v>196509</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
+      <c r="A28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2010,7 +2250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -2028,16 +2268,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2045,138 +2285,297 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,166 +2589,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2360,125 +2600,125 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -9,12 +9,16 @@
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
     <sheet name="Costos Variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Estimacion de pedidos" sheetId="7" r:id="rId3"/>
-    <sheet name="Remuneraciones" sheetId="3" r:id="rId4"/>
-    <sheet name="Amortizaciones " sheetId="5" r:id="rId5"/>
-    <sheet name="Depreciaciones" sheetId="4" r:id="rId6"/>
-    <sheet name="Impuestos" sheetId="6" r:id="rId7"/>
+    <sheet name="Costos legales" sheetId="8" r:id="rId3"/>
+    <sheet name="Estimacion de pedidos" sheetId="7" r:id="rId4"/>
+    <sheet name="Remuneraciones" sheetId="3" r:id="rId5"/>
+    <sheet name="Amortizaciones " sheetId="5" r:id="rId6"/>
+    <sheet name="Depreciaciones" sheetId="4" r:id="rId7"/>
+    <sheet name="Impuestos" sheetId="6" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Hosting</t>
   </si>
@@ -284,6 +288,51 @@
   </si>
   <si>
     <t>Asesoría Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asesoría legal </t>
+  </si>
+  <si>
+    <t>JUS</t>
+  </si>
+  <si>
+    <t>Calculo asesoría legal</t>
+  </si>
+  <si>
+    <t>Semestre 1 -2016</t>
+  </si>
+  <si>
+    <t>Semestre 2 -2016</t>
+  </si>
+  <si>
+    <t>Semestre 1 -2017</t>
+  </si>
+  <si>
+    <t>Semestre 2 -2017</t>
+  </si>
+  <si>
+    <t>Estandar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premiun </t>
+  </si>
+  <si>
+    <t>Home semanal</t>
+  </si>
+  <si>
+    <t>Home mensual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail semanal </t>
+  </si>
+  <si>
+    <t>E-mail Mensual</t>
+  </si>
+  <si>
+    <t>Costo de asesoría legal=</t>
+  </si>
+  <si>
+    <t>Valor asesoría</t>
   </si>
 </sst>
 </file>
@@ -293,7 +342,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -319,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +432,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -500,20 +561,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,6 +624,189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01-Tipo Ingreso"/>
+      <sheetName val="02-Volumenes Ingresos"/>
+      <sheetName val="03-Ingresos"/>
+      <sheetName val="04-Gastos"/>
+      <sheetName val="Ganancias"/>
+      <sheetName val="Indicadores Financieros"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3">
+            <v>10500</v>
+          </cell>
+          <cell r="C3">
+            <v>12810</v>
+          </cell>
+          <cell r="D3">
+            <v>15120</v>
+          </cell>
+          <cell r="E3">
+            <v>17430</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>15000</v>
+          </cell>
+          <cell r="C4">
+            <v>18300</v>
+          </cell>
+          <cell r="D4">
+            <v>21600</v>
+          </cell>
+          <cell r="E4">
+            <v>24900</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1700</v>
+          </cell>
+          <cell r="C6">
+            <v>2074</v>
+          </cell>
+          <cell r="D6">
+            <v>2448</v>
+          </cell>
+          <cell r="E6">
+            <v>2822</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>6500</v>
+          </cell>
+          <cell r="C7">
+            <v>7930</v>
+          </cell>
+          <cell r="D7">
+            <v>9360</v>
+          </cell>
+          <cell r="E7">
+            <v>10790</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>500</v>
+          </cell>
+          <cell r="C8">
+            <v>610</v>
+          </cell>
+          <cell r="D8">
+            <v>720</v>
+          </cell>
+          <cell r="E8">
+            <v>830</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1400</v>
+          </cell>
+          <cell r="C9">
+            <v>1708</v>
+          </cell>
+          <cell r="D9">
+            <v>2016</v>
+          </cell>
+          <cell r="E9">
+            <v>2324</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4">
+            <v>13</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="E4">
+            <v>4</v>
+          </cell>
+          <cell r="F4">
+            <v>4</v>
+          </cell>
+          <cell r="G4">
+            <v>5</v>
+          </cell>
+          <cell r="H4">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>10</v>
+          </cell>
+          <cell r="C5">
+            <v>5</v>
+          </cell>
+          <cell r="E5">
+            <v>5</v>
+          </cell>
+          <cell r="H5">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>13</v>
+          </cell>
+          <cell r="C6">
+            <v>7</v>
+          </cell>
+          <cell r="E6">
+            <v>6</v>
+          </cell>
+          <cell r="F6">
+            <v>5</v>
+          </cell>
+          <cell r="G6">
+            <v>5</v>
+          </cell>
+          <cell r="H6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>21</v>
+          </cell>
+          <cell r="C7">
+            <v>9</v>
+          </cell>
+          <cell r="E7">
+            <v>5</v>
+          </cell>
+          <cell r="F7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>6</v>
+          </cell>
+          <cell r="H7">
+            <v>9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1359,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,6 +1623,8 @@
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1397,8 +1649,12 @@
       <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1419,21 +1675,27 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="51">
+      <c r="G2" s="49">
         <v>0.2</v>
+      </c>
+      <c r="H2" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="56">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44">
         <f>3980+3980*G2</f>
         <v>4776</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45">
         <f>3980+3980*60%</f>
         <v>6368</v>
       </c>
@@ -1443,23 +1705,23 @@
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45">
         <f>99500+99500*40%</f>
         <v>139300</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="20" t="s">
         <v>75</v>
       </c>
@@ -1468,19 +1730,19 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="44">
         <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B11)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6</f>
         <v>73664.639999999999</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="44">
         <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B12)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+B6*G2</f>
         <v>96582.528000000006</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B13)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+C6*G2</f>
         <v>167055.0336</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B14)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+D6*G2</f>
         <v>188925.24672</v>
       </c>
@@ -1490,19 +1752,19 @@
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <f>C7+C7*'Estimacion de pedidos'!B11</f>
         <v>540</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <f>500+500*G2</f>
         <v>600</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <f>(C7+C7*'Estimacion de pedidos'!B13)+C7*G2</f>
         <v>690</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="45">
         <f>(D7+D7*'Estimacion de pedidos'!B14)+D7*G2</f>
         <v>828</v>
       </c>
@@ -1512,19 +1774,19 @@
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="44">
         <f>SUM(B6:B7)</f>
         <v>74204.639999999999</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <f>SUM(C3:C7)</f>
         <v>101958.52800000001</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <f>SUM(D3:D7)</f>
         <v>307045.03359999997</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <f>SUM(E3:E7)</f>
         <v>196121.24672</v>
       </c>
@@ -1534,20 +1796,20 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="20" t="s">
         <v>85</v>
       </c>
@@ -1556,53 +1818,74 @@
       <c r="A11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="44">
+        <f>'Costos legales'!H4</f>
+        <v>6264</v>
+      </c>
+      <c r="C11" s="44">
+        <f>'Costos legales'!H6</f>
+        <v>8300.880000000001</v>
+      </c>
+      <c r="D11" s="45">
+        <f>'Costos legales'!H8</f>
+        <v>12869.279999999999</v>
+      </c>
+      <c r="E11" s="45">
+        <f>'Costos legales'!H10</f>
+        <v>19875.18</v>
+      </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,6 +1894,307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="61">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$B$4*'[1]01-Tipo Ingreso'!$B$3</f>
+        <v>136500</v>
+      </c>
+      <c r="C3" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$C$4*'[1]01-Tipo Ingreso'!$B$4</f>
+        <v>30000</v>
+      </c>
+      <c r="D3" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$E$4*'[1]01-Tipo Ingreso'!$B$6</f>
+        <v>6800</v>
+      </c>
+      <c r="E3" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$B$7</f>
+        <v>26000</v>
+      </c>
+      <c r="F3" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$B$8</f>
+        <v>2500</v>
+      </c>
+      <c r="G3" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$H$4*'[1]01-Tipo Ingreso'!$B$9</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="58">
+        <f>B3*B1</f>
+        <v>4095</v>
+      </c>
+      <c r="C4" s="58">
+        <f>C3*B1</f>
+        <v>900</v>
+      </c>
+      <c r="D4" s="58">
+        <f>D3*B1</f>
+        <v>204</v>
+      </c>
+      <c r="E4" s="58">
+        <f>E3*B1</f>
+        <v>780</v>
+      </c>
+      <c r="F4" s="58">
+        <f>F3*B1</f>
+        <v>75</v>
+      </c>
+      <c r="G4" s="58">
+        <f>G3*B1</f>
+        <v>210</v>
+      </c>
+      <c r="H4" s="58">
+        <f>SUM(B4:G4)</f>
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$B$5*'[1]01-Tipo Ingreso'!$C$3</f>
+        <v>128100</v>
+      </c>
+      <c r="C5" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$C$5*'[1]01-Tipo Ingreso'!$C$4</f>
+        <v>91500</v>
+      </c>
+      <c r="D5" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$E$5*'[1]01-Tipo Ingreso'!$C$6</f>
+        <v>10370</v>
+      </c>
+      <c r="E5" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$C$7</f>
+        <v>31720</v>
+      </c>
+      <c r="F5" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$C$8</f>
+        <v>3050</v>
+      </c>
+      <c r="G5" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$H$5*'[1]01-Tipo Ingreso'!$C$9</f>
+        <v>11956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="58">
+        <f>B5*B1</f>
+        <v>3843</v>
+      </c>
+      <c r="C6" s="58">
+        <f>C5*B1</f>
+        <v>2745</v>
+      </c>
+      <c r="D6" s="58">
+        <f>D5*B1</f>
+        <v>311.09999999999997</v>
+      </c>
+      <c r="E6" s="58">
+        <f>E5*B1</f>
+        <v>951.59999999999991</v>
+      </c>
+      <c r="F6" s="58">
+        <f>F5*B1</f>
+        <v>91.5</v>
+      </c>
+      <c r="G6" s="58">
+        <f>G5*B1</f>
+        <v>358.68</v>
+      </c>
+      <c r="H6" s="58">
+        <f>SUM(B6:G6)</f>
+        <v>8300.880000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$B$6*'[1]01-Tipo Ingreso'!$D$3</f>
+        <v>196560</v>
+      </c>
+      <c r="C7" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$C$6*'[1]01-Tipo Ingreso'!$D$4</f>
+        <v>151200</v>
+      </c>
+      <c r="D7" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$E$6*'[1]01-Tipo Ingreso'!$D$6</f>
+        <v>14688</v>
+      </c>
+      <c r="E7" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$F$6*'[1]01-Tipo Ingreso'!$D$7</f>
+        <v>46800</v>
+      </c>
+      <c r="F7" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$G$6*'[1]01-Tipo Ingreso'!$D$8</f>
+        <v>3600</v>
+      </c>
+      <c r="G7" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$H$6*'[1]01-Tipo Ingreso'!$D$9</f>
+        <v>16128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="58">
+        <f>B7*B1</f>
+        <v>5896.8</v>
+      </c>
+      <c r="C8" s="58">
+        <f>C7*B1</f>
+        <v>4536</v>
+      </c>
+      <c r="D8" s="58">
+        <f>D7*B1</f>
+        <v>440.64</v>
+      </c>
+      <c r="E8" s="58">
+        <f>E7*B1</f>
+        <v>1404</v>
+      </c>
+      <c r="F8" s="58">
+        <f>F7*B1</f>
+        <v>108</v>
+      </c>
+      <c r="G8" s="58">
+        <f>G7*B1</f>
+        <v>483.84</v>
+      </c>
+      <c r="H8" s="58">
+        <f>SUM(B8:G8)</f>
+        <v>12869.279999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$B$7*'[1]01-Tipo Ingreso'!$E$3</f>
+        <v>366030</v>
+      </c>
+      <c r="C9" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$C$7*'[1]01-Tipo Ingreso'!$E$4</f>
+        <v>224100</v>
+      </c>
+      <c r="D9" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$E$7*'[1]01-Tipo Ingreso'!$E$6</f>
+        <v>14110</v>
+      </c>
+      <c r="E9" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$F$7*'[1]01-Tipo Ingreso'!$E$7</f>
+        <v>32370</v>
+      </c>
+      <c r="F9" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$G$7*'[1]01-Tipo Ingreso'!$E$8</f>
+        <v>4980</v>
+      </c>
+      <c r="G9" s="43">
+        <f>'[1]02-Volumenes Ingresos'!$H$7*'[1]01-Tipo Ingreso'!$E$9</f>
+        <v>20916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="58">
+        <f>B9*B1</f>
+        <v>10980.9</v>
+      </c>
+      <c r="C10" s="58">
+        <f>C9*B1</f>
+        <v>6723</v>
+      </c>
+      <c r="D10" s="58">
+        <f>D9*B1</f>
+        <v>423.3</v>
+      </c>
+      <c r="E10" s="58">
+        <f>E9*B1</f>
+        <v>971.09999999999991</v>
+      </c>
+      <c r="F10" s="58">
+        <f>F9*B1</f>
+        <v>149.4</v>
+      </c>
+      <c r="G10" s="58">
+        <f>G9*B1</f>
+        <v>627.48</v>
+      </c>
+      <c r="H10" s="58">
+        <f>SUM(B10:G10)</f>
+        <v>19875.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1625,16 +2209,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="50">
         <v>7</v>
       </c>
     </row>
@@ -1642,7 +2226,7 @@
       <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="50">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -1650,7 +2234,7 @@
       <c r="A4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="50">
         <v>25200</v>
       </c>
     </row>
@@ -1658,7 +2242,7 @@
       <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <f>B4+B4*90%</f>
         <v>47880</v>
       </c>
@@ -1667,21 +2251,21 @@
       <c r="A6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="51">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="50" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1689,7 +2273,7 @@
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="52">
         <v>-0.1</v>
       </c>
     </row>
@@ -1697,7 +2281,7 @@
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="52">
         <v>0</v>
       </c>
     </row>
@@ -1705,7 +2289,7 @@
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="52">
         <v>-0.05</v>
       </c>
     </row>
@@ -1713,7 +2297,7 @@
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="52">
         <v>0</v>
       </c>
     </row>
@@ -1726,7 +2310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD28"/>
   <sheetViews>
@@ -2234,13 +2818,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2250,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -2411,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -2570,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,10 @@
     <sheet name="Estimacion de pedidos" sheetId="7" r:id="rId4"/>
     <sheet name="Remuneraciones" sheetId="3" r:id="rId5"/>
     <sheet name="Amortizaciones " sheetId="5" r:id="rId6"/>
-    <sheet name="Depreciaciones" sheetId="4" r:id="rId7"/>
-    <sheet name="Impuestos" sheetId="6" r:id="rId8"/>
+    <sheet name="Impuestos" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>Hosting</t>
   </si>
@@ -65,15 +65,9 @@
     <t>Costos Administrativos</t>
   </si>
   <si>
-    <t>Seguros</t>
-  </si>
-  <si>
     <t>Costos Comercialización y ventas</t>
   </si>
   <si>
-    <t>Gastos de representación (invitaciones, Agazajos)</t>
-  </si>
-  <si>
     <t>Fiesta de celebración</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Córdoba Pablo</t>
   </si>
   <si>
-    <t>Domingues Jacobo</t>
-  </si>
-  <si>
     <t>Subsistema Gerencial</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>Aporte SEG social + Jubilación</t>
-  </si>
-  <si>
     <t>Aporte Obra Social</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>Adicionales *</t>
   </si>
   <si>
-    <t>Ley 19072</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Corresponde a los extras asignados por los diferentes sindicatos, colegios, uniones etc </t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t xml:space="preserve">Alumbrado y barrido Publico  </t>
-  </si>
-  <si>
     <t>Recepcionista</t>
   </si>
   <si>
@@ -209,18 +191,12 @@
     <t>Amortización Anual</t>
   </si>
   <si>
-    <t>Depreciación Anual</t>
-  </si>
-  <si>
     <t>Bien</t>
   </si>
   <si>
     <t>Concepto</t>
   </si>
   <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Taller</t>
   </si>
   <si>
@@ -239,18 +215,12 @@
     <t>Salario(Entrepeneur,Gte General, Admin,Lider Logistica)</t>
   </si>
   <si>
-    <t>Salario (Desarrollo,Marketing)</t>
-  </si>
-  <si>
     <t>Salario (Cadetes)</t>
   </si>
   <si>
     <t>Asesoría Contable</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>Inflación</t>
   </si>
   <si>
@@ -333,6 +303,90 @@
   </si>
   <si>
     <t>Valor asesoría</t>
+  </si>
+  <si>
+    <t>Seguros motos</t>
+  </si>
+  <si>
+    <t>Salario (Desarrollo,Marketing) *</t>
+  </si>
+  <si>
+    <t>*incluye leyes sociales, art.</t>
+  </si>
+  <si>
+    <t>Impuestos Nacionales</t>
+  </si>
+  <si>
+    <t>Impuesto al valor agregado</t>
+  </si>
+  <si>
+    <t>Impuestos Provinciales</t>
+  </si>
+  <si>
+    <t>IIBB</t>
+  </si>
+  <si>
+    <t>Impuestos Municipales</t>
+  </si>
+  <si>
+    <t>Tasa de Seguridad e Higiene</t>
+  </si>
+  <si>
+    <t>Publicidad y Propaganda</t>
+  </si>
+  <si>
+    <t>AB*</t>
+  </si>
+  <si>
+    <t>SS*</t>
+  </si>
+  <si>
+    <t>*valor mensual</t>
+  </si>
+  <si>
+    <t>Gastos de representación (invitaciones, Agasajos)</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>Dominguez Jacobo</t>
+  </si>
+  <si>
+    <t>Ley 19032</t>
+  </si>
+  <si>
+    <t>Aporte SEG social</t>
+  </si>
+  <si>
+    <t>Contribuciones Empleador</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Leyes Sociales</t>
+  </si>
+  <si>
+    <t>COSTO TOTAL</t>
+  </si>
+  <si>
+    <t>Subtotal Leyes Contribuciones</t>
+  </si>
+  <si>
+    <t>Subtotal Aportes</t>
+  </si>
+  <si>
+    <t>moto</t>
+  </si>
+  <si>
+    <t>valor de compra</t>
+  </si>
+  <si>
+    <t>5 años</t>
+  </si>
+  <si>
+    <t>Amortizaciones</t>
   </si>
 </sst>
 </file>
@@ -368,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +501,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -510,11 +582,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -570,17 +662,34 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,6 +910,62 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01-Tipo Ingreso"/>
+      <sheetName val="02-Volumenes Ingresos"/>
+      <sheetName val="03-Ingresos"/>
+      <sheetName val="04-Gastos"/>
+      <sheetName val="Ganancias"/>
+      <sheetName val="Indicadores Financieros"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="F3">
+            <v>1262800</v>
+          </cell>
+          <cell r="H3">
+            <v>210466.66666666666</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>2022516</v>
+          </cell>
+          <cell r="H4">
+            <v>337086</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>2919456</v>
+          </cell>
+          <cell r="H5">
+            <v>486576</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>4174236</v>
+          </cell>
+          <cell r="H6">
+            <v>695706</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -1096,15 +1261,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -1116,25 +1281,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="E1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1186,10 +1351,10 @@
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B4" s="39">
-        <f>SUM(Remuneraciones!I14,Remuneraciones!I17)*6</f>
+        <f>SUM(Remuneraciones!I15,Remuneraciones!I18)*6</f>
         <v>444039</v>
       </c>
       <c r="C4" s="39">
@@ -1207,10 +1372,10 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" s="39">
-        <f>SUM(Remuneraciones!I25)*6</f>
+        <f>SUM(Remuneraciones!I26)*6</f>
         <v>261573</v>
       </c>
       <c r="C5" s="39">
@@ -1249,141 +1414,141 @@
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B7" s="39">
-        <v>972</v>
+        <f>(900*5*6)</f>
+        <v>27000</v>
       </c>
       <c r="C7" s="39">
         <f>B7+$B$7*$G$2</f>
+        <v>32400</v>
+      </c>
+      <c r="D7" s="40">
+        <f>C7+$B$7*$G$2</f>
+        <v>37800</v>
+      </c>
+      <c r="E7" s="40">
+        <f>D7+$B$7*$G$2</f>
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="39">
+        <f>300*5*6</f>
+        <v>9000</v>
+      </c>
+      <c r="C8" s="39">
+        <f>B8+$B$8*$G$2</f>
+        <v>10800</v>
+      </c>
+      <c r="D8" s="40">
+        <f>C8+$B$8*$G$2</f>
+        <v>12600</v>
+      </c>
+      <c r="E8" s="40">
+        <f>D8+$B$8*$G$2</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="39">
+        <v>972</v>
+      </c>
+      <c r="C9" s="39">
+        <f>B9+$B$9*$G$2</f>
         <v>1166.4000000000001</v>
       </c>
-      <c r="D7" s="40">
-        <f t="shared" ref="D7:E7" si="1">C7+$B$7*$G$2</f>
+      <c r="D9" s="40">
+        <f t="shared" ref="D9:E9" si="1">C9+$B$9*$G$2</f>
         <v>1360.8000000000002</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E9" s="40">
         <f t="shared" si="1"/>
         <v>1555.2000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B10" s="39">
         <f>(25*F2)*6</f>
         <v>2218.5</v>
       </c>
-      <c r="C8" s="39">
-        <f>B8+$B$8*$G$2</f>
+      <c r="C10" s="39">
+        <f>B10+$B$10*$G$2</f>
         <v>2662.2</v>
       </c>
-      <c r="D8" s="40">
-        <f t="shared" ref="D8:E8" si="2">C8+$B$8*$G$2</f>
+      <c r="D10" s="40">
+        <f t="shared" ref="D10:E10" si="2">C10+$B$10*$G$2</f>
         <v>3105.8999999999996</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E10" s="40">
         <f t="shared" si="2"/>
         <v>3549.5999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="32">
-        <f>SUM(B3:B8)</f>
-        <v>718510.5</v>
-      </c>
-      <c r="C9" s="32">
-        <f>SUM(C3:C8)</f>
-        <v>862212.6</v>
-      </c>
-      <c r="D9" s="32">
-        <f>SUM(D3:D8)</f>
-        <v>1393042.74</v>
-      </c>
-      <c r="E9" s="32">
-        <f>SUM(E3:E8)</f>
-        <v>1635096.2880000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="11" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="32">
+        <f>SUM(B3:B10)</f>
+        <v>754510.5</v>
+      </c>
+      <c r="C11" s="32">
+        <f>SUM(C3:C10)</f>
+        <v>905412.6</v>
+      </c>
+      <c r="D11" s="32">
+        <f>SUM(D3:D10)</f>
+        <v>1443442.74</v>
+      </c>
+      <c r="E11" s="32">
+        <f>SUM(E3:E10)</f>
+        <v>1692696.2880000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="39">
-        <f>SUM(Remuneraciones!I5,Remuneraciones!I9,Remuneraciones!I19)*6</f>
-        <v>617157</v>
-      </c>
-      <c r="C11" s="39">
-        <f>B11+$B$11*$G$2</f>
-        <v>740588.4</v>
-      </c>
-      <c r="D11" s="40">
-        <f t="shared" ref="D11:E11" si="3">C11+$B$11*$G$2</f>
-        <v>864019.8</v>
-      </c>
-      <c r="E11" s="40">
-        <f t="shared" si="3"/>
-        <v>987451.20000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="39">
-        <f>(900*5*6)</f>
-        <v>27000</v>
-      </c>
-      <c r="C12" s="39">
-        <f>B12+$B$12*$G$2</f>
-        <v>32400</v>
-      </c>
-      <c r="D12" s="40">
-        <f t="shared" ref="D12:E12" si="4">C12+$B$12*$G$2</f>
-        <v>37800</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" si="4"/>
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="39">
-        <f>300*5*6</f>
-        <v>9000</v>
+        <f>SUM(Remuneraciones!I6,Remuneraciones!I10,Remuneraciones!I20)*6</f>
+        <v>593157</v>
       </c>
       <c r="C13" s="39">
         <f>B13+$B$13*$G$2</f>
-        <v>10800</v>
+        <v>711788.4</v>
       </c>
       <c r="D13" s="40">
-        <f t="shared" ref="D13:E13" si="5">C13+$B$13*$G$2</f>
-        <v>12600</v>
+        <f t="shared" ref="D13:E13" si="3">C13+$B$13*$G$2</f>
+        <v>830419.8</v>
       </c>
       <c r="E13" s="40">
-        <f t="shared" si="5"/>
-        <v>14400</v>
+        <f t="shared" si="3"/>
+        <v>949051.20000000007</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="39">
         <f>6200*6</f>
@@ -1394,41 +1559,38 @@
         <v>44640</v>
       </c>
       <c r="D14" s="40">
-        <f t="shared" ref="D14:E14" si="6">C14+$B$14*$G$2</f>
+        <f>C14+$B$14*$G$2</f>
         <v>52080</v>
       </c>
       <c r="E14" s="40">
-        <f t="shared" si="6"/>
+        <f>D14+$B$14*$G$2</f>
         <v>59520</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B15" s="39">
-        <f>380*6</f>
-        <v>2280</v>
+        <f>Impuestos!B11</f>
+        <v>181110.80000000002</v>
       </c>
       <c r="C15" s="39">
-        <f>B15+$B$15*G2</f>
-        <v>2736</v>
+        <f>Impuestos!C11</f>
+        <v>262886.45699999999</v>
       </c>
       <c r="D15" s="40">
-        <f t="shared" ref="D15:E15" si="7">C15+$B$15*H2</f>
-        <v>2736</v>
+        <f>Impuestos!D11</f>
+        <v>369980.64</v>
       </c>
       <c r="E15" s="40">
-        <f t="shared" si="7"/>
-        <v>2736</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>73</v>
+        <f>Impuestos!E11</f>
+        <v>519651.70859999995</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" s="39">
         <f>59.9*6</f>
@@ -1439,167 +1601,181 @@
         <v>431.28</v>
       </c>
       <c r="D16" s="40">
-        <f t="shared" ref="D16:E16" si="8">C16+$B$16*H2</f>
+        <f>C16+$B$16*H2</f>
         <v>431.28</v>
       </c>
       <c r="E16" s="40">
-        <f t="shared" si="8"/>
+        <f>D16+$B$16*I2</f>
         <v>431.28</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
     </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="32">
-        <f>SUM(B11:B17)</f>
-        <v>692996.4</v>
-      </c>
-      <c r="C18" s="32">
-        <f>SUM(C11:C17)</f>
-        <v>831595.68</v>
-      </c>
-      <c r="D18" s="32">
-        <f>SUM(D11:D17)</f>
-        <v>969667.08000000007</v>
-      </c>
-      <c r="E18" s="32">
-        <f>SUM(E11:E17)</f>
-        <v>1107738.4800000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="39">
-        <v>12000</v>
-      </c>
-      <c r="C20" s="39">
-        <f>B20+$B$20*$G$2</f>
-        <v>14400</v>
-      </c>
-      <c r="D20" s="40">
-        <f t="shared" ref="D20:E20" si="9">C20+$B$20*$G$2</f>
-        <v>16800</v>
-      </c>
-      <c r="E20" s="40">
-        <f t="shared" si="9"/>
-        <v>19200</v>
-      </c>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="32">
+        <f>SUM(B13:B18)</f>
+        <v>811827.20000000007</v>
+      </c>
+      <c r="C19" s="32">
+        <f>SUM(C13:C18)</f>
+        <v>1019746.1370000001</v>
+      </c>
+      <c r="D19" s="32">
+        <f>SUM(D13:D18)</f>
+        <v>1252911.72</v>
+      </c>
+      <c r="E19" s="32">
+        <f>SUM(E13:E18)</f>
+        <v>1528654.1886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B21" s="39">
+        <v>12000</v>
+      </c>
+      <c r="C21" s="39">
+        <f>B21+$B$21*$G$2</f>
+        <v>14400</v>
+      </c>
+      <c r="D21" s="40">
+        <f>C21+$B$21*$G$2</f>
+        <v>16800</v>
+      </c>
+      <c r="E21" s="40">
+        <f>D21+$B$21*$G$2</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="39">
         <f>3000*6</f>
         <v>18000</v>
       </c>
-      <c r="C21" s="39">
-        <f>B21+$B$21*$G$2</f>
+      <c r="C22" s="39">
+        <f>B22+$B$22*$G$2</f>
         <v>21600</v>
       </c>
-      <c r="D21" s="40">
-        <f t="shared" ref="D21:E21" si="10">C21+$B$21*$G$2</f>
+      <c r="D22" s="40">
+        <f>C22+$B$22*$G$2</f>
         <v>25200</v>
       </c>
-      <c r="E21" s="40">
-        <f t="shared" si="10"/>
+      <c r="E22" s="40">
+        <f>D22+$B$22*$G$2</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="39">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="39">
         <v>4650</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40">
-        <f>B22+B22*(G2*2)</f>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40">
+        <f>B23+B23*(G2*2)</f>
         <v>6510</v>
       </c>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="32">
-        <f>SUM(B20:B22)</f>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="32">
+        <f>SUM(B21:B23)</f>
         <v>34650</v>
       </c>
-      <c r="C23" s="32">
-        <f>SUM(C20:C22)</f>
+      <c r="C24" s="32">
+        <f>SUM(C21:C23)</f>
         <v>36000</v>
       </c>
-      <c r="D23" s="32">
-        <f>SUM(D20:D22)</f>
+      <c r="D24" s="32">
+        <f>SUM(D21:D23)</f>
         <v>48510</v>
       </c>
-      <c r="E23" s="32">
-        <f>SUM(E20:E22)</f>
+      <c r="E24" s="32">
+        <f>SUM(E21:E23)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="34">
-        <f>SUM(B23,B18,B9)</f>
-        <v>1446156.9</v>
-      </c>
-      <c r="C24" s="34">
-        <f>SUM(C23,C18,C9)</f>
-        <v>1729808.28</v>
-      </c>
-      <c r="D24" s="34">
-        <f>SUM(D23,D18,D9)</f>
-        <v>2411219.8200000003</v>
-      </c>
-      <c r="E24" s="34">
-        <f>SUM(E23,E18,E9)</f>
-        <v>2790834.7680000002</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30">
-        <f>SUM(B24:F24)</f>
-        <v>8378019.7680000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="43">
-        <f>SUM(C24,B24)</f>
-        <v>3175965.1799999997</v>
-      </c>
-      <c r="D26" s="43">
-        <f>SUM(D24,E24)</f>
-        <v>5202054.5880000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="43"/>
+    <row r="25" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="34">
+        <f>SUM(B24,B19,B11)</f>
+        <v>1600987.7000000002</v>
+      </c>
+      <c r="C25" s="34">
+        <f>SUM(C24,C19,C11)</f>
+        <v>1961158.7370000002</v>
+      </c>
+      <c r="D25" s="34">
+        <f>SUM(D24,D19,D11)</f>
+        <v>2744864.46</v>
+      </c>
+      <c r="E25" s="34">
+        <f>SUM(E24,E19,E11)</f>
+        <v>3269350.4766000002</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30">
+        <f>SUM(B25:F25)</f>
+        <v>9576361.3736000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="43">
+        <f>SUM(C25,B25)</f>
+        <v>3562146.4370000004</v>
+      </c>
+      <c r="D27" s="43">
+        <f>SUM(D25,E25)</f>
+        <v>6014214.9365999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="43"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,31 +1805,31 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1681,7 +1857,7 @@
       <c r="H2" s="49">
         <v>0.03</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="53">
         <v>300</v>
       </c>
     </row>
@@ -1703,7 +1879,7 @@
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -1716,14 +1892,14 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
       <c r="E5" s="46"/>
       <c r="F5" s="20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1948,7 @@
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="44">
         <f>SUM(B6:B7)</f>
@@ -1811,12 +1987,12 @@
       <c r="D10" s="45"/>
       <c r="E10" s="46"/>
       <c r="F10" s="20" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B11" s="44">
         <f>'Costos legales'!H4</f>
@@ -1837,7 +2013,7 @@
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -1847,7 +2023,7 @@
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -1857,7 +2033,7 @@
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -1867,7 +2043,7 @@
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -1904,46 +2080,46 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="59"/>
+    <col min="8" max="8" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="61">
+      <c r="A1" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="58">
         <v>0.03</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>43</v>
+      <c r="H2" s="56" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B3" s="43">
         <f>'[1]02-Volumenes Ingresos'!$B$4*'[1]01-Tipo Ingreso'!$B$3</f>
@@ -1970,42 +2146,42 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="58">
+    <row r="4" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="55">
         <f>B3*B1</f>
         <v>4095</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="55">
         <f>C3*B1</f>
         <v>900</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="55">
         <f>D3*B1</f>
         <v>204</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="55">
         <f>E3*B1</f>
         <v>780</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="55">
         <f>F3*B1</f>
         <v>75</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="55">
         <f>G3*B1</f>
         <v>210</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="55">
         <f>SUM(B4:G4)</f>
         <v>6264</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B5" s="43">
         <f>'[1]02-Volumenes Ingresos'!$B$5*'[1]01-Tipo Ingreso'!$C$3</f>
@@ -2032,42 +2208,42 @@
         <v>11956</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="58">
+    <row r="6" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="55">
         <f>B5*B1</f>
         <v>3843</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="55">
         <f>C5*B1</f>
         <v>2745</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="55">
         <f>D5*B1</f>
         <v>311.09999999999997</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="55">
         <f>E5*B1</f>
         <v>951.59999999999991</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="55">
         <f>F5*B1</f>
         <v>91.5</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="55">
         <f>G5*B1</f>
         <v>358.68</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="55">
         <f>SUM(B6:G6)</f>
         <v>8300.880000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B7" s="43">
         <f>'[1]02-Volumenes Ingresos'!$B$6*'[1]01-Tipo Ingreso'!$D$3</f>
@@ -2094,42 +2270,42 @@
         <v>16128</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="58">
+    <row r="8" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="55">
         <f>B7*B1</f>
         <v>5896.8</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="55">
         <f>C7*B1</f>
         <v>4536</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="55">
         <f>D7*B1</f>
         <v>440.64</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="55">
         <f>E7*B1</f>
         <v>1404</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="55">
         <f>F7*B1</f>
         <v>108</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="55">
         <f>G7*B1</f>
         <v>483.84</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="55">
         <f>SUM(B8:G8)</f>
         <v>12869.279999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B9" s="43">
         <f>'[1]02-Volumenes Ingresos'!$B$7*'[1]01-Tipo Ingreso'!$E$3</f>
@@ -2156,35 +2332,35 @@
         <v>20916</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="58">
+    <row r="10" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="55">
         <f>B9*B1</f>
         <v>10980.9</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="55">
         <f>C9*B1</f>
         <v>6723</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="55">
         <f>D9*B1</f>
         <v>423.3</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="55">
         <f>E9*B1</f>
         <v>971.09999999999991</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="55">
         <f>F9*B1</f>
         <v>149.4</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="55">
         <f>G9*B1</f>
         <v>627.48</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="55">
         <f>SUM(B10:G10)</f>
         <v>19875.18</v>
       </c>
@@ -2209,14 +2385,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="53"/>
+      <c r="A1" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B2" s="50">
         <v>7</v>
@@ -2224,7 +2400,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="50">
         <v>2.9000000000000001E-2</v>
@@ -2232,7 +2408,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B4" s="50">
         <v>25200</v>
@@ -2240,7 +2416,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B5" s="50">
         <f>B4+B4*90%</f>
@@ -2249,29 +2425,29 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B6" s="51">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="53"/>
+      <c r="A9" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="59"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="52">
         <v>-0.1</v>
@@ -2279,7 +2455,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="52">
         <v>0</v>
@@ -2287,7 +2463,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="52">
         <v>-0.05</v>
@@ -2295,7 +2471,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="52">
         <v>0</v>
@@ -2312,85 +2488,99 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13 16384:16384" x14ac:dyDescent="0.25">
+      <c r="D1" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="J1" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:13 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11">
-        <v>24000</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
-        <f>SUM(B3:D3)</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="B4" s="11">
         <v>24000</v>
@@ -2406,129 +2596,158 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="5" spans="1:9 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14">
-        <f>SUM(I3:I4)</f>
+    <row r="5" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="11">
+        <v>24000</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
+        <f>SUM(B5:D5)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
+        <f>SUM(I4:I5)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <f>3%*B8</f>
+        <v>600</v>
+      </c>
+      <c r="E8" s="11">
+        <f>B8*11%</f>
+        <v>2200</v>
+      </c>
+      <c r="F8" s="11">
+        <f>B8*3%</f>
+        <v>600</v>
+      </c>
+      <c r="G8" s="11">
+        <f>3%*B8</f>
+        <v>600</v>
+      </c>
+      <c r="H8" s="72">
+        <f>SUM(D8:G8)</f>
+        <v>4000</v>
+      </c>
+      <c r="I8" s="72">
+        <f>SUM(B8:C8)-SUM(D8:G8)</f>
+        <v>16000</v>
+      </c>
+      <c r="J8" s="69">
+        <f>23%*B8</f>
+        <v>4600</v>
+      </c>
+      <c r="K8" s="69">
+        <f>5%*B8</f>
+        <v>1000</v>
+      </c>
+      <c r="L8" s="74">
+        <f>SUM(J8:K8)</f>
+        <v>5600</v>
+      </c>
+      <c r="M8" s="69">
+        <f>SUM(L8,H8,I8)</f>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11">
+        <v>10907</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11">
+        <f>SUM(B9:G9)</f>
+        <v>10907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <f>SUM(I8:I9)</f>
+        <v>26907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11">
-        <v>20000</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11">
-        <f>SUM(B7:D7)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="11">
-        <v>10907</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
-        <f>SUM(B8:G8)</f>
-        <v>10907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
-        <f>SUM(I7:I8)</f>
-        <v>30907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="B12" s="11">
         <v>18425</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>5527.5</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
-        <f>SUM(B11:G11)</f>
-        <v>23952.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="11">
-        <v>15125</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2420</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2537,12 +2756,12 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11">
         <f>SUM(B12:G12)</f>
-        <v>17545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23952.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11">
         <v>15125</v>
@@ -2556,141 +2775,135 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11">
-        <f>SUM(B13,C13)</f>
+        <f>SUM(B13:G13)</f>
         <v>17545</v>
       </c>
-      <c r="XFD13" s="13">
-        <f>SUM(B13:XFC13)</f>
+    </row>
+    <row r="14" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11">
+        <v>15125</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2420</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
+        <f>SUM(B14,C14)</f>
+        <v>17545</v>
+      </c>
+      <c r="XFD14" s="13">
+        <f>SUM(B14:XFC14)</f>
         <v>35090</v>
       </c>
     </row>
-    <row r="14" spans="1:9 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14">
-        <f>SUM(I11:I13)</f>
+    <row r="15" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <f>SUM(I12:I14)</f>
         <v>59042.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="16" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11">
         <v>12900</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>2064</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
-        <f>SUM(B16:G16)</f>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11">
+        <f>SUM(B17:G17)</f>
         <v>14964</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14">
-        <f>SUM(I16)</f>
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <f>SUM(I17)</f>
         <v>14964</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="11">
-        <v>18425</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5527.5</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11">
-        <f>SUM(B19:H19)</f>
-        <v>23952.5</v>
-      </c>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="11">
-        <v>7824</v>
+        <v>18425</v>
       </c>
       <c r="C20" s="11">
-        <v>2670</v>
+        <v>5527.5</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F20" s="11">
-        <v>-273</v>
-      </c>
-      <c r="G20" s="11">
-        <v>-227</v>
-      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11">
-        <f>SUM(E20:G20,C20,B20)</f>
-        <v>8719.1</v>
+        <f>SUM(B20:H20)</f>
+        <v>23952.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="11">
         <v>7824</v>
@@ -2716,7 +2929,7 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="11">
         <v>7824</v>
@@ -2742,7 +2955,7 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" s="11">
         <v>7824</v>
@@ -2768,7 +2981,7 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="11">
         <v>7824</v>
@@ -2792,43 +3005,71 @@
         <v>8719.1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17">
-        <f>SUM(I20:I24)</f>
+    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11">
+        <v>7824</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2670</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
+        <v>-1274.9000000000001</v>
+      </c>
+      <c r="F25" s="11">
+        <v>-273</v>
+      </c>
+      <c r="G25" s="11">
+        <v>-227</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11">
+        <f>SUM(E25:G25,C25,B25)</f>
+        <v>8719.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17">
+        <f>SUM(I21:I25)</f>
         <v>43595.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="18">
-        <f>SUM(I25,I17,I14,I9,I5)</f>
-        <v>196509</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="18">
+        <f>SUM(I26,I18,I15,I10,I6)</f>
+        <v>192509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A28:E28"/>
+  <mergeCells count="3">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2839,7 +3080,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,16 +3093,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2870,10 +3111,19 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="24" t="e">
+        <f>B2/C2</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -2997,312 +3247,261 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="62">
+        <f>20000*6</f>
+        <v>120000</v>
+      </c>
+      <c r="C3" s="62">
+        <f>B3+B3*40%</f>
+        <v>168000</v>
+      </c>
+      <c r="D3" s="62">
+        <f t="shared" ref="D3:E3" si="0">C3+C3*40%</f>
+        <v>235200</v>
+      </c>
+      <c r="E3" s="62">
+        <f t="shared" si="0"/>
+        <v>329280</v>
+      </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="62">
+        <f>'[2]03-Ingresos'!$F$3*3.5%</f>
+        <v>44198.000000000007</v>
+      </c>
+      <c r="C5" s="62">
+        <f>'[2]03-Ingresos'!$F$4*3.5%</f>
+        <v>70788.060000000012</v>
+      </c>
+      <c r="D5" s="62">
+        <f>'[2]03-Ingresos'!$F$5*3.5%</f>
+        <v>102180.96</v>
+      </c>
+      <c r="E5" s="62">
+        <f>'[2]03-Ingresos'!$F$6*3.5%</f>
+        <v>146098.26</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="62">
+        <f>(((('[2]03-Ingresos'!$H$3-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$3-10000)*6/1000)+200)*6</f>
+        <v>12323.099999999999</v>
+      </c>
+      <c r="C7" s="62">
+        <f>(((('[2]03-Ingresos'!$H$4-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$4-10000)*6/1000)+200)*6</f>
+        <v>18590.756999999998</v>
+      </c>
+      <c r="D7" s="62">
+        <f>(((('[2]03-Ingresos'!$H$5-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$5-10000)*6/1000)+200)*6</f>
+        <v>25990.512000000002</v>
+      </c>
+      <c r="E7" s="62">
+        <f>(((('[2]03-Ingresos'!$H$6-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$6-10000)*6/1000)+200)*6</f>
+        <v>36342.447</v>
+      </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="62">
+        <f>100*6</f>
+        <v>600</v>
+      </c>
+      <c r="C8" s="62">
+        <f>B8*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="D8" s="62">
+        <f t="shared" ref="D8:E8" si="1">C8*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="E8" s="62">
+        <f t="shared" si="1"/>
+        <v>1036.8</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="62">
+        <f>321.2*6</f>
+        <v>1927.1999999999998</v>
+      </c>
+      <c r="C9" s="62">
+        <f>B9*1.2</f>
+        <v>2312.64</v>
+      </c>
+      <c r="D9" s="62">
+        <f t="shared" ref="D9:E9" si="2">C9*1.2</f>
+        <v>2775.1679999999997</v>
+      </c>
+      <c r="E9" s="62">
+        <f t="shared" si="2"/>
+        <v>3330.2015999999994</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="62">
+        <f>343.75*6</f>
+        <v>2062.5</v>
+      </c>
+      <c r="C10" s="62">
+        <f>B10*1.2</f>
+        <v>2475</v>
+      </c>
+      <c r="D10" s="62">
+        <f t="shared" ref="D10:E10" si="3">C10*1.2</f>
+        <v>2970</v>
+      </c>
+      <c r="E10" s="62">
+        <f t="shared" si="3"/>
+        <v>3564</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="A11" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="66">
+        <f>SUM(B3:B10)</f>
+        <v>181110.80000000002</v>
+      </c>
+      <c r="C11" s="66">
+        <f>SUM(C3:C10)</f>
+        <v>262886.45699999999</v>
+      </c>
+      <c r="D11" s="66">
+        <f>SUM(D3:D10)</f>
+        <v>369980.64</v>
+      </c>
+      <c r="E11" s="66">
+        <f>SUM(E3:E10)</f>
+        <v>519651.70859999995</v>
+      </c>
+      <c r="F11" s="64">
+        <f>SUM(B11:E11)</f>
+        <v>1333629.6055999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
     <sheet name="Costos Variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Costos legales" sheetId="8" r:id="rId3"/>
-    <sheet name="Estimacion de pedidos" sheetId="7" r:id="rId4"/>
-    <sheet name="Remuneraciones" sheetId="3" r:id="rId5"/>
-    <sheet name="Amortizaciones " sheetId="5" r:id="rId6"/>
-    <sheet name="Impuestos" sheetId="6" r:id="rId7"/>
+    <sheet name="Gastos Resultado" sheetId="9" r:id="rId3"/>
+    <sheet name="Costos legales" sheetId="8" r:id="rId4"/>
+    <sheet name="Estimacion de pedidos" sheetId="7" r:id="rId5"/>
+    <sheet name="Remuneraciones" sheetId="3" r:id="rId6"/>
+    <sheet name="Amortizaciones " sheetId="5" r:id="rId7"/>
+    <sheet name="Impuestos" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>Hosting</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Subsistema Gerencial</t>
   </si>
   <si>
-    <t>Gerente General</t>
-  </si>
-  <si>
     <t>Equipo de Desarrollo</t>
   </si>
   <si>
@@ -185,12 +183,6 @@
     <t>Valor Actual</t>
   </si>
   <si>
-    <t>Vida Útil</t>
-  </si>
-  <si>
-    <t>Amortización Anual</t>
-  </si>
-  <si>
     <t>Bien</t>
   </si>
   <si>
@@ -212,21 +204,12 @@
     <t>Motos (Compra)</t>
   </si>
   <si>
-    <t>Salario(Entrepeneur,Gte General, Admin,Lider Logistica)</t>
-  </si>
-  <si>
-    <t>Salario (Cadetes)</t>
-  </si>
-  <si>
     <t>Asesoría Contable</t>
   </si>
   <si>
     <t>Inflación</t>
   </si>
   <si>
-    <t>???fijo o variable?</t>
-  </si>
-  <si>
     <t>Consumo por km</t>
   </si>
   <si>
@@ -254,9 +237,6 @@
     <t>Estimado Km por pedido en promedio</t>
   </si>
   <si>
-    <t>????????</t>
-  </si>
-  <si>
     <t>Asesoría Legal</t>
   </si>
   <si>
@@ -311,9 +291,6 @@
     <t>Salario (Desarrollo,Marketing) *</t>
   </si>
   <si>
-    <t>*incluye leyes sociales, art.</t>
-  </si>
-  <si>
     <t>Impuestos Nacionales</t>
   </si>
   <si>
@@ -365,9 +342,6 @@
     <t>ART</t>
   </si>
   <si>
-    <t>Leyes Sociales</t>
-  </si>
-  <si>
     <t>COSTO TOTAL</t>
   </si>
   <si>
@@ -377,16 +351,79 @@
     <t>Subtotal Aportes</t>
   </si>
   <si>
-    <t>moto</t>
-  </si>
-  <si>
-    <t>valor de compra</t>
-  </si>
-  <si>
-    <t>5 años</t>
-  </si>
-  <si>
     <t>Amortizaciones</t>
+  </si>
+  <si>
+    <t>Vida Útil (años)</t>
+  </si>
+  <si>
+    <t>Computadoras</t>
+  </si>
+  <si>
+    <t>Amortización año 2016</t>
+  </si>
+  <si>
+    <t>Amortizacion año 2017</t>
+  </si>
+  <si>
+    <t>Monitores</t>
+  </si>
+  <si>
+    <t>Impresoras</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Muebles</t>
+  </si>
+  <si>
+    <t>Televisor</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Grupo Electrógeno</t>
+  </si>
+  <si>
+    <t>Amort. Azumulada</t>
+  </si>
+  <si>
+    <t>Valor Residual</t>
+  </si>
+  <si>
+    <t>*incluye leyes sociales, ART.</t>
+  </si>
+  <si>
+    <t>Salario (Cadetes)*</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Aguinaldos</t>
+  </si>
+  <si>
+    <t>Año 1</t>
+  </si>
+  <si>
+    <t>Año 2</t>
+  </si>
+  <si>
+    <t>Costos Fijos</t>
+  </si>
+  <si>
+    <t>Costos Variables</t>
+  </si>
+  <si>
+    <t>Motos primer año</t>
+  </si>
+  <si>
+    <t>Motos segundo año</t>
+  </si>
+  <si>
+    <t>Salario(Entrepeneur, Admin,Lider Logistica)*</t>
   </si>
 </sst>
 </file>
@@ -422,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,13 +546,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,19 +673,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -624,15 +705,11 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -655,41 +732,75 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,53 +1033,51 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="01-Tipo Ingreso"/>
-      <sheetName val="02-Volumenes Ingresos"/>
-      <sheetName val="03-Ingresos"/>
-      <sheetName val="04-Gastos"/>
+      <sheetName val="Tipo Ingreso"/>
+      <sheetName val="Volumenes Ingresos"/>
+      <sheetName val="Ingresos"/>
       <sheetName val="Ganancias"/>
       <sheetName val="Indicadores Financieros"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="F3">
-            <v>1262800</v>
+            <v>1910760</v>
           </cell>
           <cell r="H3">
-            <v>210466.66666666666</v>
+            <v>318460</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>2022516</v>
+            <v>2933856</v>
           </cell>
           <cell r="H4">
-            <v>337086</v>
+            <v>488976</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>2919456</v>
+            <v>5654880</v>
           </cell>
           <cell r="H5">
-            <v>486576</v>
+            <v>942480</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>4174236</v>
+            <v>6163248</v>
           </cell>
           <cell r="H6">
-            <v>695706</v>
+            <v>1027208</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1261,45 +1370,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="31" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1315,467 +1422,491 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="32">
         <v>14.79</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>5088</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <f>B3+(B3*G2)</f>
         <v>6105.6</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="36">
         <f>C3+(B3*G2)</f>
         <v>7123.2000000000007</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="36">
         <f>D3+(B3*G2)</f>
         <v>8140.8000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="39">
-        <f>SUM(Remuneraciones!I15,Remuneraciones!I18)*6</f>
-        <v>444039</v>
-      </c>
-      <c r="C4" s="39">
+      <c r="A4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="35">
+        <f>SUM(Remuneraciones!M13,Remuneraciones!M16)*6</f>
+        <v>570909</v>
+      </c>
+      <c r="C4" s="35">
         <f>B4+$B$4*$G$2</f>
-        <v>532846.80000000005</v>
-      </c>
-      <c r="D4" s="40">
+        <v>685090.8</v>
+      </c>
+      <c r="D4" s="36">
         <f t="shared" ref="D4:E4" si="0">C4+$B$4*$G$2</f>
-        <v>621654.60000000009</v>
-      </c>
-      <c r="E4" s="40">
+        <v>799272.60000000009</v>
+      </c>
+      <c r="E4" s="36">
         <f t="shared" si="0"/>
-        <v>710462.40000000014</v>
+        <v>913454.40000000014</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="39">
-        <f>SUM(Remuneraciones!I26)*6</f>
-        <v>261573</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="A5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="35">
+        <f>SUM(Remuneraciones!M24-Remuneraciones!M18)*6</f>
+        <v>329700</v>
+      </c>
+      <c r="C5" s="35">
         <f>B5+B5*G2</f>
-        <v>313887.59999999998</v>
-      </c>
-      <c r="D5" s="40">
+        <v>395640</v>
+      </c>
+      <c r="D5" s="36">
         <f>C5*2+C5*2*G2</f>
-        <v>753330.24</v>
-      </c>
-      <c r="E5" s="40">
+        <v>949536</v>
+      </c>
+      <c r="E5" s="36">
         <f>D5+D5*G2</f>
-        <v>903996.28799999994</v>
+        <v>1139443.2</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="35">
         <f>770*6</f>
         <v>4620</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <f>B6+B6*G2</f>
         <v>5544</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <f>C6+$B$6*$G$2</f>
         <v>6468</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <f>D6+$B$6*$G$2</f>
         <v>7392</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="39">
+      <c r="A7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="35">
         <f>(900*5*6)</f>
         <v>27000</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="35">
         <f>B7+$B$7*$G$2</f>
         <v>32400</v>
       </c>
-      <c r="D7" s="40">
-        <f>C7+$B$7*$G$2</f>
-        <v>37800</v>
-      </c>
-      <c r="E7" s="40">
-        <f>D7+$B$7*$G$2</f>
-        <v>43200</v>
+      <c r="D7" s="36">
+        <f>C7*2+$B$7*2*$G$2</f>
+        <v>75600</v>
+      </c>
+      <c r="E7" s="36">
+        <f>D7+$B$7*2*$G$2</f>
+        <v>86400</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <f>300*5*6</f>
         <v>9000</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="35">
         <f>B8+$B$8*$G$2</f>
         <v>10800</v>
       </c>
-      <c r="D8" s="40">
-        <f>C8+$B$8*$G$2</f>
-        <v>12600</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="D8" s="36">
+        <f>C8*2+$B$8*2*$G$2</f>
+        <v>25200</v>
+      </c>
+      <c r="E8" s="36">
         <f>D8+$B$8*$G$2</f>
-        <v>14400</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>972</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <f>B9+$B$9*$G$2</f>
         <v>1166.4000000000001</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="36">
         <f t="shared" ref="D9:E9" si="1">C9+$B$9*$G$2</f>
         <v>1360.8000000000002</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="36">
         <f t="shared" si="1"/>
         <v>1555.2000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <f>(25*F2)*6</f>
         <v>2218.5</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <f>B10+$B$10*$G$2</f>
         <v>2662.2</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="36">
         <f t="shared" ref="D10:E10" si="2">C10+$B$10*$G$2</f>
         <v>3105.8999999999996</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="36">
         <f t="shared" si="2"/>
         <v>3549.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="32">
+    <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="28">
         <f>SUM(B3:B10)</f>
-        <v>754510.5</v>
-      </c>
-      <c r="C11" s="32">
+        <v>949507.5</v>
+      </c>
+      <c r="C11" s="28">
         <f>SUM(C3:C10)</f>
-        <v>905412.6</v>
-      </c>
-      <c r="D11" s="32">
+        <v>1139408.9999999998</v>
+      </c>
+      <c r="D11" s="28">
         <f>SUM(D3:D10)</f>
-        <v>1443442.74</v>
-      </c>
-      <c r="E11" s="32">
+        <v>1867666.5</v>
+      </c>
+      <c r="E11" s="28">
         <f>SUM(E3:E10)</f>
-        <v>1692696.2880000002</v>
+        <v>2186935.2000000007</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="39">
-        <f>SUM(Remuneraciones!I6,Remuneraciones!I10,Remuneraciones!I20)*6</f>
-        <v>593157</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="A13" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="35">
+        <f>SUM(Remuneraciones!M5,Remuneraciones!M8,Remuneraciones!M18)*6</f>
+        <v>740685</v>
+      </c>
+      <c r="C13" s="35">
         <f>B13+$B$13*$G$2</f>
-        <v>711788.4</v>
-      </c>
-      <c r="D13" s="40">
+        <v>888822</v>
+      </c>
+      <c r="D13" s="36">
         <f t="shared" ref="D13:E13" si="3">C13+$B$13*$G$2</f>
-        <v>830419.8</v>
-      </c>
-      <c r="E13" s="40">
+        <v>1036959</v>
+      </c>
+      <c r="E13" s="36">
         <f t="shared" si="3"/>
-        <v>949051.20000000007</v>
+        <v>1185096</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="39">
+      <c r="A14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="35">
         <f>6200*6</f>
         <v>37200</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <f>B14+$B$14*$G$2</f>
         <v>44640</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="36">
         <f>C14+$B$14*$G$2</f>
         <v>52080</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="36">
         <f>D14+$B$14*$G$2</f>
         <v>59520</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="39">
+      <c r="A15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="35">
         <f>Impuestos!B11</f>
-        <v>181110.80000000002</v>
-      </c>
-      <c r="C15" s="39">
+        <v>209135.07</v>
+      </c>
+      <c r="C15" s="35">
         <f>Impuestos!C11</f>
-        <v>262886.45699999999</v>
-      </c>
-      <c r="D15" s="40">
+        <v>302301.91200000001</v>
+      </c>
+      <c r="D15" s="36">
         <f>Impuestos!D11</f>
-        <v>369980.64</v>
-      </c>
-      <c r="E15" s="40">
+        <v>488287.72800000006</v>
+      </c>
+      <c r="E15" s="36">
         <f>Impuestos!E11</f>
-        <v>519651.70859999995</v>
+        <v>605676.4776000001</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="39">
+      <c r="A16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="35">
         <f>59.9*6</f>
         <v>359.4</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="35">
         <f>B16+$B$16*G2</f>
         <v>431.28</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <f>C16+$B$16*H2</f>
         <v>431.28</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <f>D16+$B$16*I2</f>
         <v>431.28</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="A17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="35">
+        <f>'Amortizaciones '!D12/2</f>
+        <v>35868.800000000003</v>
+      </c>
+      <c r="C17" s="35">
+        <f>'Amortizaciones '!D12/2</f>
+        <v>35868.800000000003</v>
+      </c>
+      <c r="D17" s="36">
+        <f>'Amortizaciones '!E12/2</f>
+        <v>35868.800000000003</v>
+      </c>
+      <c r="E17" s="36">
+        <f>'Amortizaciones '!F12/2</f>
+        <v>71737.600000000006</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="32">
+      <c r="A18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="35">
+        <v>11000</v>
+      </c>
+      <c r="C18" s="35">
+        <f>B18+$B$18*$G$2</f>
+        <v>13200</v>
+      </c>
+      <c r="D18" s="36">
+        <f>C18+$B$18*$G$2</f>
+        <v>15400</v>
+      </c>
+      <c r="E18" s="36">
+        <f>D18+$B$18*$G$2</f>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="35">
+        <f>(Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)/2</f>
+        <v>109625.4</v>
+      </c>
+      <c r="C19" s="35">
+        <f>(Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)/2</f>
+        <v>109625.4</v>
+      </c>
+      <c r="D19" s="36">
+        <f>((Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)+(Remuneraciones!I24-Remuneraciones!I18)+(Remuneraciones!I24-Remuneraciones!I18)*G2)/2</f>
+        <v>133235.4</v>
+      </c>
+      <c r="E19" s="36">
+        <f>D19</f>
+        <v>133235.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="28">
         <f>SUM(B13:B18)</f>
-        <v>811827.20000000007</v>
-      </c>
-      <c r="C19" s="32">
+        <v>1034248.2700000001</v>
+      </c>
+      <c r="C20" s="28">
         <f>SUM(C13:C18)</f>
-        <v>1019746.1370000001</v>
-      </c>
-      <c r="D19" s="32">
+        <v>1285263.9920000001</v>
+      </c>
+      <c r="D20" s="28">
         <f>SUM(D13:D18)</f>
-        <v>1252911.72</v>
-      </c>
-      <c r="E19" s="32">
+        <v>1629026.8080000002</v>
+      </c>
+      <c r="E20" s="28">
         <f>SUM(E13:E18)</f>
-        <v>1528654.1886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+        <v>1940061.3576000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="39">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="35">
         <v>12000</v>
       </c>
-      <c r="C21" s="39">
-        <f>B21+$B$21*$G$2</f>
+      <c r="C22" s="35">
+        <f>B22+$B$22*$G$2</f>
         <v>14400</v>
       </c>
-      <c r="D21" s="40">
-        <f>C21+$B$21*$G$2</f>
+      <c r="D22" s="36">
+        <f>C22+$B$22*$G$2</f>
         <v>16800</v>
       </c>
-      <c r="E21" s="40">
-        <f>D21+$B$21*$G$2</f>
+      <c r="E22" s="36">
+        <f>D22+$B$22*$G$2</f>
         <v>19200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="39">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="35">
         <f>3000*6</f>
         <v>18000</v>
       </c>
-      <c r="C22" s="39">
-        <f>B22+$B$22*$G$2</f>
+      <c r="C23" s="35">
+        <f>B23+$B$23*$G$2</f>
         <v>21600</v>
       </c>
-      <c r="D22" s="40">
-        <f>C22+$B$22*$G$2</f>
+      <c r="D23" s="36">
+        <f>C23+$B$23*$G$2</f>
         <v>25200</v>
       </c>
-      <c r="E22" s="40">
-        <f>D22+$B$22*$G$2</f>
+      <c r="E23" s="36">
+        <f>D23+$B$23*$G$2</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="39">
-        <v>4650</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40">
-        <f>B23+B23*(G2*2)</f>
-        <v>6510</v>
-      </c>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="32">
-        <f>SUM(B21:B23)</f>
-        <v>34650</v>
-      </c>
-      <c r="C24" s="32">
-        <f>SUM(C21:C23)</f>
+    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="28">
+        <f>SUM(B22:B23)</f>
+        <v>30000</v>
+      </c>
+      <c r="C24" s="28">
+        <f>SUM(C22:C23)</f>
         <v>36000</v>
       </c>
-      <c r="D24" s="32">
-        <f>SUM(D21:D23)</f>
-        <v>48510</v>
-      </c>
-      <c r="E24" s="32">
-        <f>SUM(E21:E23)</f>
+      <c r="D24" s="28">
+        <f>SUM(D22:D23)</f>
+        <v>42000</v>
+      </c>
+      <c r="E24" s="28">
+        <f>SUM(E22:E23)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="34">
-        <f>SUM(B24,B19,B11)</f>
-        <v>1600987.7000000002</v>
-      </c>
-      <c r="C25" s="34">
-        <f>SUM(C24,C19,C11)</f>
-        <v>1961158.7370000002</v>
-      </c>
-      <c r="D25" s="34">
-        <f>SUM(D24,D19,D11)</f>
-        <v>2744864.46</v>
-      </c>
-      <c r="E25" s="34">
-        <f>SUM(E24,E19,E11)</f>
-        <v>3269350.4766000002</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30">
+    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="30">
+        <f>SUM(B24,B20,B11)</f>
+        <v>2013755.77</v>
+      </c>
+      <c r="C25" s="30">
+        <f>SUM(C24,C20,C11)</f>
+        <v>2460672.9919999996</v>
+      </c>
+      <c r="D25" s="30">
+        <f>SUM(D24,D20,D11)</f>
+        <v>3538693.3080000002</v>
+      </c>
+      <c r="E25" s="30">
+        <f>SUM(E24,E20,E11)</f>
+        <v>4174996.5576000009</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26">
         <f>SUM(B25:F25)</f>
-        <v>9576361.3736000005</v>
+        <v>12188118.627600001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="43">
-        <f>SUM(C25,B25)</f>
-        <v>3562146.4370000004</v>
-      </c>
-      <c r="D27" s="43">
-        <f>SUM(D25,E25)</f>
-        <v>6014214.9365999997</v>
+      <c r="B27" s="39"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
+      <c r="B29" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,10 +1916,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,9 +1930,10 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1822,14 +1955,14 @@
       <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>78</v>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1850,14 +1983,14 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="49">
+      <c r="F2" s="6"/>
+      <c r="G2" s="75">
         <v>0.2</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="75">
         <v>0.03</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="76">
         <v>300</v>
       </c>
     </row>
@@ -1865,203 +1998,305 @@
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40">
         <f>3980+3980*G2</f>
         <v>4776</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41">
         <f>3980+3980*60%</f>
         <v>6368</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45">
+        <v>57</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41">
         <f>99500+99500*40%</f>
         <v>139300</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="20" t="s">
-        <v>65</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B5" s="40">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="40">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="41">
+        <f>B5+$B$5*$G$2</f>
+        <v>2400</v>
+      </c>
+      <c r="E5" s="41">
+        <f>C5+$B$5*$G$2</f>
+        <v>4400</v>
+      </c>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="40">
         <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B11)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6</f>
         <v>73664.639999999999</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B12)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+B6*G2</f>
         <v>96582.528000000006</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="41">
         <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B13)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+C6*G2</f>
         <v>167055.0336</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B14)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+D6*G2</f>
         <v>188925.24672</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="40">
         <f>C7+C7*'Estimacion de pedidos'!B11</f>
         <v>540</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="40">
         <f>500+500*G2</f>
         <v>600</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="41">
         <f>(C7+C7*'Estimacion de pedidos'!B13)+C7*G2</f>
         <v>690</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <f>(D7+D7*'Estimacion de pedidos'!B14)+D7*G2</f>
         <v>828</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="44">
+      <c r="A8" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="85">
         <f>SUM(B6:B7)</f>
         <v>74204.639999999999</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="85">
         <f>SUM(C3:C7)</f>
-        <v>101958.52800000001</v>
-      </c>
-      <c r="D8" s="45">
+        <v>105958.52800000001</v>
+      </c>
+      <c r="D8" s="85">
         <f>SUM(D3:D7)</f>
-        <v>307045.03359999997</v>
-      </c>
-      <c r="E8" s="46">
+        <v>309445.03359999997</v>
+      </c>
+      <c r="E8" s="85">
         <f>SUM(E3:E7)</f>
-        <v>196121.24672</v>
-      </c>
-      <c r="F8" s="20"/>
+        <v>200521.24672</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="41">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="44">
+        <v>69</v>
+      </c>
+      <c r="B11" s="40">
         <f>'Costos legales'!H4</f>
         <v>6264</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="40">
         <f>'Costos legales'!H6</f>
         <v>8300.880000000001</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="41">
         <f>'Costos legales'!H8</f>
         <v>12869.279999999999</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="41">
         <f>'Costos legales'!H10</f>
         <v>19875.18</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="40">
+        <v>36700</v>
+      </c>
+      <c r="C12" s="40">
+        <v>20800</v>
+      </c>
+      <c r="D12" s="41">
+        <v>42800</v>
+      </c>
+      <c r="E12" s="41">
+        <v>57000</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="85">
+        <f>SUM(B10:B12)</f>
+        <v>42964</v>
+      </c>
+      <c r="C13" s="85">
+        <f>SUM(C10:C12)</f>
+        <v>59100.880000000005</v>
+      </c>
+      <c r="D13" s="85">
+        <f>SUM(D10:D12)</f>
+        <v>100669.28</v>
+      </c>
+      <c r="E13" s="85">
+        <f>SUM(E10:E12)</f>
+        <v>76875.179999999993</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40">
+        <v>40000</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41">
+        <f>C15+15000+C15*G2*2</f>
+        <v>71000</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F16" s="22"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40">
+        <v>35000</v>
+      </c>
+      <c r="D16" s="41">
+        <v>43000</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="74">
+        <v>4650</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="11">
+        <f>B17+B17*('Costos Fijos'!G2*2)</f>
+        <v>6510</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="85">
+        <f>SUM(B15:B17)</f>
+        <v>4650</v>
+      </c>
+      <c r="C18" s="85">
+        <f>SUM(C15:C17)</f>
+        <v>75000</v>
+      </c>
+      <c r="D18" s="85">
+        <f>SUM(D15:D17)</f>
+        <v>49510</v>
+      </c>
+      <c r="E18" s="85">
+        <f>SUM(E15:E17)</f>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="73">
+        <f>SUM(B8,B13,B18)</f>
+        <v>121818.64</v>
+      </c>
+      <c r="C19" s="73">
+        <f>SUM(C8,C13,C18)</f>
+        <v>240059.408</v>
+      </c>
+      <c r="D19" s="73">
+        <f t="shared" ref="D19:E19" si="0">SUM(D8,D13,D18)</f>
+        <v>459624.31359999999</v>
+      </c>
+      <c r="E19" s="73">
+        <f t="shared" si="0"/>
+        <v>348396.42671999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2071,298 +2306,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="58">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$B$4*'[1]01-Tipo Ingreso'!$B$3</f>
-        <v>136500</v>
-      </c>
-      <c r="C3" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$C$4*'[1]01-Tipo Ingreso'!$B$4</f>
-        <v>30000</v>
-      </c>
-      <c r="D3" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$E$4*'[1]01-Tipo Ingreso'!$B$6</f>
-        <v>6800</v>
-      </c>
-      <c r="E3" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$B$7</f>
-        <v>26000</v>
-      </c>
-      <c r="F3" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$B$8</f>
-        <v>2500</v>
-      </c>
-      <c r="G3" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$H$4*'[1]01-Tipo Ingreso'!$B$9</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="55">
-        <f>B3*B1</f>
-        <v>4095</v>
-      </c>
-      <c r="C4" s="55">
-        <f>C3*B1</f>
-        <v>900</v>
-      </c>
-      <c r="D4" s="55">
-        <f>D3*B1</f>
-        <v>204</v>
-      </c>
-      <c r="E4" s="55">
-        <f>E3*B1</f>
-        <v>780</v>
-      </c>
-      <c r="F4" s="55">
-        <f>F3*B1</f>
-        <v>75</v>
-      </c>
-      <c r="G4" s="55">
-        <f>G3*B1</f>
-        <v>210</v>
-      </c>
-      <c r="H4" s="55">
-        <f>SUM(B4:G4)</f>
-        <v>6264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$B$5*'[1]01-Tipo Ingreso'!$C$3</f>
-        <v>128100</v>
-      </c>
-      <c r="C5" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$C$5*'[1]01-Tipo Ingreso'!$C$4</f>
-        <v>91500</v>
-      </c>
-      <c r="D5" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$E$5*'[1]01-Tipo Ingreso'!$C$6</f>
-        <v>10370</v>
-      </c>
-      <c r="E5" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$C$7</f>
-        <v>31720</v>
-      </c>
-      <c r="F5" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$C$8</f>
-        <v>3050</v>
-      </c>
-      <c r="G5" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$H$5*'[1]01-Tipo Ingreso'!$C$9</f>
-        <v>11956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="55">
-        <f>B5*B1</f>
-        <v>3843</v>
-      </c>
-      <c r="C6" s="55">
-        <f>C5*B1</f>
-        <v>2745</v>
-      </c>
-      <c r="D6" s="55">
-        <f>D5*B1</f>
-        <v>311.09999999999997</v>
-      </c>
-      <c r="E6" s="55">
-        <f>E5*B1</f>
-        <v>951.59999999999991</v>
-      </c>
-      <c r="F6" s="55">
-        <f>F5*B1</f>
-        <v>91.5</v>
-      </c>
-      <c r="G6" s="55">
-        <f>G5*B1</f>
-        <v>358.68</v>
-      </c>
-      <c r="H6" s="55">
-        <f>SUM(B6:G6)</f>
-        <v>8300.880000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$B$6*'[1]01-Tipo Ingreso'!$D$3</f>
-        <v>196560</v>
-      </c>
-      <c r="C7" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$C$6*'[1]01-Tipo Ingreso'!$D$4</f>
-        <v>151200</v>
-      </c>
-      <c r="D7" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$E$6*'[1]01-Tipo Ingreso'!$D$6</f>
-        <v>14688</v>
-      </c>
-      <c r="E7" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$F$6*'[1]01-Tipo Ingreso'!$D$7</f>
-        <v>46800</v>
-      </c>
-      <c r="F7" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$G$6*'[1]01-Tipo Ingreso'!$D$8</f>
-        <v>3600</v>
-      </c>
-      <c r="G7" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$H$6*'[1]01-Tipo Ingreso'!$D$9</f>
-        <v>16128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="55">
-        <f>B7*B1</f>
-        <v>5896.8</v>
-      </c>
-      <c r="C8" s="55">
-        <f>C7*B1</f>
-        <v>4536</v>
-      </c>
-      <c r="D8" s="55">
-        <f>D7*B1</f>
-        <v>440.64</v>
-      </c>
-      <c r="E8" s="55">
-        <f>E7*B1</f>
-        <v>1404</v>
-      </c>
-      <c r="F8" s="55">
-        <f>F7*B1</f>
-        <v>108</v>
-      </c>
-      <c r="G8" s="55">
-        <f>G7*B1</f>
-        <v>483.84</v>
-      </c>
-      <c r="H8" s="55">
-        <f>SUM(B8:G8)</f>
-        <v>12869.279999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$B$7*'[1]01-Tipo Ingreso'!$E$3</f>
-        <v>366030</v>
-      </c>
-      <c r="C9" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$C$7*'[1]01-Tipo Ingreso'!$E$4</f>
-        <v>224100</v>
-      </c>
-      <c r="D9" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$E$7*'[1]01-Tipo Ingreso'!$E$6</f>
-        <v>14110</v>
-      </c>
-      <c r="E9" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$F$7*'[1]01-Tipo Ingreso'!$E$7</f>
-        <v>32370</v>
-      </c>
-      <c r="F9" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$G$7*'[1]01-Tipo Ingreso'!$E$8</f>
-        <v>4980</v>
-      </c>
-      <c r="G9" s="43">
-        <f>'[1]02-Volumenes Ingresos'!$H$7*'[1]01-Tipo Ingreso'!$E$9</f>
-        <v>20916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="55">
-        <f>B9*B1</f>
-        <v>10980.9</v>
-      </c>
-      <c r="C10" s="55">
-        <f>C9*B1</f>
-        <v>6723</v>
-      </c>
-      <c r="D10" s="55">
-        <f>D9*B1</f>
-        <v>423.3</v>
-      </c>
-      <c r="E10" s="55">
-        <f>E9*B1</f>
-        <v>971.09999999999991</v>
-      </c>
-      <c r="F10" s="55">
-        <f>F9*B1</f>
-        <v>149.4</v>
-      </c>
-      <c r="G10" s="55">
-        <f>G9*B1</f>
-        <v>627.48</v>
-      </c>
-      <c r="H10" s="55">
-        <f>SUM(B10:G10)</f>
-        <v>19875.18</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="60"/>
+      <c r="B1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="89">
+        <f>'Costos Fijos'!B25+'Costos Fijos'!C25</f>
+        <v>4474428.7620000001</v>
+      </c>
+      <c r="C2" s="79">
+        <f>'Costos Fijos'!D25+'Costos Fijos'!E25</f>
+        <v>7713689.8656000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="89">
+        <f>'Costos Variables'!B19+'Costos Variables'!C19</f>
+        <v>361878.04800000001</v>
+      </c>
+      <c r="C3" s="79">
+        <f>'Costos Variables'!D19+'Costos Variables'!E19</f>
+        <v>808020.74031999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="82">
+        <f>SUM(B2:B3)</f>
+        <v>4836306.8100000005</v>
+      </c>
+      <c r="C4" s="82">
+        <f>SUM(C2:C3)</f>
+        <v>8521710.6059200019</v>
       </c>
     </row>
   </sheetData>
@@ -2371,6 +2373,317 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="86">
+        <v>0.03</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$B$4*'[1]01-Tipo Ingreso'!$B$3</f>
+        <v>136500</v>
+      </c>
+      <c r="C3" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$C$4*'[1]01-Tipo Ingreso'!$B$4</f>
+        <v>30000</v>
+      </c>
+      <c r="D3" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$E$4*'[1]01-Tipo Ingreso'!$B$6</f>
+        <v>6800</v>
+      </c>
+      <c r="E3" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$B$7</f>
+        <v>26000</v>
+      </c>
+      <c r="F3" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$B$8</f>
+        <v>2500</v>
+      </c>
+      <c r="G3" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$H$4*'[1]01-Tipo Ingreso'!$B$9</f>
+        <v>7000</v>
+      </c>
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="88">
+        <f>B3*B1</f>
+        <v>4095</v>
+      </c>
+      <c r="C4" s="88">
+        <f>C3*B1</f>
+        <v>900</v>
+      </c>
+      <c r="D4" s="88">
+        <f>D3*B1</f>
+        <v>204</v>
+      </c>
+      <c r="E4" s="88">
+        <f>E3*B1</f>
+        <v>780</v>
+      </c>
+      <c r="F4" s="88">
+        <f>F3*B1</f>
+        <v>75</v>
+      </c>
+      <c r="G4" s="88">
+        <f>G3*B1</f>
+        <v>210</v>
+      </c>
+      <c r="H4" s="88">
+        <f>SUM(B4:G4)</f>
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$B$5*'[1]01-Tipo Ingreso'!$C$3</f>
+        <v>128100</v>
+      </c>
+      <c r="C5" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$C$5*'[1]01-Tipo Ingreso'!$C$4</f>
+        <v>91500</v>
+      </c>
+      <c r="D5" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$E$5*'[1]01-Tipo Ingreso'!$C$6</f>
+        <v>10370</v>
+      </c>
+      <c r="E5" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$C$7</f>
+        <v>31720</v>
+      </c>
+      <c r="F5" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$C$8</f>
+        <v>3050</v>
+      </c>
+      <c r="G5" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$H$5*'[1]01-Tipo Ingreso'!$C$9</f>
+        <v>11956</v>
+      </c>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="88">
+        <f>B5*B1</f>
+        <v>3843</v>
+      </c>
+      <c r="C6" s="88">
+        <f>C5*B1</f>
+        <v>2745</v>
+      </c>
+      <c r="D6" s="88">
+        <f>D5*B1</f>
+        <v>311.09999999999997</v>
+      </c>
+      <c r="E6" s="88">
+        <f>E5*B1</f>
+        <v>951.59999999999991</v>
+      </c>
+      <c r="F6" s="88">
+        <f>F5*B1</f>
+        <v>91.5</v>
+      </c>
+      <c r="G6" s="88">
+        <f>G5*B1</f>
+        <v>358.68</v>
+      </c>
+      <c r="H6" s="88">
+        <f>SUM(B6:G6)</f>
+        <v>8300.880000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$B$6*'[1]01-Tipo Ingreso'!$D$3</f>
+        <v>196560</v>
+      </c>
+      <c r="C7" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$C$6*'[1]01-Tipo Ingreso'!$D$4</f>
+        <v>151200</v>
+      </c>
+      <c r="D7" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$E$6*'[1]01-Tipo Ingreso'!$D$6</f>
+        <v>14688</v>
+      </c>
+      <c r="E7" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$F$6*'[1]01-Tipo Ingreso'!$D$7</f>
+        <v>46800</v>
+      </c>
+      <c r="F7" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$G$6*'[1]01-Tipo Ingreso'!$D$8</f>
+        <v>3600</v>
+      </c>
+      <c r="G7" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$H$6*'[1]01-Tipo Ingreso'!$D$9</f>
+        <v>16128</v>
+      </c>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="88">
+        <f>B7*B1</f>
+        <v>5896.8</v>
+      </c>
+      <c r="C8" s="88">
+        <f>C7*B1</f>
+        <v>4536</v>
+      </c>
+      <c r="D8" s="88">
+        <f>D7*B1</f>
+        <v>440.64</v>
+      </c>
+      <c r="E8" s="88">
+        <f>E7*B1</f>
+        <v>1404</v>
+      </c>
+      <c r="F8" s="88">
+        <f>F7*B1</f>
+        <v>108</v>
+      </c>
+      <c r="G8" s="88">
+        <f>G7*B1</f>
+        <v>483.84</v>
+      </c>
+      <c r="H8" s="88">
+        <f>SUM(B8:G8)</f>
+        <v>12869.279999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$B$7*'[1]01-Tipo Ingreso'!$E$3</f>
+        <v>366030</v>
+      </c>
+      <c r="C9" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$C$7*'[1]01-Tipo Ingreso'!$E$4</f>
+        <v>224100</v>
+      </c>
+      <c r="D9" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$E$7*'[1]01-Tipo Ingreso'!$E$6</f>
+        <v>14110</v>
+      </c>
+      <c r="E9" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$F$7*'[1]01-Tipo Ingreso'!$E$7</f>
+        <v>32370</v>
+      </c>
+      <c r="F9" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$G$7*'[1]01-Tipo Ingreso'!$E$8</f>
+        <v>4980</v>
+      </c>
+      <c r="G9" s="87">
+        <f>'[1]02-Volumenes Ingresos'!$H$7*'[1]01-Tipo Ingreso'!$E$9</f>
+        <v>20916</v>
+      </c>
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="88">
+        <f>B9*B1</f>
+        <v>10980.9</v>
+      </c>
+      <c r="C10" s="88">
+        <f>C9*B1</f>
+        <v>6723</v>
+      </c>
+      <c r="D10" s="88">
+        <f>D9*B1</f>
+        <v>423.3</v>
+      </c>
+      <c r="E10" s="88">
+        <f>E9*B1</f>
+        <v>971.09999999999991</v>
+      </c>
+      <c r="F10" s="88">
+        <f>F9*B1</f>
+        <v>149.4</v>
+      </c>
+      <c r="G10" s="88">
+        <f>G9*B1</f>
+        <v>627.48</v>
+      </c>
+      <c r="H10" s="88">
+        <f>SUM(B10:G10)</f>
+        <v>19875.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2385,71 +2698,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="59"/>
+      <c r="A1" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="50">
+        <v>68</v>
+      </c>
+      <c r="B2" s="43">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="50">
+        <v>60</v>
+      </c>
+      <c r="B3" s="43">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="50">
+        <v>64</v>
+      </c>
+      <c r="B4" s="43">
         <v>25200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="50">
+        <v>65</v>
+      </c>
+      <c r="B5" s="43">
         <f>B4+B4*90%</f>
         <v>47880</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="51">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="90"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="45">
         <v>-0.1</v>
       </c>
     </row>
@@ -2457,7 +2770,7 @@
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2465,7 +2778,7 @@
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="45">
         <v>-0.05</v>
       </c>
     </row>
@@ -2473,7 +2786,7 @@
       <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2486,12 +2799,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,757 +2814,1310 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13 16384:16384" x14ac:dyDescent="0.25">
-      <c r="D1" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="J1" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-    </row>
-    <row r="2" spans="1:13 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:13 16384:16384" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="67" t="s">
+      <c r="B1" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H1" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="J1" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="54">
+        <f>3%*B3</f>
+        <v>900</v>
+      </c>
+      <c r="E3" s="54">
+        <f>B3*11%</f>
+        <v>3300</v>
+      </c>
+      <c r="F3" s="54">
+        <f>3%*B3</f>
+        <v>900</v>
+      </c>
+      <c r="G3" s="54">
+        <f>3%*B3</f>
+        <v>900</v>
+      </c>
+      <c r="H3" s="53">
+        <f>SUM(D3:G3)</f>
+        <v>6000</v>
+      </c>
+      <c r="I3" s="53">
+        <f>SUM(B3:C3)-SUM(D3:G3)</f>
+        <v>24000</v>
+      </c>
+      <c r="J3" s="61">
+        <f>23%*B3</f>
+        <v>6900</v>
+      </c>
+      <c r="K3" s="61">
+        <f>5%*B3</f>
+        <v>1500</v>
+      </c>
+      <c r="L3" s="53">
+        <f>SUM(J3:K3)</f>
+        <v>8400</v>
+      </c>
+      <c r="M3" s="64">
+        <f>SUM(H3,I3,L3)</f>
+        <v>38400</v>
+      </c>
     </row>
     <row r="4" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B4" s="11">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="54">
+        <f>3%*B4</f>
+        <v>900</v>
+      </c>
+      <c r="E4" s="54">
+        <f>B4*11%</f>
+        <v>3300</v>
+      </c>
+      <c r="F4" s="54">
+        <f>3%*B4</f>
+        <v>900</v>
+      </c>
+      <c r="G4" s="54">
+        <f>3%*B4</f>
+        <v>900</v>
+      </c>
+      <c r="H4" s="53">
+        <f>SUM(D4:G4)</f>
+        <v>6000</v>
+      </c>
+      <c r="I4" s="53">
+        <f>SUM(B4:C4)-SUM(D4:G4)</f>
         <v>24000</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
-        <f>SUM(B4:D4)</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="11">
-        <v>24000</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
-        <f>SUM(B5:D5)</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
-        <f>SUM(I4:I5)</f>
+      <c r="J4" s="61">
+        <f>23%*B4</f>
+        <v>6900</v>
+      </c>
+      <c r="K4" s="61">
+        <f>5%*B4</f>
+        <v>1500</v>
+      </c>
+      <c r="L4" s="53">
+        <f>SUM(J4:K4)</f>
+        <v>8400</v>
+      </c>
+      <c r="M4" s="64">
+        <f>SUM(H4,I4,L4)</f>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="14">
+        <f>SUM(I3:I4)</f>
         <v>48000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="14">
+        <f>SUM(M3:M4)</f>
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11">
+        <v>13700</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="54">
+        <f>3%*B7</f>
+        <v>411</v>
+      </c>
+      <c r="E7" s="54">
+        <f>B7*11%</f>
+        <v>1507</v>
+      </c>
+      <c r="F7" s="54">
+        <f>B7*3%</f>
+        <v>411</v>
+      </c>
+      <c r="G7" s="54">
+        <f>3%*B7</f>
+        <v>411</v>
+      </c>
+      <c r="H7" s="53">
+        <f>SUM(D7:G7)</f>
+        <v>2740</v>
+      </c>
+      <c r="I7" s="53">
+        <f>SUM(B7:C7)-SUM(D7:G7)</f>
+        <v>10960</v>
+      </c>
+      <c r="J7" s="61">
+        <f>23%*B7</f>
+        <v>3151</v>
+      </c>
+      <c r="K7" s="61">
+        <f>5%*B7</f>
+        <v>685</v>
+      </c>
+      <c r="L7" s="62">
+        <f>SUM(J7:K7)</f>
+        <v>3836</v>
+      </c>
+      <c r="M7" s="65">
+        <f>SUM(L7,H7,I7)</f>
+        <v>17536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="14">
+        <f>SUM(I7:I7)</f>
+        <v>10960</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="14">
+        <f>SUM(M7:M7)</f>
+        <v>17536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
-        <f>3%*B8</f>
-        <v>600</v>
-      </c>
-      <c r="E8" s="11">
-        <f>B8*11%</f>
-        <v>2200</v>
-      </c>
-      <c r="F8" s="11">
-        <f>B8*3%</f>
-        <v>600</v>
-      </c>
-      <c r="G8" s="11">
-        <f>3%*B8</f>
-        <v>600</v>
-      </c>
-      <c r="H8" s="72">
-        <f>SUM(D8:G8)</f>
-        <v>4000</v>
-      </c>
-      <c r="I8" s="72">
-        <f>SUM(B8:C8)-SUM(D8:G8)</f>
-        <v>16000</v>
-      </c>
-      <c r="J8" s="69">
-        <f>23%*B8</f>
-        <v>4600</v>
-      </c>
-      <c r="K8" s="69">
-        <f>5%*B8</f>
-        <v>1000</v>
-      </c>
-      <c r="L8" s="74">
-        <f>SUM(J8:K8)</f>
-        <v>5600</v>
-      </c>
-      <c r="M8" s="69">
-        <f>SUM(L8,H8,I8)</f>
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="11">
-        <v>10907</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11">
-        <f>SUM(B9:G9)</f>
-        <v>10907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <f>SUM(I8:I9)</f>
-        <v>26907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B10" s="11">
+        <v>18425</v>
+      </c>
+      <c r="C10" s="57">
+        <v>5527.5</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" ref="D10:D23" si="0">3%*B10</f>
+        <v>552.75</v>
+      </c>
+      <c r="E10" s="54">
+        <f t="shared" ref="E10:E23" si="1">B10*11%</f>
+        <v>2026.75</v>
+      </c>
+      <c r="F10" s="54">
+        <f t="shared" ref="F10:F23" si="2">B10*3%</f>
+        <v>552.75</v>
+      </c>
+      <c r="G10" s="54">
+        <f t="shared" ref="G10:G23" si="3">3%*B10</f>
+        <v>552.75</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" ref="H10:H23" si="4">SUM(D10:G10)</f>
+        <v>3685</v>
+      </c>
+      <c r="I10" s="53">
+        <f t="shared" ref="I10:I23" si="5">SUM(B10:C10)-SUM(D10:G10)</f>
+        <v>20267.5</v>
+      </c>
+      <c r="J10" s="61">
+        <f t="shared" ref="J10:J23" si="6">23%*B10</f>
+        <v>4237.75</v>
+      </c>
+      <c r="K10" s="61">
+        <f t="shared" ref="K10:K23" si="7">5%*B10</f>
+        <v>921.25</v>
+      </c>
+      <c r="L10" s="62">
+        <f t="shared" ref="L10:L23" si="8">SUM(J10:K10)</f>
+        <v>5159</v>
+      </c>
+      <c r="M10" s="65">
+        <f t="shared" ref="M10:M23" si="9">SUM(L10,H10,I10)</f>
+        <v>29111.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="11">
+        <v>16300</v>
+      </c>
+      <c r="C11" s="57">
+        <v>2420</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" si="1"/>
+        <v>1793</v>
+      </c>
+      <c r="F11" s="54">
+        <f t="shared" si="2"/>
+        <v>489</v>
+      </c>
+      <c r="G11" s="54">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="H11" s="53">
+        <f t="shared" si="4"/>
+        <v>3260</v>
+      </c>
+      <c r="I11" s="53">
+        <f t="shared" si="5"/>
+        <v>15460</v>
+      </c>
+      <c r="J11" s="61">
+        <f t="shared" si="6"/>
+        <v>3749</v>
+      </c>
+      <c r="K11" s="61">
+        <f t="shared" si="7"/>
+        <v>815</v>
+      </c>
+      <c r="L11" s="62">
+        <f t="shared" si="8"/>
+        <v>4564</v>
+      </c>
+      <c r="M11" s="65">
+        <f t="shared" si="9"/>
+        <v>23284</v>
+      </c>
     </row>
     <row r="12" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11">
+        <v>16300</v>
+      </c>
+      <c r="C12" s="57">
+        <v>2420</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="1"/>
+        <v>1793</v>
+      </c>
+      <c r="F12" s="54">
+        <f t="shared" si="2"/>
+        <v>489</v>
+      </c>
+      <c r="G12" s="54">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="H12" s="53">
+        <f t="shared" si="4"/>
+        <v>3260</v>
+      </c>
+      <c r="I12" s="53">
+        <f t="shared" si="5"/>
+        <v>15460</v>
+      </c>
+      <c r="J12" s="61">
+        <f t="shared" si="6"/>
+        <v>3749</v>
+      </c>
+      <c r="K12" s="61">
+        <f t="shared" si="7"/>
+        <v>815</v>
+      </c>
+      <c r="L12" s="62">
+        <f t="shared" si="8"/>
+        <v>4564</v>
+      </c>
+      <c r="M12" s="65">
+        <f t="shared" si="9"/>
+        <v>23284</v>
+      </c>
+      <c r="XFD12" s="13">
+        <f>SUM(B12:XFC12)</f>
+        <v>73112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="58">
+        <f>SUM(I10:I12)</f>
+        <v>51187.5</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="14">
+        <f>SUM(M10:M12)</f>
+        <v>75679.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11">
+        <v>13600</v>
+      </c>
+      <c r="C15" s="57">
+        <v>2064</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="E15" s="54">
+        <f t="shared" si="1"/>
+        <v>1496</v>
+      </c>
+      <c r="F15" s="54">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="G15" s="54">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="H15" s="53">
+        <f t="shared" si="4"/>
+        <v>2720</v>
+      </c>
+      <c r="I15" s="53">
+        <f t="shared" si="5"/>
+        <v>12944</v>
+      </c>
+      <c r="J15" s="61">
+        <f t="shared" si="6"/>
+        <v>3128</v>
+      </c>
+      <c r="K15" s="61">
+        <f t="shared" si="7"/>
+        <v>680</v>
+      </c>
+      <c r="L15" s="62">
+        <f t="shared" si="8"/>
+        <v>3808</v>
+      </c>
+      <c r="M15" s="65">
+        <f t="shared" si="9"/>
+        <v>19472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="58">
+        <f>SUM(I15)</f>
+        <v>12944</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="14">
+        <f>SUM(M15)</f>
+        <v>19472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
         <v>18425</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C18" s="57">
         <v>5527.5</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
-        <f>SUM(B12:G12)</f>
-        <v>23952.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="11">
-        <v>15125</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2420</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11">
-        <f>SUM(B13:G13)</f>
-        <v>17545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="11">
-        <v>15125</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2420</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
-        <f>SUM(B14,C14)</f>
-        <v>17545</v>
-      </c>
-      <c r="XFD14" s="13">
-        <f>SUM(B14:XFC14)</f>
-        <v>35090</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
-        <f>SUM(I12:I14)</f>
-        <v>59042.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="11">
-        <v>12900</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2064</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11">
-        <f>SUM(B17:G17)</f>
-        <v>14964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14">
-        <f>SUM(I17)</f>
-        <v>14964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="54">
+        <f t="shared" si="0"/>
+        <v>552.75</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" si="1"/>
+        <v>2026.75</v>
+      </c>
+      <c r="F18" s="54">
+        <f t="shared" si="2"/>
+        <v>552.75</v>
+      </c>
+      <c r="G18" s="54">
+        <f t="shared" si="3"/>
+        <v>552.75</v>
+      </c>
+      <c r="H18" s="53">
+        <f t="shared" si="4"/>
+        <v>3685</v>
+      </c>
+      <c r="I18" s="53">
+        <f t="shared" si="5"/>
+        <v>20267.5</v>
+      </c>
+      <c r="J18" s="61">
+        <f t="shared" si="6"/>
+        <v>4237.75</v>
+      </c>
+      <c r="K18" s="61">
+        <f t="shared" si="7"/>
+        <v>921.25</v>
+      </c>
+      <c r="L18" s="62">
+        <f t="shared" si="8"/>
+        <v>5159</v>
+      </c>
+      <c r="M18" s="65">
+        <f t="shared" si="9"/>
+        <v>29111.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="11">
+        <v>6500</v>
+      </c>
+      <c r="C19" s="57">
+        <v>2670</v>
+      </c>
+      <c r="D19" s="54">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E19" s="54">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="F19" s="54">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G19" s="54">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="H19" s="53">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="I19" s="53">
+        <f t="shared" si="5"/>
+        <v>7870</v>
+      </c>
+      <c r="J19" s="61">
+        <f t="shared" si="6"/>
+        <v>1495</v>
+      </c>
+      <c r="K19" s="61">
+        <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="L19" s="62">
+        <f t="shared" si="8"/>
+        <v>1820</v>
+      </c>
+      <c r="M19" s="65">
+        <f t="shared" si="9"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11">
-        <v>18425</v>
-      </c>
-      <c r="C20" s="11">
-        <v>5527.5</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11">
-        <f>SUM(B20:H20)</f>
-        <v>23952.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6500</v>
+      </c>
+      <c r="C20" s="57">
+        <v>2670</v>
+      </c>
+      <c r="D20" s="54">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E20" s="54">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="F20" s="54">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G20" s="54">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="H20" s="53">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="I20" s="53">
+        <f t="shared" si="5"/>
+        <v>7870</v>
+      </c>
+      <c r="J20" s="61">
+        <f t="shared" si="6"/>
+        <v>1495</v>
+      </c>
+      <c r="K20" s="61">
+        <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="L20" s="62">
+        <f t="shared" si="8"/>
+        <v>1820</v>
+      </c>
+      <c r="M20" s="65">
+        <f t="shared" si="9"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="11">
-        <v>7824</v>
-      </c>
-      <c r="C21" s="11">
+        <v>6500</v>
+      </c>
+      <c r="C21" s="57">
         <v>2670</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F21" s="11">
-        <v>-273</v>
-      </c>
-      <c r="G21" s="11">
-        <v>-227</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11">
-        <f>SUM(E21:G21,C21,B21)</f>
-        <v>8719.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="54">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E21" s="54">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="F21" s="54">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G21" s="54">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="H21" s="53">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="I21" s="53">
+        <f t="shared" si="5"/>
+        <v>7870</v>
+      </c>
+      <c r="J21" s="61">
+        <f t="shared" si="6"/>
+        <v>1495</v>
+      </c>
+      <c r="K21" s="61">
+        <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="L21" s="62">
+        <f t="shared" si="8"/>
+        <v>1820</v>
+      </c>
+      <c r="M21" s="65">
+        <f t="shared" si="9"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="11">
-        <v>7824</v>
-      </c>
-      <c r="C22" s="11">
+        <v>6500</v>
+      </c>
+      <c r="C22" s="57">
         <v>2670</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F22" s="11">
-        <v>-273</v>
-      </c>
-      <c r="G22" s="11">
-        <v>-227</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11">
-        <f>SUM(E22:G22,C22,B22)</f>
-        <v>8719.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="54">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="F22" s="54">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G22" s="54">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="H22" s="53">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="I22" s="53">
+        <f t="shared" si="5"/>
+        <v>7870</v>
+      </c>
+      <c r="J22" s="61">
+        <f t="shared" si="6"/>
+        <v>1495</v>
+      </c>
+      <c r="K22" s="61">
+        <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="L22" s="62">
+        <f t="shared" si="8"/>
+        <v>1820</v>
+      </c>
+      <c r="M22" s="65">
+        <f t="shared" si="9"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="11">
-        <v>7824</v>
-      </c>
-      <c r="C23" s="11">
+        <v>6500</v>
+      </c>
+      <c r="C23" s="57">
         <v>2670</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F23" s="11">
-        <v>-273</v>
-      </c>
-      <c r="G23" s="11">
-        <v>-227</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11">
-        <f>SUM(E23:G23,C23,B23)</f>
-        <v>8719.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="11">
-        <v>7824</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2670</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F24" s="11">
-        <v>-273</v>
-      </c>
-      <c r="G24" s="11">
-        <v>-227</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11">
-        <f>SUM(E24:G24,C24,B24)</f>
-        <v>8719.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="D23" s="54">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E23" s="54">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="F23" s="54">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G23" s="54">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="H23" s="53">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="I23" s="53">
+        <f t="shared" si="5"/>
+        <v>7870</v>
+      </c>
+      <c r="J23" s="61">
+        <f t="shared" si="6"/>
+        <v>1495</v>
+      </c>
+      <c r="K23" s="61">
+        <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="L23" s="62">
+        <f t="shared" si="8"/>
+        <v>1820</v>
+      </c>
+      <c r="M23" s="65">
+        <f t="shared" si="9"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="14">
+        <f>SUM(I18:I23)</f>
+        <v>59617.5</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="72">
+        <f>SUM(M18:M23)</f>
+        <v>84061.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="55"/>
+      <c r="H25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="11">
-        <v>7824</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2670</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11">
-        <v>-1274.9000000000001</v>
-      </c>
-      <c r="F25" s="11">
-        <v>-273</v>
-      </c>
-      <c r="G25" s="11">
-        <v>-227</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11">
-        <f>SUM(E25:G25,C25,B25)</f>
-        <v>8719.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17">
-        <f>SUM(I21:I25)</f>
-        <v>43595.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="18">
-        <f>SUM(I26,I18,I15,I10,I6)</f>
-        <v>192509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="I25" s="17">
+        <f>SUM(I24,I16,I13,I8,I5)</f>
+        <v>182709</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="73">
+        <f>SUM(M24,M16,M13,M8,M5)</f>
+        <v>273549</v>
+      </c>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="27" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="J1:L1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="78">
+        <v>99000</v>
+      </c>
+      <c r="C2" s="77">
+        <v>5</v>
+      </c>
+      <c r="D2" s="79">
+        <f>B2/C2</f>
+        <v>19800</v>
+      </c>
+      <c r="E2" s="79">
+        <f>D2</f>
+        <v>19800</v>
+      </c>
+      <c r="F2" s="80">
+        <f>SUM(D2:E2)</f>
+        <v>39600</v>
+      </c>
+      <c r="G2" s="81">
+        <f>B2-F2</f>
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="78">
+        <f>B2+B2*20%</f>
+        <v>118800</v>
+      </c>
+      <c r="C3" s="77">
+        <v>5</v>
+      </c>
+      <c r="D3" s="79">
+        <f>B3/C3</f>
+        <v>23760</v>
+      </c>
+      <c r="E3" s="79">
+        <f>D3</f>
+        <v>23760</v>
+      </c>
+      <c r="F3" s="80">
+        <f>SUM(D3:E3)</f>
+        <v>47520</v>
+      </c>
+      <c r="G3" s="81">
+        <f>B3-F3</f>
+        <v>71280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="78">
+        <v>50400</v>
+      </c>
+      <c r="C4" s="77">
+        <v>5</v>
+      </c>
+      <c r="D4" s="79">
+        <f t="shared" ref="D4:D11" si="0">B4/C4</f>
+        <v>10080</v>
+      </c>
+      <c r="E4" s="79">
+        <f t="shared" ref="E4:E12" si="1">D4</f>
+        <v>10080</v>
+      </c>
+      <c r="F4" s="80">
+        <f t="shared" ref="F4:F12" si="2">SUM(D4:E4)</f>
+        <v>20160</v>
+      </c>
+      <c r="G4" s="81">
+        <f t="shared" ref="G4:G11" si="3">B4-F4</f>
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="78">
+        <v>21600</v>
+      </c>
+      <c r="C5" s="77">
+        <v>5</v>
+      </c>
+      <c r="D5" s="79">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="E5" s="79">
+        <f t="shared" si="1"/>
+        <v>4320</v>
+      </c>
+      <c r="F5" s="80">
+        <f t="shared" si="2"/>
+        <v>8640</v>
+      </c>
+      <c r="G5" s="81">
+        <f t="shared" si="3"/>
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="78">
+        <v>4600</v>
+      </c>
+      <c r="C6" s="77">
+        <v>5</v>
+      </c>
+      <c r="D6" s="79">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="E6" s="79">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+      <c r="F6" s="80">
+        <f t="shared" si="2"/>
+        <v>1840</v>
+      </c>
+      <c r="G6" s="81">
+        <f t="shared" si="3"/>
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="78">
+        <v>738</v>
+      </c>
+      <c r="C7" s="77">
+        <v>5</v>
+      </c>
+      <c r="D7" s="79">
+        <f t="shared" si="0"/>
+        <v>147.6</v>
+      </c>
+      <c r="E7" s="79">
+        <f t="shared" si="1"/>
+        <v>147.6</v>
+      </c>
+      <c r="F7" s="80">
+        <f t="shared" si="2"/>
+        <v>295.2</v>
+      </c>
+      <c r="G7" s="81">
+        <f t="shared" si="3"/>
+        <v>442.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="78">
+        <v>100300</v>
+      </c>
+      <c r="C8" s="77">
+        <v>10</v>
+      </c>
+      <c r="D8" s="79">
+        <f t="shared" si="0"/>
+        <v>10030</v>
+      </c>
+      <c r="E8" s="79">
+        <f t="shared" si="1"/>
+        <v>10030</v>
+      </c>
+      <c r="F8" s="80">
+        <f t="shared" si="2"/>
+        <v>20060</v>
+      </c>
+      <c r="G8" s="81">
+        <f t="shared" si="3"/>
+        <v>80240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B9" s="78">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="77">
+        <v>5</v>
+      </c>
+      <c r="D9" s="79">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E9" s="79">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F9" s="80">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="G9" s="81">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="B10" s="78">
+        <v>750</v>
+      </c>
+      <c r="C10" s="77">
+        <v>5</v>
+      </c>
+      <c r="D10" s="79">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E10" s="79">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F10" s="80">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="G10" s="81">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="24" t="e">
-        <f>B2/C2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="B11" s="78">
+        <v>5300</v>
+      </c>
+      <c r="C11" s="77">
+        <v>10</v>
+      </c>
+      <c r="D11" s="79">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="E11" s="79">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="F11" s="80">
+        <f t="shared" si="2"/>
+        <v>1060</v>
+      </c>
+      <c r="G11" s="81">
+        <f t="shared" si="3"/>
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="82">
+        <f>SUM(D2:D11)</f>
+        <v>71737.600000000006</v>
+      </c>
+      <c r="E12" s="82">
+        <f t="shared" si="1"/>
+        <v>71737.600000000006</v>
+      </c>
+      <c r="F12" s="82">
+        <f t="shared" si="2"/>
+        <v>143475.20000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,10 +4132,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>18</v>
@@ -3286,7 +4153,7 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3298,35 +4165,35 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="62">
+      <c r="A3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="48">
         <f>20000*6</f>
         <v>120000</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="48">
         <f>B3+B3*40%</f>
         <v>168000</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="48">
         <f t="shared" ref="D3:E3" si="0">C3+C3*40%</f>
         <v>235200</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="48">
         <f t="shared" si="0"/>
         <v>329280</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="63"/>
+        <v>89</v>
+      </c>
+      <c r="B4" s="49"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -3336,35 +4203,35 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="62">
-        <f>'[2]03-Ingresos'!$F$3*3.5%</f>
-        <v>44198.000000000007</v>
-      </c>
-      <c r="C5" s="62">
-        <f>'[2]03-Ingresos'!$F$4*3.5%</f>
-        <v>70788.060000000012</v>
-      </c>
-      <c r="D5" s="62">
-        <f>'[2]03-Ingresos'!$F$5*3.5%</f>
-        <v>102180.96</v>
-      </c>
-      <c r="E5" s="62">
-        <f>'[2]03-Ingresos'!$F$6*3.5%</f>
-        <v>146098.26</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="A5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="48">
+        <f>[2]Ingresos!$F$3*3.5%</f>
+        <v>66876.600000000006</v>
+      </c>
+      <c r="C5" s="48">
+        <f>[2]Ingresos!$F$4*3.5%</f>
+        <v>102684.96</v>
+      </c>
+      <c r="D5" s="48">
+        <f>[2]Ingresos!$F$5*3.5%</f>
+        <v>197920.80000000002</v>
+      </c>
+      <c r="E5" s="48">
+        <f>[2]Ingresos!$F$6*3.5%</f>
+        <v>215713.68000000002</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="B6" s="49"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3374,133 +4241,133 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="62">
-        <f>(((('[2]03-Ingresos'!$H$3-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$3-10000)*6/1000)+200)*6</f>
-        <v>12323.099999999999</v>
-      </c>
-      <c r="C7" s="62">
-        <f>(((('[2]03-Ingresos'!$H$4-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$4-10000)*6/1000)+200)*6</f>
-        <v>18590.756999999998</v>
-      </c>
-      <c r="D7" s="62">
-        <f>(((('[2]03-Ingresos'!$H$5-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$5-10000)*6/1000)+200)*6</f>
-        <v>25990.512000000002</v>
-      </c>
-      <c r="E7" s="62">
-        <f>(((('[2]03-Ingresos'!$H$6-10000)*6/1000)+200)+37.5%*(('[2]03-Ingresos'!$H$6-10000)*6/1000)+200)*6</f>
-        <v>36342.447</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="A7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="48">
+        <f>(((([2]Ingresos!$H$3-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$3-10000)*6/1000)+200)*6</f>
+        <v>17668.77</v>
+      </c>
+      <c r="C7" s="48">
+        <f>(((([2]Ingresos!$H$4-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$4-10000)*6/1000)+200)*6</f>
+        <v>26109.312000000005</v>
+      </c>
+      <c r="D7" s="48">
+        <f>(((([2]Ingresos!$H$5-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$5-10000)*6/1000)+200)*6</f>
+        <v>48557.760000000002</v>
+      </c>
+      <c r="E7" s="48">
+        <f>(((([2]Ingresos!$H$6-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$6-10000)*6/1000)+200)*6</f>
+        <v>52751.796000000002</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="62">
+      <c r="A8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="48">
         <f>100*6</f>
         <v>600</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="48">
         <f>B8*1.2</f>
         <v>720</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="48">
         <f t="shared" ref="D8:E8" si="1">C8*1.2</f>
         <v>864</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="48">
         <f t="shared" si="1"/>
         <v>1036.8</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="62">
+      <c r="A9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="48">
         <f>321.2*6</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="48">
         <f>B9*1.2</f>
         <v>2312.64</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="48">
         <f t="shared" ref="D9:E9" si="2">C9*1.2</f>
         <v>2775.1679999999997</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="48">
         <f t="shared" si="2"/>
         <v>3330.2015999999994</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="62">
+      <c r="A10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="48">
         <f>343.75*6</f>
         <v>2062.5</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="48">
         <f>B10*1.2</f>
         <v>2475</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="48">
         <f t="shared" ref="D10:E10" si="3">C10*1.2</f>
         <v>2970</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="48">
         <f t="shared" si="3"/>
         <v>3564</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="66">
+      <c r="A11" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="52">
         <f>SUM(B3:B10)</f>
-        <v>181110.80000000002</v>
-      </c>
-      <c r="C11" s="66">
+        <v>209135.07</v>
+      </c>
+      <c r="C11" s="52">
         <f>SUM(C3:C10)</f>
-        <v>262886.45699999999</v>
-      </c>
-      <c r="D11" s="66">
+        <v>302301.91200000001</v>
+      </c>
+      <c r="D11" s="52">
         <f>SUM(D3:D10)</f>
-        <v>369980.64</v>
-      </c>
-      <c r="E11" s="66">
+        <v>488287.72800000006</v>
+      </c>
+      <c r="E11" s="52">
         <f>SUM(E3:E10)</f>
-        <v>519651.70859999995</v>
-      </c>
-      <c r="F11" s="64">
+        <v>605676.4776000001</v>
+      </c>
+      <c r="F11" s="50">
         <f>SUM(B11:E11)</f>
-        <v>1333629.6055999999</v>
+        <v>1605401.1876000003</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
       <sheetName val="Indicadores Financieros"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="F3">
@@ -1061,23 +1061,23 @@
         </row>
         <row r="5">
           <cell r="F5">
-            <v>5654880</v>
+            <v>5622912</v>
           </cell>
           <cell r="H5">
-            <v>942480</v>
+            <v>937152</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>6163248</v>
+            <v>6126396</v>
           </cell>
           <cell r="H6">
-            <v>1027208</v>
+            <v>1021066</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1372,9 +1372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,19 +1462,19 @@
       </c>
       <c r="B4" s="35">
         <f>SUM(Remuneraciones!M13,Remuneraciones!M16)*6</f>
-        <v>570909</v>
+        <v>541104</v>
       </c>
       <c r="C4" s="35">
         <f>B4+$B$4*$G$2</f>
-        <v>685090.8</v>
+        <v>649324.80000000005</v>
       </c>
       <c r="D4" s="36">
         <f t="shared" ref="D4:E4" si="0">C4+$B$4*$G$2</f>
-        <v>799272.60000000009</v>
+        <v>757545.60000000009</v>
       </c>
       <c r="E4" s="36">
         <f t="shared" si="0"/>
-        <v>913454.40000000014</v>
+        <v>865766.40000000014</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1483,19 +1483,19 @@
       </c>
       <c r="B5" s="35">
         <f>SUM(Remuneraciones!M24-Remuneraciones!M18)*6</f>
-        <v>329700</v>
+        <v>294600</v>
       </c>
       <c r="C5" s="35">
         <f>B5+B5*G2</f>
-        <v>395640</v>
+        <v>353520</v>
       </c>
       <c r="D5" s="36">
         <f>C5*2+C5*2*G2</f>
-        <v>949536</v>
+        <v>848448</v>
       </c>
       <c r="E5" s="36">
         <f>D5+D5*G2</f>
-        <v>1139443.2</v>
+        <v>1018137.6</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1608,19 +1608,19 @@
       </c>
       <c r="B11" s="28">
         <f>SUM(B3:B10)</f>
-        <v>949507.5</v>
+        <v>884602.5</v>
       </c>
       <c r="C11" s="28">
         <f>SUM(C3:C10)</f>
-        <v>1139408.9999999998</v>
+        <v>1061522.9999999998</v>
       </c>
       <c r="D11" s="28">
         <f>SUM(D3:D10)</f>
-        <v>1867666.5</v>
+        <v>1724851.5</v>
       </c>
       <c r="E11" s="28">
         <f>SUM(E3:E10)</f>
-        <v>2186935.2000000007</v>
+        <v>2017941.6000000003</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1638,19 +1638,19 @@
       </c>
       <c r="B13" s="35">
         <f>SUM(Remuneraciones!M5,Remuneraciones!M8,Remuneraciones!M18)*6</f>
-        <v>740685</v>
+        <v>695064</v>
       </c>
       <c r="C13" s="35">
         <f>B13+$B$13*$G$2</f>
-        <v>888822</v>
+        <v>834076.8</v>
       </c>
       <c r="D13" s="36">
         <f t="shared" ref="D13:E13" si="3">C13+$B$13*$G$2</f>
-        <v>1036959</v>
+        <v>973089.60000000009</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="3"/>
-        <v>1185096</v>
+        <v>1112102.4000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="D15" s="36">
         <f>Impuestos!D11</f>
-        <v>488287.72800000006</v>
+        <v>486905.11200000002</v>
       </c>
       <c r="E15" s="36">
         <f>Impuestos!E11</f>
-        <v>605676.4776000001</v>
+        <v>604082.62860000005</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1763,19 +1763,19 @@
       </c>
       <c r="B19" s="35">
         <f>(Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)/2</f>
-        <v>109625.4</v>
+        <v>99782.399999999994</v>
       </c>
       <c r="C19" s="35">
         <f>(Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)/2</f>
-        <v>109625.4</v>
+        <v>99782.399999999994</v>
       </c>
       <c r="D19" s="36">
         <f>((Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)+(Remuneraciones!I24-Remuneraciones!I18)+(Remuneraciones!I24-Remuneraciones!I18)*G2)/2</f>
-        <v>133235.4</v>
+        <v>119882.4</v>
       </c>
       <c r="E19" s="36">
         <f>D19</f>
-        <v>133235.4</v>
+        <v>119882.4</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1783,20 +1783,20 @@
         <v>40</v>
       </c>
       <c r="B20" s="28">
-        <f>SUM(B13:B18)</f>
-        <v>1034248.2700000001</v>
+        <f>SUM(B13:B19)</f>
+        <v>1088409.6700000002</v>
       </c>
       <c r="C20" s="28">
-        <f>SUM(C13:C18)</f>
-        <v>1285263.9920000001</v>
+        <f>SUM(C13:C19)</f>
+        <v>1330301.192</v>
       </c>
       <c r="D20" s="28">
-        <f>SUM(D13:D18)</f>
-        <v>1629026.8080000002</v>
+        <f>SUM(D13:D19)</f>
+        <v>1683657.192</v>
       </c>
       <c r="E20" s="28">
-        <f>SUM(E13:E18)</f>
-        <v>1940061.3576000002</v>
+        <f>SUM(E13:E19)</f>
+        <v>1985356.3086000003</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1876,24 +1876,24 @@
       </c>
       <c r="B25" s="30">
         <f>SUM(B24,B20,B11)</f>
-        <v>2013755.77</v>
+        <v>2003012.1700000002</v>
       </c>
       <c r="C25" s="30">
         <f>SUM(C24,C20,C11)</f>
-        <v>2460672.9919999996</v>
+        <v>2427824.1919999998</v>
       </c>
       <c r="D25" s="30">
         <f>SUM(D24,D20,D11)</f>
-        <v>3538693.3080000002</v>
+        <v>3450508.6919999998</v>
       </c>
       <c r="E25" s="30">
         <f>SUM(E24,E20,E11)</f>
-        <v>4174996.5576000009</v>
+        <v>4051297.9086000007</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="26">
         <f>SUM(B25:F25)</f>
-        <v>12188118.627600001</v>
+        <v>11932642.9626</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,8 +2092,8 @@
         <v>123</v>
       </c>
       <c r="B8" s="85">
-        <f>SUM(B6:B7)</f>
-        <v>74204.639999999999</v>
+        <f>SUM(B3:B7)</f>
+        <v>76204.639999999999</v>
       </c>
       <c r="C8" s="85">
         <f>SUM(C3:C7)</f>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B19" s="73">
         <f>SUM(B8,B13,B18)</f>
-        <v>121818.64</v>
+        <v>123818.64</v>
       </c>
       <c r="C19" s="73">
         <f>SUM(C8,C13,C18)</f>
@@ -2309,7 +2309,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,11 +2334,11 @@
       </c>
       <c r="B2" s="89">
         <f>'Costos Fijos'!B25+'Costos Fijos'!C25</f>
-        <v>4474428.7620000001</v>
+        <v>4430836.3619999997</v>
       </c>
       <c r="C2" s="79">
         <f>'Costos Fijos'!D25+'Costos Fijos'!E25</f>
-        <v>7713689.8656000011</v>
+        <v>7501806.6006000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B3" s="89">
         <f>'Costos Variables'!B19+'Costos Variables'!C19</f>
-        <v>361878.04800000001</v>
+        <v>363878.04800000001</v>
       </c>
       <c r="C3" s="79">
         <f>'Costos Variables'!D19+'Costos Variables'!E19</f>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="B4" s="82">
         <f>SUM(B2:B3)</f>
-        <v>4836306.8100000005</v>
+        <v>4794714.41</v>
       </c>
       <c r="C4" s="82">
         <f>SUM(C2:C3)</f>
-        <v>8521710.6059200019</v>
+        <v>8309827.3409200003</v>
       </c>
     </row>
   </sheetData>
@@ -2803,9 +2803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,48 +3026,48 @@
         <v>47</v>
       </c>
       <c r="B7" s="11">
-        <v>13700</v>
+        <v>9500</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="54">
         <f>3%*B7</f>
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="E7" s="54">
         <f>B7*11%</f>
-        <v>1507</v>
+        <v>1045</v>
       </c>
       <c r="F7" s="54">
         <f>B7*3%</f>
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="G7" s="54">
         <f>3%*B7</f>
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="H7" s="53">
         <f>SUM(D7:G7)</f>
-        <v>2740</v>
+        <v>1900</v>
       </c>
       <c r="I7" s="53">
         <f>SUM(B7:C7)-SUM(D7:G7)</f>
-        <v>10960</v>
+        <v>7600</v>
       </c>
       <c r="J7" s="61">
         <f>23%*B7</f>
-        <v>3151</v>
+        <v>2185</v>
       </c>
       <c r="K7" s="61">
         <f>5%*B7</f>
-        <v>685</v>
+        <v>475</v>
       </c>
       <c r="L7" s="62">
         <f>SUM(J7:K7)</f>
-        <v>3836</v>
+        <v>2660</v>
       </c>
       <c r="M7" s="65">
         <f>SUM(L7,H7,I7)</f>
-        <v>17536</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="8" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="I8" s="14">
         <f>SUM(I7:I7)</f>
-        <v>10960</v>
+        <v>7600</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="M8" s="14">
         <f>SUM(M7:M7)</f>
-        <v>17536</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="9" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>18425</v>
       </c>
       <c r="C10" s="57">
-        <v>5527.5</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="54">
         <f t="shared" ref="D10:D23" si="0">3%*B10</f>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="I10" s="53">
         <f t="shared" ref="I10:I23" si="5">SUM(B10:C10)-SUM(D10:G10)</f>
-        <v>20267.5</v>
+        <v>17740</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" ref="J10:J23" si="6">23%*B10</f>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="M10" s="65">
         <f t="shared" ref="M10:M23" si="9">SUM(L10,H10,I10)</f>
-        <v>29111.5</v>
+        <v>26584</v>
       </c>
     </row>
     <row r="11" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>16300</v>
       </c>
       <c r="C11" s="57">
-        <v>2420</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="54">
         <f t="shared" si="0"/>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="I11" s="53">
         <f t="shared" si="5"/>
-        <v>15460</v>
+        <v>14240</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="6"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="M11" s="65">
         <f t="shared" si="9"/>
-        <v>23284</v>
+        <v>22064</v>
       </c>
     </row>
     <row r="12" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>16300</v>
       </c>
       <c r="C12" s="57">
-        <v>2420</v>
+        <v>1200</v>
       </c>
       <c r="D12" s="54">
         <f t="shared" si="0"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="I12" s="53">
         <f t="shared" si="5"/>
-        <v>15460</v>
+        <v>14240</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="6"/>
@@ -3264,11 +3264,11 @@
       </c>
       <c r="M12" s="65">
         <f t="shared" si="9"/>
-        <v>23284</v>
+        <v>22064</v>
       </c>
       <c r="XFD12" s="13">
         <f>SUM(B12:XFC12)</f>
-        <v>73112</v>
+        <v>69452</v>
       </c>
     </row>
     <row r="13" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="I13" s="58">
         <f>SUM(I10:I12)</f>
-        <v>51187.5</v>
+        <v>46220</v>
       </c>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="M13" s="14">
         <f>SUM(M10:M12)</f>
-        <v>75679.5</v>
+        <v>70712</v>
       </c>
     </row>
     <row r="14" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>18425</v>
       </c>
       <c r="C18" s="57">
-        <v>5527.5</v>
+        <v>3300</v>
       </c>
       <c r="D18" s="54">
         <f t="shared" si="0"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="I18" s="53">
         <f t="shared" si="5"/>
-        <v>20267.5</v>
+        <v>18040</v>
       </c>
       <c r="J18" s="61">
         <f t="shared" si="6"/>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="M18" s="65">
         <f t="shared" si="9"/>
-        <v>29111.5</v>
+        <v>26884</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>6500</v>
       </c>
       <c r="C19" s="57">
-        <v>2670</v>
+        <v>1500</v>
       </c>
       <c r="D19" s="54">
         <f t="shared" si="0"/>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I19" s="53">
         <f t="shared" si="5"/>
-        <v>7870</v>
+        <v>6700</v>
       </c>
       <c r="J19" s="61">
         <f t="shared" si="6"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="M19" s="65">
         <f t="shared" si="9"/>
-        <v>10990</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3520,7 +3520,7 @@
         <v>6500</v>
       </c>
       <c r="C20" s="57">
-        <v>2670</v>
+        <v>1500</v>
       </c>
       <c r="D20" s="54">
         <f t="shared" si="0"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I20" s="53">
         <f t="shared" si="5"/>
-        <v>7870</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="61">
         <f t="shared" si="6"/>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="M20" s="65">
         <f t="shared" si="9"/>
-        <v>10990</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>6500</v>
       </c>
       <c r="C21" s="57">
-        <v>2670</v>
+        <v>1500</v>
       </c>
       <c r="D21" s="54">
         <f t="shared" si="0"/>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="I21" s="53">
         <f t="shared" si="5"/>
-        <v>7870</v>
+        <v>6700</v>
       </c>
       <c r="J21" s="61">
         <f t="shared" si="6"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="M21" s="65">
         <f t="shared" si="9"/>
-        <v>10990</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3622,7 +3622,7 @@
         <v>6500</v>
       </c>
       <c r="C22" s="57">
-        <v>2670</v>
+        <v>1500</v>
       </c>
       <c r="D22" s="54">
         <f t="shared" si="0"/>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="I22" s="53">
         <f t="shared" si="5"/>
-        <v>7870</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="61">
         <f t="shared" si="6"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="M22" s="65">
         <f t="shared" si="9"/>
-        <v>10990</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>6500</v>
       </c>
       <c r="C23" s="57">
-        <v>2670</v>
+        <v>1500</v>
       </c>
       <c r="D23" s="54">
         <f t="shared" si="0"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="I23" s="53">
         <f t="shared" si="5"/>
-        <v>7870</v>
+        <v>6700</v>
       </c>
       <c r="J23" s="61">
         <f t="shared" si="6"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="M23" s="65">
         <f t="shared" si="9"/>
-        <v>10990</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="I24" s="14">
         <f>SUM(I18:I23)</f>
-        <v>59617.5</v>
+        <v>51540</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="M24" s="72">
         <f>SUM(M18:M23)</f>
-        <v>84061.5</v>
+        <v>75984</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3748,14 +3748,14 @@
       </c>
       <c r="I25" s="17">
         <f>SUM(I24,I16,I13,I8,I5)</f>
-        <v>182709</v>
+        <v>166304</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="M25" s="73">
         <f>SUM(M24,M16,M13,M8,M5)</f>
-        <v>273549</v>
+        <v>255128</v>
       </c>
       <c r="N25" s="31"/>
     </row>
@@ -4117,7 +4117,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="D5" s="48">
         <f>[2]Ingresos!$F$5*3.5%</f>
-        <v>197920.80000000002</v>
+        <v>196801.92000000001</v>
       </c>
       <c r="E5" s="48">
         <f>[2]Ingresos!$F$6*3.5%</f>
-        <v>215713.68000000002</v>
+        <v>214423.86000000002</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -4254,11 +4254,11 @@
       </c>
       <c r="D7" s="48">
         <f>(((([2]Ingresos!$H$5-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$5-10000)*6/1000)+200)*6</f>
-        <v>48557.760000000002</v>
+        <v>48294.024000000005</v>
       </c>
       <c r="E7" s="48">
         <f>(((([2]Ingresos!$H$6-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$6-10000)*6/1000)+200)*6</f>
-        <v>52751.796000000002</v>
+        <v>52447.767</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -4354,15 +4354,15 @@
       </c>
       <c r="D11" s="52">
         <f>SUM(D3:D10)</f>
-        <v>488287.72800000006</v>
+        <v>486905.11200000002</v>
       </c>
       <c r="E11" s="52">
         <f>SUM(E3:E10)</f>
-        <v>605676.4776000001</v>
+        <v>604082.62860000005</v>
       </c>
       <c r="F11" s="50">
         <f>SUM(B11:E11)</f>
-        <v>1605401.1876000003</v>
+        <v>1602424.7226</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
   <si>
     <t>Hosting</t>
   </si>
@@ -72,9 +71,6 @@
     <t>Fiesta de celebración</t>
   </si>
   <si>
-    <t xml:space="preserve">Nueva publicidad </t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -201,9 +197,6 @@
     <t>EcoGift</t>
   </si>
   <si>
-    <t>Motos (Compra)</t>
-  </si>
-  <si>
     <t>Asesoría Contable</t>
   </si>
   <si>
@@ -390,9 +383,6 @@
     <t>Amort. Azumulada</t>
   </si>
   <si>
-    <t>Valor Residual</t>
-  </si>
-  <si>
     <t>*incluye leyes sociales, ART.</t>
   </si>
   <si>
@@ -424,6 +414,24 @@
   </si>
   <si>
     <t>Salario(Entrepeneur, Admin,Lider Logistica)*</t>
+  </si>
+  <si>
+    <t>Valor Residual 2016</t>
+  </si>
+  <si>
+    <t>Valor Residual 2017</t>
+  </si>
+  <si>
+    <t>Total 2016</t>
+  </si>
+  <si>
+    <t>Total 2017</t>
+  </si>
+  <si>
+    <t>VOLUMEN X CAnTIDAD</t>
+  </si>
+  <si>
+    <t>Maratón</t>
   </si>
 </sst>
 </file>
@@ -850,10 +858,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="01-Tipo Ingreso"/>
-      <sheetName val="02-Volumenes Ingresos"/>
-      <sheetName val="03-Ingresos"/>
-      <sheetName val="04-Gastos"/>
+      <sheetName val="Tipo Ingreso"/>
+      <sheetName val="Volumenes Ingresos"/>
+      <sheetName val="Ingresos"/>
       <sheetName val="Ganancias"/>
       <sheetName val="Indicadores Financieros"/>
     </sheetNames>
@@ -861,96 +868,99 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="B3">
-            <v>10500</v>
+            <v>16000</v>
           </cell>
           <cell r="C3">
-            <v>12810</v>
+            <v>19520</v>
           </cell>
           <cell r="D3">
-            <v>15120</v>
+            <v>23040</v>
           </cell>
           <cell r="E3">
-            <v>17430</v>
+            <v>26560</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>15000</v>
+            <v>19700</v>
           </cell>
           <cell r="C4">
-            <v>18300</v>
+            <v>24034</v>
           </cell>
           <cell r="D4">
-            <v>21600</v>
+            <v>28368</v>
           </cell>
           <cell r="E4">
-            <v>24900</v>
+            <v>32702</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>1700</v>
+            <v>2000</v>
           </cell>
           <cell r="C6">
-            <v>2074</v>
+            <v>2440</v>
           </cell>
           <cell r="D6">
-            <v>2448</v>
+            <v>2880</v>
           </cell>
           <cell r="E6">
-            <v>2822</v>
+            <v>3320</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>6500</v>
+            <v>7500</v>
           </cell>
           <cell r="C7">
-            <v>7930</v>
+            <v>9150</v>
           </cell>
           <cell r="D7">
-            <v>9360</v>
+            <v>10800</v>
           </cell>
           <cell r="E7">
-            <v>10790</v>
+            <v>12450</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>500</v>
+            <v>1000</v>
           </cell>
           <cell r="C8">
-            <v>610</v>
+            <v>1220</v>
           </cell>
           <cell r="D8">
-            <v>720</v>
+            <v>1440</v>
           </cell>
           <cell r="E8">
-            <v>830</v>
+            <v>1660</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>1400</v>
+            <v>3300</v>
           </cell>
           <cell r="C9">
-            <v>1708</v>
+            <v>4026</v>
           </cell>
           <cell r="D9">
-            <v>2016</v>
+            <v>4752</v>
           </cell>
           <cell r="E9">
-            <v>2324</v>
+            <v>5478</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="B4">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="C4">
-            <v>2</v>
+            <v>4</v>
+          </cell>
+          <cell r="D4">
+            <v>1560</v>
           </cell>
           <cell r="E4">
             <v>4</v>
@@ -959,33 +969,39 @@
             <v>4</v>
           </cell>
           <cell r="G4">
-            <v>5</v>
-          </cell>
-          <cell r="H4">
             <v>5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="C5">
-            <v>5</v>
+            <v>6</v>
+          </cell>
+          <cell r="D5">
+            <v>3000</v>
           </cell>
           <cell r="E5">
             <v>5</v>
           </cell>
-          <cell r="H5">
+          <cell r="F5">
             <v>7</v>
+          </cell>
+          <cell r="G5">
+            <v>5</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>13</v>
+            <v>23</v>
           </cell>
           <cell r="C6">
             <v>7</v>
           </cell>
+          <cell r="D6">
+            <v>4000</v>
+          </cell>
           <cell r="E6">
             <v>6</v>
           </cell>
@@ -994,9 +1010,6 @@
           </cell>
           <cell r="G6">
             <v>5</v>
-          </cell>
-          <cell r="H6">
-            <v>8</v>
           </cell>
         </row>
         <row r="7">
@@ -1006,6 +1019,9 @@
           <cell r="C7">
             <v>9</v>
           </cell>
+          <cell r="D7">
+            <v>2100</v>
+          </cell>
           <cell r="E7">
             <v>5</v>
           </cell>
@@ -1015,33 +1031,8 @@
           <cell r="G7">
             <v>6</v>
           </cell>
-          <cell r="H7">
-            <v>9</v>
-          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tipo Ingreso"/>
-      <sheetName val="Volumenes Ingresos"/>
-      <sheetName val="Ingresos"/>
-      <sheetName val="Ganancias"/>
-      <sheetName val="Indicadores Financieros"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="F3">
@@ -1076,8 +1067,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1370,11 +1361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,25 +1379,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1458,7 +1449,7 @@
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="35">
         <f>SUM(Remuneraciones!M13,Remuneraciones!M16)*6</f>
@@ -1479,7 +1470,7 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="35">
         <f>SUM(Remuneraciones!M24-Remuneraciones!M18)*6</f>
@@ -1521,7 +1512,7 @@
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="35">
         <f>(900*5*6)</f>
@@ -1602,311 +1593,332 @@
         <v>3549.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="28">
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="35">
+        <f>(SUM(B4:B5)/6)/2</f>
+        <v>69642</v>
+      </c>
+      <c r="C11" s="35">
+        <f>(SUM(C4:C5)/6)/2</f>
+        <v>83570.400000000009</v>
+      </c>
+      <c r="D11" s="36">
+        <f>(SUM(D4:D5)/6)/2</f>
+        <v>133832.80000000002</v>
+      </c>
+      <c r="E11" s="36">
+        <f>(SUM(E4:E5)/6)/2</f>
+        <v>156992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="28">
         <f>SUM(B3:B10)</f>
         <v>884602.5</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C12" s="28">
         <f>SUM(C3:C10)</f>
         <v>1061522.9999999998</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D12" s="28">
         <f>SUM(D3:D10)</f>
         <v>1724851.5</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E12" s="28">
         <f>SUM(E3:E10)</f>
         <v>2017941.6000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="35">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="35">
         <f>SUM(Remuneraciones!M5,Remuneraciones!M8,Remuneraciones!M18)*6</f>
         <v>695064</v>
       </c>
-      <c r="C13" s="35">
-        <f>B13+$B$13*$G$2</f>
+      <c r="C14" s="35">
+        <f>B14</f>
+        <v>695064</v>
+      </c>
+      <c r="D14" s="36">
+        <f t="shared" ref="D14:E14" si="3">C14+$B$14*$G$2</f>
         <v>834076.8</v>
       </c>
-      <c r="D13" s="36">
-        <f t="shared" ref="D13:E13" si="3">C13+$B$13*$G$2</f>
+      <c r="E14" s="36">
+        <f t="shared" si="3"/>
         <v>973089.60000000009</v>
       </c>
-      <c r="E13" s="36">
-        <f t="shared" si="3"/>
-        <v>1112102.4000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="35">
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="35">
         <f>6200*6</f>
         <v>37200</v>
       </c>
-      <c r="C14" s="35">
-        <f>B14+$B$14*$G$2</f>
+      <c r="C15" s="35">
+        <f>B15+$B$15*$G$2</f>
         <v>44640</v>
       </c>
-      <c r="D14" s="36">
-        <f>C14+$B$14*$G$2</f>
+      <c r="D15" s="36">
+        <f>C15+$B$15*$G$2</f>
         <v>52080</v>
       </c>
-      <c r="E14" s="36">
-        <f>D14+$B$14*$G$2</f>
+      <c r="E15" s="36">
+        <f>D15+$B$15*$G$2</f>
         <v>59520</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="35">
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="35">
         <f>Impuestos!B11</f>
         <v>209135.07</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C16" s="35">
         <f>Impuestos!C11</f>
         <v>302301.91200000001</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D16" s="36">
         <f>Impuestos!D11</f>
-        <v>486905.11200000002</v>
-      </c>
-      <c r="E15" s="36">
+        <v>503705.11200000002</v>
+      </c>
+      <c r="E16" s="36">
         <f>Impuestos!E11</f>
-        <v>604082.62860000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="35">
+        <v>652802.62860000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="35">
         <f>59.9*6</f>
         <v>359.4</v>
       </c>
-      <c r="C16" s="35">
-        <f>B16+$B$16*G2</f>
+      <c r="C17" s="35">
+        <f>B17+$B$17*G2</f>
         <v>431.28</v>
       </c>
-      <c r="D16" s="36">
-        <f>C16+$B$16*H2</f>
+      <c r="D17" s="36">
+        <f>C17+$B$17*H2</f>
         <v>431.28</v>
       </c>
-      <c r="E16" s="36">
-        <f>D16+$B$16*I2</f>
+      <c r="E17" s="36">
+        <f>D17+$B$17*I2</f>
         <v>431.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="35">
-        <f>'Amortizaciones '!D12/2</f>
-        <v>35868.800000000003</v>
-      </c>
-      <c r="C17" s="35">
-        <f>'Amortizaciones '!D12/2</f>
-        <v>35868.800000000003</v>
-      </c>
-      <c r="D17" s="36">
-        <f>'Amortizaciones '!E12/2</f>
-        <v>35868.800000000003</v>
-      </c>
-      <c r="E17" s="36">
-        <f>'Amortizaciones '!F12/2</f>
-        <v>71737.600000000006</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B18" s="35">
-        <v>11000</v>
+        <f>'Amortizaciones '!D12/2</f>
+        <v>23988.799999999999</v>
       </c>
       <c r="C18" s="35">
-        <f>B18+$B$18*$G$2</f>
-        <v>13200</v>
+        <f>'Amortizaciones '!D12/2</f>
+        <v>23988.799999999999</v>
       </c>
       <c r="D18" s="36">
-        <f>C18+$B$18*$G$2</f>
-        <v>15400</v>
+        <f>'Amortizaciones '!G12/2</f>
+        <v>35868.800000000003</v>
       </c>
       <c r="E18" s="36">
-        <f>D18+$B$18*$G$2</f>
-        <v>17600</v>
+        <f>'Amortizaciones '!G12/2</f>
+        <v>35868.800000000003</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B19" s="35">
-        <f>(Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)/2</f>
-        <v>99782.399999999994</v>
+        <v>11000</v>
       </c>
       <c r="C19" s="35">
-        <f>(Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)/2</f>
-        <v>99782.399999999994</v>
+        <f>B19+$B$19*$G$2</f>
+        <v>13200</v>
       </c>
       <c r="D19" s="36">
-        <f>((Remuneraciones!I25+Remuneraciones!I25*'Costos Fijos'!G2)+(Remuneraciones!I24-Remuneraciones!I18)+(Remuneraciones!I24-Remuneraciones!I18)*G2)/2</f>
-        <v>119882.4</v>
+        <f>C19+$B$19*$G$2</f>
+        <v>15400</v>
       </c>
       <c r="E19" s="36">
-        <f>D19</f>
-        <v>119882.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="28">
-        <f>SUM(B13:B19)</f>
-        <v>1088409.6700000002</v>
-      </c>
-      <c r="C20" s="28">
-        <f>SUM(C13:C19)</f>
-        <v>1330301.192</v>
-      </c>
-      <c r="D20" s="28">
-        <f>SUM(D13:D19)</f>
-        <v>1683657.192</v>
-      </c>
-      <c r="E20" s="28">
-        <f>SUM(E13:E19)</f>
-        <v>1985356.3086000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+        <f>D19+$B$19*$G$2</f>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="35">
+        <f>(SUM(B14)/6)/2</f>
+        <v>57922</v>
+      </c>
+      <c r="C20" s="35">
+        <f>C14/6/2</f>
+        <v>57922</v>
+      </c>
+      <c r="D20" s="36">
+        <f t="shared" ref="D20:E20" si="4">D14/6/2</f>
+        <v>69506.400000000009</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" si="4"/>
+        <v>81090.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="28">
+        <f>SUM(B14:B20)</f>
+        <v>1034669.2700000001</v>
+      </c>
+      <c r="C21" s="28">
+        <f>SUM(C14:C20)</f>
+        <v>1137547.9920000001</v>
+      </c>
+      <c r="D21" s="28">
+        <f>SUM(D14:D20)</f>
+        <v>1511068.392</v>
+      </c>
+      <c r="E21" s="28">
+        <f>SUM(E14:E20)</f>
+        <v>1820403.1086000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="35">
-        <v>12000</v>
-      </c>
-      <c r="C22" s="35">
-        <f>B22+$B$22*$G$2</f>
-        <v>14400</v>
-      </c>
-      <c r="D22" s="36">
-        <f>C22+$B$22*$G$2</f>
-        <v>16800</v>
-      </c>
-      <c r="E22" s="36">
-        <f>D22+$B$22*$G$2</f>
-        <v>19200</v>
-      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="35">
+        <v>12000</v>
+      </c>
+      <c r="C23" s="35">
+        <f>B23+$B$23*$G$2</f>
+        <v>14400</v>
+      </c>
+      <c r="D23" s="36">
+        <f>C23+$B$23*$G$2</f>
+        <v>16800</v>
+      </c>
+      <c r="E23" s="36">
+        <f>D23+$B$23*$G$2</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="35">
         <f>3000*6</f>
         <v>18000</v>
       </c>
-      <c r="C23" s="35">
-        <f>B23+$B$23*$G$2</f>
+      <c r="C24" s="35">
+        <f>B24+$B$24*$G$2</f>
         <v>21600</v>
       </c>
-      <c r="D23" s="36">
-        <f>C23+$B$23*$G$2</f>
+      <c r="D24" s="36">
+        <f>C24+$B$24*$G$2</f>
         <v>25200</v>
       </c>
-      <c r="E23" s="36">
-        <f>D23+$B$23*$G$2</f>
+      <c r="E24" s="36">
+        <f>D24+$B$24*$G$2</f>
         <v>28800</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="28">
-        <f>SUM(B22:B23)</f>
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="28">
+        <f>SUM(B23:B24)</f>
         <v>30000</v>
       </c>
-      <c r="C24" s="28">
-        <f>SUM(C22:C23)</f>
+      <c r="C25" s="28">
+        <f>SUM(C23:C24)</f>
         <v>36000</v>
       </c>
-      <c r="D24" s="28">
-        <f>SUM(D22:D23)</f>
+      <c r="D25" s="28">
+        <f>SUM(D23:D24)</f>
         <v>42000</v>
       </c>
-      <c r="E24" s="28">
-        <f>SUM(E22:E23)</f>
+      <c r="E25" s="28">
+        <f>SUM(E23:E24)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="30">
-        <f>SUM(B24,B20,B11)</f>
-        <v>2003012.1700000002</v>
-      </c>
-      <c r="C25" s="30">
-        <f>SUM(C24,C20,C11)</f>
-        <v>2427824.1919999998</v>
-      </c>
-      <c r="D25" s="30">
-        <f>SUM(D24,D20,D11)</f>
-        <v>3450508.6919999998</v>
-      </c>
-      <c r="E25" s="30">
-        <f>SUM(E24,E20,E11)</f>
-        <v>4051297.9086000007</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26">
-        <f>SUM(B25:F25)</f>
-        <v>11932642.9626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+    <row r="26" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="30">
+        <f>SUM(B25,B21,B12)</f>
+        <v>1949271.77</v>
+      </c>
+      <c r="C26" s="30">
+        <f>SUM(C25,C21,C12)</f>
+        <v>2235070.9919999996</v>
+      </c>
+      <c r="D26" s="30">
+        <f>SUM(D25,D21,D12)</f>
+        <v>3277919.892</v>
+      </c>
+      <c r="E26" s="30">
+        <f>SUM(E25,E21,E12)</f>
+        <v>3886344.7086000005</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26">
+        <f>SUM(B26:F26)</f>
+        <v>11348607.362599999</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
-        <v>121</v>
-      </c>
+      <c r="B28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
+      <c r="A29" s="83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1916,17 +1928,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
@@ -1938,31 +1950,31 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -2012,291 +2024,275 @@
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+        <v>52</v>
+      </c>
+      <c r="B4" s="40">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="40">
+        <v>4000</v>
+      </c>
       <c r="D4" s="41">
-        <f>99500+99500*40%</f>
-        <v>139300</v>
-      </c>
-      <c r="E4" s="41"/>
+        <f>B4+$B$4*$G$2</f>
+        <v>2400</v>
+      </c>
+      <c r="E4" s="41">
+        <f>C4+$B$4*$G$2</f>
+        <v>4400</v>
+      </c>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B5" s="40">
-        <v>2000</v>
+        <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B11)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6</f>
+        <v>73664.639999999999</v>
       </c>
       <c r="C5" s="40">
-        <v>4000</v>
+        <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B12)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+B5*G2</f>
+        <v>96582.528000000006</v>
       </c>
       <c r="D5" s="41">
-        <f>B5+$B$5*$G$2</f>
-        <v>2400</v>
+        <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B13)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+C5*G2</f>
+        <v>167055.0336</v>
       </c>
       <c r="E5" s="41">
-        <f>C5+$B$5*$G$2</f>
-        <v>4400</v>
+        <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B14)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+D5*G2</f>
+        <v>188925.24672</v>
       </c>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="40">
-        <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B11)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6</f>
-        <v>73664.639999999999</v>
+        <f>C6+C6*'Estimacion de pedidos'!B11</f>
+        <v>540</v>
       </c>
       <c r="C6" s="40">
-        <f>('Estimacion de pedidos'!B4+'Estimacion de pedidos'!B4*'Estimacion de pedidos'!B12)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+B6*G2</f>
-        <v>96582.528000000006</v>
-      </c>
-      <c r="D6" s="41">
-        <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B13)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+C6*G2</f>
-        <v>167055.0336</v>
-      </c>
-      <c r="E6" s="41">
-        <f>('Estimacion de pedidos'!B5+'Estimacion de pedidos'!B5*'Estimacion de pedidos'!B14)*'Estimacion de pedidos'!B3*'Estimacion de pedidos'!B2*'Estimacion de pedidos'!B6+D6*G2</f>
-        <v>188925.24672</v>
-      </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="40">
-        <f>C7+C7*'Estimacion de pedidos'!B11</f>
-        <v>540</v>
-      </c>
-      <c r="C7" s="40">
         <f>500+500*G2</f>
         <v>600</v>
       </c>
-      <c r="D7" s="41">
-        <f>(C7+C7*'Estimacion de pedidos'!B13)+C7*G2</f>
+      <c r="D6" s="41">
+        <f>(C6+C6*'Estimacion de pedidos'!B13)+C6*G2</f>
         <v>690</v>
       </c>
-      <c r="E7" s="41">
-        <f>(D7+D7*'Estimacion de pedidos'!B14)+D7*G2</f>
+      <c r="E6" s="41">
+        <f>(D6+D6*'Estimacion de pedidos'!B14)+D6*G2</f>
         <v>828</v>
       </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="85">
+        <f>SUM(B3:B6)</f>
+        <v>76204.639999999999</v>
+      </c>
+      <c r="C7" s="85">
+        <f>SUM(C3:C6)</f>
+        <v>105958.52800000001</v>
+      </c>
+      <c r="D7" s="85">
+        <f>SUM(D3:D6)</f>
+        <v>170145.0336</v>
+      </c>
+      <c r="E7" s="85">
+        <f>SUM(E3:E6)</f>
+        <v>200521.24672</v>
+      </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="85">
-        <f>SUM(B3:B7)</f>
-        <v>76204.639999999999</v>
-      </c>
-      <c r="C8" s="85">
-        <f>SUM(C3:C7)</f>
-        <v>105958.52800000001</v>
-      </c>
-      <c r="D8" s="85">
-        <f>SUM(D3:D7)</f>
-        <v>309445.03359999997</v>
-      </c>
-      <c r="E8" s="85">
-        <f>SUM(E3:E7)</f>
-        <v>200521.24672</v>
-      </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="19"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="41">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="40"/>
+        <v>67</v>
+      </c>
+      <c r="B10" s="40">
+        <f>'Costos legales'!H4</f>
+        <v>102759</v>
+      </c>
       <c r="C10" s="40">
-        <v>30000</v>
+        <f>'Costos legales'!H6</f>
+        <v>231429.12</v>
       </c>
       <c r="D10" s="41">
-        <v>45000</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="18"/>
+        <f>'Costos legales'!H8</f>
+        <v>370327.68</v>
+      </c>
+      <c r="E10" s="41">
+        <f>'Costos legales'!H10</f>
+        <v>237725.28</v>
+      </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B11" s="40">
-        <f>'Costos legales'!H4</f>
-        <v>6264</v>
+        <v>36700</v>
       </c>
       <c r="C11" s="40">
-        <f>'Costos legales'!H6</f>
-        <v>8300.880000000001</v>
+        <v>20800</v>
       </c>
       <c r="D11" s="41">
-        <f>'Costos legales'!H8</f>
-        <v>12869.279999999999</v>
+        <v>42800</v>
       </c>
       <c r="E11" s="41">
-        <f>'Costos legales'!H10</f>
-        <v>19875.18</v>
-      </c>
+        <v>57000</v>
+      </c>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="40">
-        <v>36700</v>
-      </c>
-      <c r="C12" s="40">
-        <v>20800</v>
-      </c>
-      <c r="D12" s="41">
-        <v>42800</v>
-      </c>
-      <c r="E12" s="41">
-        <v>57000</v>
+      <c r="A12" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="85">
+        <f>SUM(B9:B11)</f>
+        <v>139459</v>
+      </c>
+      <c r="C12" s="85">
+        <f>SUM(C9:C11)</f>
+        <v>272229.12</v>
+      </c>
+      <c r="D12" s="85">
+        <f>SUM(D9:D11)</f>
+        <v>458127.68</v>
+      </c>
+      <c r="E12" s="85">
+        <f>SUM(E9:E11)</f>
+        <v>294725.28000000003</v>
       </c>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="85">
-        <f>SUM(B10:B12)</f>
-        <v>42964</v>
-      </c>
-      <c r="C13" s="85">
-        <f>SUM(C10:C12)</f>
-        <v>59100.880000000005</v>
-      </c>
-      <c r="D13" s="85">
-        <f>SUM(D10:D12)</f>
-        <v>100669.28</v>
-      </c>
-      <c r="E13" s="85">
-        <f>SUM(E10:E12)</f>
-        <v>76875.179999999993</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="19"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40">
+        <v>40000</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41">
+        <f>C14+15000+C14*G2*2</f>
+        <v>71000</v>
+      </c>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40">
-        <v>40000</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41">
-        <f>C15+15000+C15*G2*2</f>
-        <v>71000</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="B15" s="74">
+        <v>4650</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="11">
+        <f>B15+B15*('Costos Fijos'!G2*4)</f>
+        <v>8370</v>
+      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40">
-        <v>35000</v>
-      </c>
-      <c r="D16" s="41">
-        <v>43000</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="74">
+        <v>134</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="85">
+        <f>SUM(B14:B15)</f>
         <v>4650</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="11">
-        <f>B17+B17*('Costos Fijos'!G2*2)</f>
-        <v>6510</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="C17" s="85">
+        <f>SUM(C14:C15)</f>
+        <v>40000</v>
+      </c>
+      <c r="D17" s="85">
+        <f>SUM(D14:D15)</f>
+        <v>8370</v>
+      </c>
+      <c r="E17" s="85">
+        <f>SUM(E14:E16)</f>
+        <v>471000</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="85">
-        <f>SUM(B15:B17)</f>
-        <v>4650</v>
-      </c>
-      <c r="C18" s="85">
-        <f>SUM(C15:C17)</f>
-        <v>75000</v>
-      </c>
-      <c r="D18" s="85">
-        <f>SUM(D15:D17)</f>
-        <v>49510</v>
-      </c>
-      <c r="E18" s="85">
-        <f>SUM(E15:E17)</f>
-        <v>71000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="73">
-        <f>SUM(B8,B13,B18)</f>
-        <v>123818.64</v>
-      </c>
-      <c r="C19" s="73">
-        <f>SUM(C8,C13,C18)</f>
-        <v>240059.408</v>
-      </c>
-      <c r="D19" s="73">
-        <f t="shared" ref="D19:E19" si="0">SUM(D8,D13,D18)</f>
-        <v>459624.31359999999</v>
-      </c>
-      <c r="E19" s="73">
-        <f t="shared" si="0"/>
-        <v>348396.42671999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="73">
+        <f>SUM(B7,B12,B17)</f>
+        <v>220313.64</v>
+      </c>
+      <c r="C18" s="73">
+        <f>SUM(C7,C12,C17)</f>
+        <v>418187.64799999999</v>
+      </c>
+      <c r="D18" s="73">
+        <f>SUM(D7,D12,D17)</f>
+        <v>636642.71360000002</v>
+      </c>
+      <c r="E18" s="73">
+        <f>SUM(E7,E12,E17)</f>
+        <v>966246.52671999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,7 +2305,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,49 +2318,49 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="89">
-        <f>'Costos Fijos'!B25+'Costos Fijos'!C25</f>
-        <v>4430836.3619999997</v>
+        <f>'Costos Fijos'!B26+'Costos Fijos'!C26</f>
+        <v>4184342.7619999996</v>
       </c>
       <c r="C2" s="79">
-        <f>'Costos Fijos'!D25+'Costos Fijos'!E25</f>
-        <v>7501806.6006000005</v>
+        <f>'Costos Fijos'!D26+'Costos Fijos'!E26</f>
+        <v>7164264.6006000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="89">
-        <f>'Costos Variables'!B19+'Costos Variables'!C19</f>
-        <v>363878.04800000001</v>
+        <f>'Costos Variables'!B18+'Costos Variables'!C18</f>
+        <v>638501.28799999994</v>
       </c>
       <c r="C3" s="79">
-        <f>'Costos Variables'!D19+'Costos Variables'!E19</f>
-        <v>808020.74031999998</v>
+        <f>'Costos Variables'!D18+'Costos Variables'!E18</f>
+        <v>1602889.2403199999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="82">
         <f>SUM(B2:B3)</f>
-        <v>4794714.41</v>
+        <v>4822844.05</v>
       </c>
       <c r="C4" s="82">
         <f>SUM(C2:C3)</f>
-        <v>8309827.3409200003</v>
+        <v>8767153.8409200013</v>
       </c>
     </row>
   </sheetData>
@@ -2374,21 +2370,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="86">
         <v>0.03</v>
@@ -2402,268 +2402,268 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="H2" s="77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$B$4*'[1]01-Tipo Ingreso'!$B$3</f>
-        <v>136500</v>
+        <f>'[1]Volumenes Ingresos'!B4*'[1]Tipo Ingreso'!B3</f>
+        <v>176000</v>
       </c>
       <c r="C3" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$C$4*'[1]01-Tipo Ingreso'!$B$4</f>
+        <f>'[1]Volumenes Ingresos'!$C$4*'[1]Tipo Ingreso'!$B$4</f>
+        <v>78800</v>
+      </c>
+      <c r="D3" s="87">
+        <f>'[1]Tipo Ingreso'!$B$6*'[1]Volumenes Ingresos'!D4</f>
+        <v>3120000</v>
+      </c>
+      <c r="E3" s="87">
+        <f>'[1]Volumenes Ingresos'!E4*'[1]Tipo Ingreso'!B7</f>
         <v>30000</v>
       </c>
-      <c r="D3" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$E$4*'[1]01-Tipo Ingreso'!$B$6</f>
-        <v>6800</v>
-      </c>
-      <c r="E3" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$B$7</f>
-        <v>26000</v>
-      </c>
       <c r="F3" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$B$8</f>
-        <v>2500</v>
+        <f>'[1]Volumenes Ingresos'!F4*'[1]Tipo Ingreso'!B8</f>
+        <v>4000</v>
       </c>
       <c r="G3" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$H$4*'[1]01-Tipo Ingreso'!$B$9</f>
-        <v>7000</v>
+        <f>'[1]Volumenes Ingresos'!G4*'[1]Tipo Ingreso'!B9</f>
+        <v>16500</v>
       </c>
       <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="88">
         <f>B3*B1</f>
-        <v>4095</v>
+        <v>5280</v>
       </c>
       <c r="C4" s="88">
         <f>C3*B1</f>
-        <v>900</v>
+        <v>2364</v>
       </c>
       <c r="D4" s="88">
         <f>D3*B1</f>
-        <v>204</v>
+        <v>93600</v>
       </c>
       <c r="E4" s="88">
         <f>E3*B1</f>
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="F4" s="88">
         <f>F3*B1</f>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="G4" s="88">
         <f>G3*B1</f>
-        <v>210</v>
+        <v>495</v>
       </c>
       <c r="H4" s="88">
         <f>SUM(B4:G4)</f>
-        <v>6264</v>
+        <v>102759</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$B$5*'[1]01-Tipo Ingreso'!$C$3</f>
-        <v>128100</v>
+        <f>'[1]Volumenes Ingresos'!B5*'[1]Tipo Ingreso'!C3</f>
+        <v>175680</v>
       </c>
       <c r="C5" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$C$5*'[1]01-Tipo Ingreso'!$C$4</f>
-        <v>91500</v>
+        <f>'[1]Volumenes Ingresos'!C5*'[1]Tipo Ingreso'!C4</f>
+        <v>144204</v>
       </c>
       <c r="D5" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$E$5*'[1]01-Tipo Ingreso'!$C$6</f>
-        <v>10370</v>
+        <f>'[1]Volumenes Ingresos'!D5*'[1]Tipo Ingreso'!C6</f>
+        <v>7320000</v>
       </c>
       <c r="E5" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$F$4*'[1]01-Tipo Ingreso'!$C$7</f>
-        <v>31720</v>
+        <f>'[1]Volumenes Ingresos'!E5*'[1]Tipo Ingreso'!C7</f>
+        <v>45750</v>
       </c>
       <c r="F5" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$G$4*'[1]01-Tipo Ingreso'!$C$8</f>
-        <v>3050</v>
+        <f>'[1]Volumenes Ingresos'!F5*'[1]Tipo Ingreso'!C8</f>
+        <v>8540</v>
       </c>
       <c r="G5" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$H$5*'[1]01-Tipo Ingreso'!$C$9</f>
-        <v>11956</v>
+        <f>'[1]Volumenes Ingresos'!G5*'[1]Tipo Ingreso'!C9</f>
+        <v>20130</v>
       </c>
       <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="88">
         <f>B5*B1</f>
-        <v>3843</v>
+        <v>5270.4</v>
       </c>
       <c r="C6" s="88">
         <f>C5*B1</f>
-        <v>2745</v>
+        <v>4326.12</v>
       </c>
       <c r="D6" s="88">
         <f>D5*B1</f>
-        <v>311.09999999999997</v>
+        <v>219600</v>
       </c>
       <c r="E6" s="88">
         <f>E5*B1</f>
-        <v>951.59999999999991</v>
+        <v>1372.5</v>
       </c>
       <c r="F6" s="88">
         <f>F5*B1</f>
-        <v>91.5</v>
+        <v>256.2</v>
       </c>
       <c r="G6" s="88">
         <f>G5*B1</f>
-        <v>358.68</v>
+        <v>603.9</v>
       </c>
       <c r="H6" s="88">
         <f>SUM(B6:G6)</f>
-        <v>8300.880000000001</v>
+        <v>231429.12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$B$6*'[1]01-Tipo Ingreso'!$D$3</f>
-        <v>196560</v>
+        <f>'[1]Tipo Ingreso'!D3*'[1]Volumenes Ingresos'!B6</f>
+        <v>529920</v>
       </c>
       <c r="C7" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$C$6*'[1]01-Tipo Ingreso'!$D$4</f>
-        <v>151200</v>
+        <f>'[1]Tipo Ingreso'!D4*'[1]Volumenes Ingresos'!C6</f>
+        <v>198576</v>
       </c>
       <c r="D7" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$E$6*'[1]01-Tipo Ingreso'!$D$6</f>
-        <v>14688</v>
+        <f>'[1]Tipo Ingreso'!D6*'[1]Volumenes Ingresos'!D6</f>
+        <v>11520000</v>
       </c>
       <c r="E7" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$F$6*'[1]01-Tipo Ingreso'!$D$7</f>
-        <v>46800</v>
+        <f>'[1]Tipo Ingreso'!D7*'[1]Volumenes Ingresos'!E6</f>
+        <v>64800</v>
       </c>
       <c r="F7" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$G$6*'[1]01-Tipo Ingreso'!$D$8</f>
-        <v>3600</v>
+        <f>'[1]Tipo Ingreso'!D8*'[1]Volumenes Ingresos'!F6</f>
+        <v>7200</v>
       </c>
       <c r="G7" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$H$6*'[1]01-Tipo Ingreso'!$D$9</f>
-        <v>16128</v>
+        <f>'[1]Tipo Ingreso'!D9*'[1]Volumenes Ingresos'!G6</f>
+        <v>23760</v>
       </c>
       <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="88">
         <f>B7*B1</f>
-        <v>5896.8</v>
+        <v>15897.599999999999</v>
       </c>
       <c r="C8" s="88">
         <f>C7*B1</f>
-        <v>4536</v>
+        <v>5957.28</v>
       </c>
       <c r="D8" s="88">
         <f>D7*B1</f>
-        <v>440.64</v>
+        <v>345600</v>
       </c>
       <c r="E8" s="88">
         <f>E7*B1</f>
-        <v>1404</v>
+        <v>1944</v>
       </c>
       <c r="F8" s="88">
         <f>F7*B1</f>
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="G8" s="88">
         <f>G7*B1</f>
-        <v>483.84</v>
+        <v>712.8</v>
       </c>
       <c r="H8" s="88">
         <f>SUM(B8:G8)</f>
-        <v>12869.279999999999</v>
+        <v>370327.68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$B$7*'[1]01-Tipo Ingreso'!$E$3</f>
-        <v>366030</v>
+        <f>'[1]Tipo Ingreso'!E3*'[1]Volumenes Ingresos'!B7</f>
+        <v>557760</v>
       </c>
       <c r="C9" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$C$7*'[1]01-Tipo Ingreso'!$E$4</f>
-        <v>224100</v>
+        <f>'[1]Tipo Ingreso'!E4*'[1]Volumenes Ingresos'!C7</f>
+        <v>294318</v>
       </c>
       <c r="D9" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$E$7*'[1]01-Tipo Ingreso'!$E$6</f>
-        <v>14110</v>
+        <f>'[1]Tipo Ingreso'!E6*'[1]Volumenes Ingresos'!D7</f>
+        <v>6972000</v>
       </c>
       <c r="E9" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$F$7*'[1]01-Tipo Ingreso'!$E$7</f>
-        <v>32370</v>
+        <f>'[1]Tipo Ingreso'!E7*'[1]Volumenes Ingresos'!E7</f>
+        <v>62250</v>
       </c>
       <c r="F9" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$G$7*'[1]01-Tipo Ingreso'!$E$8</f>
+        <f>'[1]Tipo Ingreso'!E8*'[1]Volumenes Ingresos'!F7</f>
         <v>4980</v>
       </c>
       <c r="G9" s="87">
-        <f>'[1]02-Volumenes Ingresos'!$H$7*'[1]01-Tipo Ingreso'!$E$9</f>
-        <v>20916</v>
+        <f>'[1]Tipo Ingreso'!E9*'[1]Volumenes Ingresos'!G7</f>
+        <v>32868</v>
       </c>
       <c r="H9" s="77"/>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="88">
         <f>B9*B1</f>
-        <v>10980.9</v>
+        <v>16732.8</v>
       </c>
       <c r="C10" s="88">
         <f>C9*B1</f>
-        <v>6723</v>
+        <v>8829.5399999999991</v>
       </c>
       <c r="D10" s="88">
         <f>D9*B1</f>
-        <v>423.3</v>
+        <v>209160</v>
       </c>
       <c r="E10" s="88">
         <f>E9*B1</f>
-        <v>971.09999999999991</v>
+        <v>1867.5</v>
       </c>
       <c r="F10" s="88">
         <f>F9*B1</f>
@@ -2671,11 +2671,16 @@
       </c>
       <c r="G10" s="88">
         <f>G9*B1</f>
-        <v>627.48</v>
+        <v>986.04</v>
       </c>
       <c r="H10" s="88">
         <f>SUM(B10:G10)</f>
-        <v>19875.18</v>
+        <v>237725.28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2699,13 +2704,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="43">
         <v>7</v>
@@ -2713,7 +2718,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="43">
         <v>2.9000000000000001E-2</v>
@@ -2721,7 +2726,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="43">
         <v>25200</v>
@@ -2729,7 +2734,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="43">
         <f>B4+B4*90%</f>
@@ -2738,7 +2743,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="44">
         <v>16</v>
@@ -2746,21 +2751,21 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="90"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="45">
         <v>-0.1</v>
@@ -2768,7 +2773,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="45">
         <v>0</v>
@@ -2776,7 +2781,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="45">
         <v>-0.05</v>
@@ -2784,7 +2789,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="45">
         <v>0</v>
@@ -2803,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2826,48 +2831,48 @@
   <sheetData>
     <row r="1" spans="1:13 16384:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="67" t="s">
+      <c r="J1" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="K1" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="69" t="s">
+      <c r="L1" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="56"/>
@@ -2884,7 +2889,7 @@
     </row>
     <row r="3" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11">
         <v>30000</v>
@@ -2933,7 +2938,7 @@
     </row>
     <row r="4" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="11">
         <v>30000</v>
@@ -2988,7 +2993,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="14">
         <f>SUM(I3:I4)</f>
@@ -2997,7 +3002,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="14">
         <f>SUM(M3:M4)</f>
@@ -3006,7 +3011,7 @@
     </row>
     <row r="6" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="56"/>
@@ -3023,7 +3028,7 @@
     </row>
     <row r="7" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="11">
         <v>9500</v>
@@ -3072,7 +3077,7 @@
     </row>
     <row r="8" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3081,7 +3086,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="14">
         <f>SUM(I7:I7)</f>
@@ -3090,7 +3095,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="14">
         <f>SUM(M7:M7)</f>
@@ -3099,7 +3104,7 @@
     </row>
     <row r="9" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="56"/>
@@ -3116,7 +3121,7 @@
     </row>
     <row r="10" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11">
         <v>18425</v>
@@ -3167,7 +3172,7 @@
     </row>
     <row r="11" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11">
         <v>16300</v>
@@ -3218,7 +3223,7 @@
     </row>
     <row r="12" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11">
         <v>16300</v>
@@ -3273,7 +3278,7 @@
     </row>
     <row r="13" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="58"/>
@@ -3282,7 +3287,7 @@
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="58">
         <f>SUM(I10:I12)</f>
@@ -3291,7 +3296,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="14">
         <f>SUM(M10:M12)</f>
@@ -3300,7 +3305,7 @@
     </row>
     <row r="14" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="56"/>
@@ -3317,7 +3322,7 @@
     </row>
     <row r="15" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11">
         <v>13600</v>
@@ -3368,7 +3373,7 @@
     </row>
     <row r="16" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="58"/>
@@ -3377,7 +3382,7 @@
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
       <c r="H16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="58">
         <f>SUM(I15)</f>
@@ -3386,7 +3391,7 @@
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" s="14">
         <f>SUM(M15)</f>
@@ -3395,7 +3400,7 @@
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="56"/>
@@ -3412,7 +3417,7 @@
     </row>
     <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="11">
         <v>18425</v>
@@ -3463,7 +3468,7 @@
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11">
         <v>6500</v>
@@ -3514,7 +3519,7 @@
     </row>
     <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="11">
         <v>6500</v>
@@ -3565,7 +3570,7 @@
     </row>
     <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="11">
         <v>6500</v>
@@ -3616,7 +3621,7 @@
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="11">
         <v>6500</v>
@@ -3667,7 +3672,7 @@
     </row>
     <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="11">
         <v>6500</v>
@@ -3725,7 +3730,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="14">
         <f>SUM(I18:I23)</f>
@@ -3734,7 +3739,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24" s="72">
         <f>SUM(M18:M23)</f>
@@ -3744,14 +3749,14 @@
     <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="55"/>
       <c r="H25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="17">
         <f>SUM(I24,I16,I13,I8,I5)</f>
         <v>166304</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25" s="73">
         <f>SUM(M24,M16,M13,M8,M5)</f>
@@ -3761,7 +3766,7 @@
     </row>
     <row r="27" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="92"/>
       <c r="C27" s="92"/>
@@ -3779,10 +3784,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,38 +3795,45 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="78">
         <v>99000</v>
@@ -3833,22 +3845,30 @@
         <f>B2/C2</f>
         <v>19800</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="80">
         <f>D2</f>
         <v>19800</v>
       </c>
-      <c r="F2" s="80">
-        <f>SUM(D2:E2)</f>
+      <c r="F2" s="81">
+        <f>B2-E2</f>
+        <v>79200</v>
+      </c>
+      <c r="G2" s="79">
+        <f>D2</f>
+        <v>19800</v>
+      </c>
+      <c r="H2" s="80">
+        <f>D2+G2</f>
         <v>39600</v>
       </c>
-      <c r="G2" s="81">
-        <f>B2-F2</f>
+      <c r="I2" s="81">
+        <f>B2-H2</f>
         <v>59400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="78">
         <f>B2+B2*20%</f>
@@ -3857,26 +3877,25 @@
       <c r="C3" s="77">
         <v>5</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="79">
         <f>B3/C3</f>
         <v>23760</v>
       </c>
-      <c r="E3" s="79">
-        <f>D3</f>
+      <c r="H3" s="80">
+        <f t="shared" ref="H3:H11" si="0">D3+G3</f>
         <v>23760</v>
       </c>
-      <c r="F3" s="80">
-        <f>SUM(D3:E3)</f>
-        <v>47520</v>
-      </c>
-      <c r="G3" s="81">
-        <f>B3-F3</f>
-        <v>71280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="81">
+        <f>B3-H3</f>
+        <v>95040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="78">
         <v>50400</v>
@@ -3885,25 +3904,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="79">
-        <f t="shared" ref="D4:D11" si="0">B4/C4</f>
+        <f t="shared" ref="D4:D11" si="1">B4/C4</f>
         <v>10080</v>
       </c>
-      <c r="E4" s="79">
-        <f t="shared" ref="E4:E12" si="1">D4</f>
+      <c r="E4" s="80">
+        <f t="shared" ref="E4:E11" si="2">D4</f>
         <v>10080</v>
       </c>
-      <c r="F4" s="80">
-        <f t="shared" ref="F4:F12" si="2">SUM(D4:E4)</f>
+      <c r="F4" s="81">
+        <f t="shared" ref="F4:F11" si="3">B4-E4</f>
+        <v>40320</v>
+      </c>
+      <c r="G4" s="79">
+        <f t="shared" ref="G4:G12" si="4">D4</f>
+        <v>10080</v>
+      </c>
+      <c r="H4" s="80">
+        <f t="shared" si="0"/>
         <v>20160</v>
       </c>
-      <c r="G4" s="81">
-        <f t="shared" ref="G4:G11" si="3">B4-F4</f>
+      <c r="I4" s="81">
+        <f t="shared" ref="I4:I11" si="5">B4-H4</f>
         <v>30240</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="78">
         <v>21600</v>
@@ -3912,25 +3939,33 @@
         <v>5</v>
       </c>
       <c r="D5" s="79">
-        <f t="shared" si="0"/>
-        <v>4320</v>
-      </c>
-      <c r="E5" s="79">
         <f t="shared" si="1"/>
         <v>4320</v>
       </c>
-      <c r="F5" s="80">
+      <c r="E5" s="80">
         <f t="shared" si="2"/>
+        <v>4320</v>
+      </c>
+      <c r="F5" s="81">
+        <f t="shared" si="3"/>
+        <v>17280</v>
+      </c>
+      <c r="G5" s="79">
+        <f t="shared" si="4"/>
+        <v>4320</v>
+      </c>
+      <c r="H5" s="80">
+        <f t="shared" si="0"/>
         <v>8640</v>
       </c>
-      <c r="G5" s="81">
-        <f t="shared" si="3"/>
+      <c r="I5" s="81">
+        <f t="shared" si="5"/>
         <v>12960</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="78">
         <v>4600</v>
@@ -3939,25 +3974,33 @@
         <v>5</v>
       </c>
       <c r="D6" s="79">
-        <f t="shared" si="0"/>
-        <v>920</v>
-      </c>
-      <c r="E6" s="79">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
-      <c r="F6" s="80">
+      <c r="E6" s="80">
         <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="F6" s="81">
+        <f t="shared" si="3"/>
+        <v>3680</v>
+      </c>
+      <c r="G6" s="79">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="H6" s="80">
+        <f t="shared" si="0"/>
         <v>1840</v>
       </c>
-      <c r="G6" s="81">
-        <f t="shared" si="3"/>
+      <c r="I6" s="81">
+        <f t="shared" si="5"/>
         <v>2760</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="78">
         <v>738</v>
@@ -3966,25 +4009,33 @@
         <v>5</v>
       </c>
       <c r="D7" s="79">
-        <f t="shared" si="0"/>
-        <v>147.6</v>
-      </c>
-      <c r="E7" s="79">
         <f t="shared" si="1"/>
         <v>147.6</v>
       </c>
-      <c r="F7" s="80">
+      <c r="E7" s="80">
         <f t="shared" si="2"/>
+        <v>147.6</v>
+      </c>
+      <c r="F7" s="81">
+        <f t="shared" si="3"/>
+        <v>590.4</v>
+      </c>
+      <c r="G7" s="79">
+        <f t="shared" si="4"/>
+        <v>147.6</v>
+      </c>
+      <c r="H7" s="80">
+        <f t="shared" si="0"/>
         <v>295.2</v>
       </c>
-      <c r="G7" s="81">
-        <f t="shared" si="3"/>
+      <c r="I7" s="81">
+        <f t="shared" si="5"/>
         <v>442.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="78">
         <v>100300</v>
@@ -3993,25 +4044,33 @@
         <v>10</v>
       </c>
       <c r="D8" s="79">
-        <f t="shared" si="0"/>
-        <v>10030</v>
-      </c>
-      <c r="E8" s="79">
         <f t="shared" si="1"/>
         <v>10030</v>
       </c>
-      <c r="F8" s="80">
+      <c r="E8" s="80">
         <f t="shared" si="2"/>
+        <v>10030</v>
+      </c>
+      <c r="F8" s="81">
+        <f t="shared" si="3"/>
+        <v>90270</v>
+      </c>
+      <c r="G8" s="79">
+        <f t="shared" si="4"/>
+        <v>10030</v>
+      </c>
+      <c r="H8" s="80">
+        <f t="shared" si="0"/>
         <v>20060</v>
       </c>
-      <c r="G8" s="81">
-        <f t="shared" si="3"/>
+      <c r="I8" s="81">
+        <f t="shared" si="5"/>
         <v>80240</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="78">
         <v>10000</v>
@@ -4020,25 +4079,33 @@
         <v>5</v>
       </c>
       <c r="D9" s="79">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="E9" s="79">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="F9" s="80">
+      <c r="E9" s="80">
         <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="F9" s="81">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="G9" s="79">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="H9" s="80">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G9" s="81">
-        <f t="shared" si="3"/>
+      <c r="I9" s="81">
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="78">
         <v>750</v>
@@ -4047,25 +4114,33 @@
         <v>5</v>
       </c>
       <c r="D10" s="79">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E10" s="79">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F10" s="80">
+      <c r="E10" s="80">
         <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F10" s="81">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G10" s="79">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="H10" s="80">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G10" s="81">
-        <f t="shared" si="3"/>
+      <c r="I10" s="81">
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="78">
         <v>5300</v>
@@ -4074,37 +4149,73 @@
         <v>10</v>
       </c>
       <c r="D11" s="79">
-        <f t="shared" si="0"/>
-        <v>530</v>
-      </c>
-      <c r="E11" s="79">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="F11" s="80">
+      <c r="E11" s="80">
         <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="F11" s="81">
+        <f t="shared" si="3"/>
+        <v>4770</v>
+      </c>
+      <c r="G11" s="79">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="H11" s="80">
+        <f t="shared" si="0"/>
         <v>1060</v>
       </c>
-      <c r="G11" s="81">
-        <f t="shared" si="3"/>
+      <c r="I11" s="81">
+        <f t="shared" si="5"/>
         <v>4240</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="82">
+        <f>SUM(B2,B4:B11)</f>
+        <v>292688</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="82">
         <f>SUM(D2:D11)</f>
+        <v>47977.599999999999</v>
+      </c>
+      <c r="E12" s="82">
+        <f>SUM(E2:E11)</f>
+        <v>47977.599999999999</v>
+      </c>
+      <c r="F12" s="82">
+        <f>SUM(F2:F11)</f>
+        <v>244710.39999999999</v>
+      </c>
+      <c r="G12" s="82">
+        <f>SUM(G2:G11)</f>
         <v>71737.600000000006</v>
       </c>
-      <c r="E12" s="82">
-        <f t="shared" si="1"/>
-        <v>71737.600000000006</v>
-      </c>
-      <c r="F12" s="82">
-        <f t="shared" si="2"/>
-        <v>143475.20000000001</v>
+      <c r="H12" s="82">
+        <f>SUM(D12:G12)</f>
+        <v>412403.19999999995</v>
+      </c>
+      <c r="I12" s="82">
+        <f>SUM(I2:I11)</f>
+        <v>291772.79999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="82">
+        <f>B3</f>
+        <v>118800</v>
       </c>
     </row>
   </sheetData>
@@ -4116,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,19 +4243,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4153,7 +4264,7 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4166,7 +4277,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="48">
         <f>20000*6</f>
@@ -4177,12 +4288,12 @@
         <v>168000</v>
       </c>
       <c r="D3" s="48">
-        <f t="shared" ref="D3:E3" si="0">C3+C3*40%</f>
-        <v>235200</v>
+        <f>C3+C3*50%</f>
+        <v>252000</v>
       </c>
       <c r="E3" s="48">
-        <f t="shared" si="0"/>
-        <v>329280</v>
+        <f>D3+D3*50%</f>
+        <v>378000</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -4191,7 +4302,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="7"/>
@@ -4204,22 +4315,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="48">
-        <f>[2]Ingresos!$F$3*3.5%</f>
+        <f>[1]Ingresos!$F$3*3.5%</f>
         <v>66876.600000000006</v>
       </c>
       <c r="C5" s="48">
-        <f>[2]Ingresos!$F$4*3.5%</f>
+        <f>[1]Ingresos!$F$4*3.5%</f>
         <v>102684.96</v>
       </c>
       <c r="D5" s="48">
-        <f>[2]Ingresos!$F$5*3.5%</f>
+        <f>[1]Ingresos!$F$5*3.5%</f>
         <v>196801.92000000001</v>
       </c>
       <c r="E5" s="48">
-        <f>[2]Ingresos!$F$6*3.5%</f>
+        <f>[1]Ingresos!$F$6*3.5%</f>
         <v>214423.86000000002</v>
       </c>
       <c r="F5" s="21"/>
@@ -4229,7 +4340,7 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="7"/>
@@ -4242,22 +4353,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="48">
-        <f>(((([2]Ingresos!$H$3-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$3-10000)*6/1000)+200)*6</f>
+        <f>(((([1]Ingresos!H3-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$3-10000)*6/1000)+200)*6</f>
         <v>17668.77</v>
       </c>
       <c r="C7" s="48">
-        <f>(((([2]Ingresos!$H$4-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$4-10000)*6/1000)+200)*6</f>
+        <f>(((([1]Ingresos!$H$4-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$4-10000)*6/1000)+200)*6</f>
         <v>26109.312000000005</v>
       </c>
       <c r="D7" s="48">
-        <f>(((([2]Ingresos!$H$5-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$5-10000)*6/1000)+200)*6</f>
+        <f>(((([1]Ingresos!$H$5-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$5-10000)*6/1000)+200)*6</f>
         <v>48294.024000000005</v>
       </c>
       <c r="E7" s="48">
-        <f>(((([2]Ingresos!$H$6-10000)*6/1000)+200)+37.5%*(([2]Ingresos!$H$6-10000)*6/1000)+200)*6</f>
+        <f>(((([1]Ingresos!$H$6-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$6-10000)*6/1000)+200)*6</f>
         <v>52447.767</v>
       </c>
       <c r="F7" s="21"/>
@@ -4267,7 +4378,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="48">
         <f>100*6</f>
@@ -4278,11 +4389,11 @@
         <v>720</v>
       </c>
       <c r="D8" s="48">
-        <f t="shared" ref="D8:E8" si="1">C8*1.2</f>
+        <f t="shared" ref="D8:E8" si="0">C8*1.2</f>
         <v>864</v>
       </c>
       <c r="E8" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1036.8</v>
       </c>
       <c r="F8" s="21"/>
@@ -4292,7 +4403,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="48">
         <f>321.2*6</f>
@@ -4303,11 +4414,11 @@
         <v>2312.64</v>
       </c>
       <c r="D9" s="48">
-        <f t="shared" ref="D9:E9" si="2">C9*1.2</f>
+        <f t="shared" ref="D9:E9" si="1">C9*1.2</f>
         <v>2775.1679999999997</v>
       </c>
       <c r="E9" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3330.2015999999994</v>
       </c>
       <c r="F9" s="21"/>
@@ -4317,7 +4428,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="48">
         <f>343.75*6</f>
@@ -4328,11 +4439,11 @@
         <v>2475</v>
       </c>
       <c r="D10" s="48">
-        <f t="shared" ref="D10:E10" si="3">C10*1.2</f>
+        <f t="shared" ref="D10:E10" si="2">C10*1.2</f>
         <v>2970</v>
       </c>
       <c r="E10" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3564</v>
       </c>
       <c r="F10" s="21"/>
@@ -4342,7 +4453,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="52">
         <f>SUM(B3:B10)</f>
@@ -4354,20 +4465,20 @@
       </c>
       <c r="D11" s="52">
         <f>SUM(D3:D10)</f>
-        <v>486905.11200000002</v>
+        <v>503705.11200000002</v>
       </c>
       <c r="E11" s="52">
         <f>SUM(E3:E10)</f>
-        <v>604082.62860000005</v>
+        <v>652802.62860000005</v>
       </c>
       <c r="F11" s="50">
         <f>SUM(B11:E11)</f>
-        <v>1602424.7226</v>
+        <v>1667944.7226</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
   <si>
     <t>Hosting</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>Total 2017</t>
-  </si>
-  <si>
-    <t>VOLUMEN X CAnTIDAD</t>
   </si>
   <si>
     <t>Maratón</t>
@@ -1067,8 +1064,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -2370,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,11 +2673,6 @@
       <c r="H10" s="88">
         <f>SUM(B10:G10)</f>
         <v>237725.28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +3908,7 @@
         <v>40320</v>
       </c>
       <c r="G4" s="79">
-        <f t="shared" ref="G4:G12" si="4">D4</f>
+        <f t="shared" ref="G4:G11" si="4">D4</f>
         <v>10080</v>
       </c>
       <c r="H4" s="80">
@@ -4227,7 +4219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Borrador Costos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Costos Fijos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
   <si>
     <t>Hosting</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Subsistema Entrepeneur</t>
   </si>
   <si>
-    <t>Córdoba Pablo</t>
-  </si>
-  <si>
     <t>Subsistema Gerencial</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>Impuestos</t>
   </si>
   <si>
-    <t>Dominguez Jacobo</t>
-  </si>
-  <si>
     <t>Ley 19032</t>
   </si>
   <si>
@@ -429,6 +423,9 @@
   </si>
   <si>
     <t>Maratón</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
     <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +456,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -785,10 +789,7 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -806,6 +807,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,6 +869,7 @@
       <sheetName val="Volumenes Ingresos"/>
       <sheetName val="Ingresos"/>
       <sheetName val="Ganancias"/>
+      <sheetName val="Modelo Financiero"/>
       <sheetName val="Indicadores Financieros"/>
     </sheetNames>
     <sheetDataSet>
@@ -951,13 +962,10 @@
       <sheetData sheetId="1">
         <row r="4">
           <cell r="B4">
-            <v>11</v>
+            <v>13</v>
           </cell>
           <cell r="C4">
-            <v>4</v>
-          </cell>
-          <cell r="D4">
-            <v>1560</v>
+            <v>2</v>
           </cell>
           <cell r="E4">
             <v>4</v>
@@ -966,18 +974,18 @@
             <v>4</v>
           </cell>
           <cell r="G4">
+            <v>5</v>
+          </cell>
+          <cell r="H4">
             <v>5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>9</v>
+            <v>11</v>
           </cell>
           <cell r="C5">
-            <v>6</v>
-          </cell>
-          <cell r="D5">
-            <v>3000</v>
+            <v>4</v>
           </cell>
           <cell r="E5">
             <v>5</v>
@@ -987,6 +995,9 @@
           </cell>
           <cell r="G5">
             <v>5</v>
+          </cell>
+          <cell r="H5">
+            <v>7</v>
           </cell>
         </row>
         <row r="6">
@@ -996,9 +1007,6 @@
           <cell r="C6">
             <v>7</v>
           </cell>
-          <cell r="D6">
-            <v>4000</v>
-          </cell>
           <cell r="E6">
             <v>6</v>
           </cell>
@@ -1007,6 +1015,9 @@
           </cell>
           <cell r="G6">
             <v>5</v>
+          </cell>
+          <cell r="H6">
+            <v>8</v>
           </cell>
         </row>
         <row r="7">
@@ -1016,9 +1027,6 @@
           <cell r="C7">
             <v>9</v>
           </cell>
-          <cell r="D7">
-            <v>2100</v>
-          </cell>
           <cell r="E7">
             <v>5</v>
           </cell>
@@ -1027,24 +1035,27 @@
           </cell>
           <cell r="G7">
             <v>6</v>
+          </cell>
+          <cell r="H7">
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="F3">
-            <v>1910760</v>
+            <v>1866360</v>
           </cell>
           <cell r="H3">
-            <v>318460</v>
+            <v>311060</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>2933856</v>
+            <v>2879688</v>
           </cell>
           <cell r="H4">
-            <v>488976</v>
+            <v>479948</v>
           </cell>
         </row>
         <row r="5">
@@ -1064,8 +1075,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1361,13 +1373,13 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -1394,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1446,7 +1458,7 @@
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35">
         <f>SUM(Remuneraciones!M13,Remuneraciones!M16)*6</f>
@@ -1467,7 +1479,7 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="35">
         <f>SUM(Remuneraciones!M24-Remuneraciones!M18)*6</f>
@@ -1509,7 +1521,7 @@
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="35">
         <f>(900*5*6)</f>
@@ -1592,7 +1604,7 @@
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="35">
         <f>(SUM(B4:B5)/6)/2</f>
@@ -1613,7 +1625,7 @@
     </row>
     <row r="12" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="28">
         <f>SUM(B3:B10)</f>
@@ -1643,7 +1655,7 @@
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="35">
         <f>SUM(Remuneraciones!M5,Remuneraciones!M8,Remuneraciones!M18)*6</f>
@@ -1664,7 +1676,7 @@
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="35">
         <f>6200*6</f>
@@ -1685,15 +1697,15 @@
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="35">
         <f>Impuestos!B11</f>
-        <v>209135.07</v>
+        <v>207214.77000000002</v>
       </c>
       <c r="C16" s="35">
         <f>Impuestos!C11</f>
-        <v>302301.91200000001</v>
+        <v>299959.14600000001</v>
       </c>
       <c r="D16" s="36">
         <f>Impuestos!D11</f>
@@ -1706,7 +1718,7 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="35">
         <f>59.9*6</f>
@@ -1727,7 +1739,7 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="35">
         <f>'Amortizaciones '!D12/2</f>
@@ -1748,7 +1760,7 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="35">
         <v>11000</v>
@@ -1768,7 +1780,7 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="35">
         <f>(SUM(B14)/6)/2</f>
@@ -1789,15 +1801,15 @@
     </row>
     <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="28">
         <f>SUM(B14:B20)</f>
-        <v>1034669.2700000001</v>
+        <v>1032748.9700000001</v>
       </c>
       <c r="C21" s="28">
         <f>SUM(C14:C20)</f>
-        <v>1137547.9920000001</v>
+        <v>1135205.226</v>
       </c>
       <c r="D21" s="28">
         <f>SUM(D14:D20)</f>
@@ -1819,7 +1831,7 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="35">
         <v>12000</v>
@@ -1839,7 +1851,7 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="35">
         <f>3000*6</f>
@@ -1860,7 +1872,7 @@
     </row>
     <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="28">
         <f>SUM(B23:B24)</f>
@@ -1881,15 +1893,15 @@
     </row>
     <row r="26" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="30">
         <f>SUM(B25,B21,B12)</f>
-        <v>1949271.77</v>
+        <v>1947351.4700000002</v>
       </c>
       <c r="C26" s="30">
         <f>SUM(C25,C21,C12)</f>
-        <v>2235070.9919999996</v>
+        <v>2232728.2259999998</v>
       </c>
       <c r="D26" s="30">
         <f>SUM(D25,D21,D12)</f>
@@ -1902,7 +1914,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="26">
         <f>SUM(B26:F26)</f>
-        <v>11348607.362599999</v>
+        <v>11344344.296599999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,8 +1922,8 @@
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
-        <v>118</v>
+      <c r="A29" s="80" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,16 +1941,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1965,13 +1977,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -2021,7 +2033,7 @@
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="40">
         <v>2000</v>
@@ -2084,22 +2096,22 @@
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="85">
+      <c r="A7" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="82">
         <f>SUM(B3:B6)</f>
         <v>76204.639999999999</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="82">
         <f>SUM(C3:C6)</f>
         <v>105958.52800000001</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <f>SUM(D3:D6)</f>
         <v>170145.0336</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="82">
         <f>SUM(E3:E6)</f>
         <v>200521.24672</v>
       </c>
@@ -2131,28 +2143,28 @@
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="40">
         <f>'Costos legales'!H4</f>
-        <v>102759</v>
+        <v>9207</v>
       </c>
       <c r="C10" s="40">
         <f>'Costos legales'!H6</f>
-        <v>231429.12</v>
+        <v>12641.64</v>
       </c>
       <c r="D10" s="41">
         <f>'Costos legales'!H8</f>
-        <v>370327.68</v>
+        <v>25349.759999999998</v>
       </c>
       <c r="E10" s="41">
         <f>'Costos legales'!H10</f>
-        <v>237725.28</v>
+        <v>28958.699999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="40">
         <v>36700</v>
@@ -2169,24 +2181,24 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="85">
+      <c r="A12" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="82">
         <f>SUM(B9:B11)</f>
-        <v>139459</v>
-      </c>
-      <c r="C12" s="85">
+        <v>45907</v>
+      </c>
+      <c r="C12" s="82">
         <f>SUM(C9:C11)</f>
-        <v>272229.12</v>
-      </c>
-      <c r="D12" s="85">
+        <v>53441.64</v>
+      </c>
+      <c r="D12" s="82">
         <f>SUM(D9:D11)</f>
-        <v>458127.68</v>
-      </c>
-      <c r="E12" s="85">
+        <v>113149.75999999999</v>
+      </c>
+      <c r="E12" s="82">
         <f>SUM(E9:E11)</f>
-        <v>294725.28000000003</v>
+        <v>85958.7</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -2217,7 +2229,7 @@
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="74">
         <v>4650</v>
@@ -2231,55 +2243,57 @@
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>700000</v>
+      </c>
       <c r="E16" s="11">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="85">
+      <c r="A17" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="82">
         <f>SUM(B14:B15)</f>
         <v>4650</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="82">
         <f>SUM(C14:C15)</f>
         <v>40000</v>
       </c>
-      <c r="D17" s="85">
-        <f>SUM(D14:D15)</f>
-        <v>8370</v>
-      </c>
-      <c r="E17" s="85">
+      <c r="D17" s="82">
+        <f>SUM(D14:D16)</f>
+        <v>708370</v>
+      </c>
+      <c r="E17" s="82">
         <f>SUM(E14:E16)</f>
-        <v>471000</v>
+        <v>1071000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="73">
         <f>SUM(B7,B12,B17)</f>
-        <v>220313.64</v>
+        <v>126761.64</v>
       </c>
       <c r="C18" s="73">
         <f>SUM(C7,C12,C17)</f>
-        <v>418187.64799999999</v>
+        <v>199400.16800000001</v>
       </c>
       <c r="D18" s="73">
         <f>SUM(D7,D12,D17)</f>
-        <v>636642.71360000002</v>
+        <v>991664.79359999998</v>
       </c>
       <c r="E18" s="73">
         <f>SUM(E7,E12,E17)</f>
-        <v>966246.52671999997</v>
+        <v>1357479.9467199999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2302,7 +2316,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,49 +2329,49 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="89">
+        <v>122</v>
+      </c>
+      <c r="B2" s="86">
         <f>'Costos Fijos'!B26+'Costos Fijos'!C26</f>
-        <v>4184342.7619999996</v>
-      </c>
-      <c r="C2" s="79">
+        <v>4180079.696</v>
+      </c>
+      <c r="C2" s="78">
         <f>'Costos Fijos'!D26+'Costos Fijos'!E26</f>
         <v>7164264.6006000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="89">
+        <v>123</v>
+      </c>
+      <c r="B3" s="86">
         <f>'Costos Variables'!B18+'Costos Variables'!C18</f>
-        <v>638501.28799999994</v>
-      </c>
-      <c r="C3" s="79">
+        <v>326161.80800000002</v>
+      </c>
+      <c r="C3" s="78">
         <f>'Costos Variables'!D18+'Costos Variables'!E18</f>
-        <v>1602889.2403199999</v>
+        <v>2349144.7403199999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="82">
+        <v>37</v>
+      </c>
+      <c r="B4" s="79">
         <f>SUM(B2:B3)</f>
-        <v>4822844.05</v>
-      </c>
-      <c r="C4" s="82">
+        <v>4506241.5039999997</v>
+      </c>
+      <c r="C4" s="79">
         <f>SUM(C2:C3)</f>
-        <v>8767153.8409200013</v>
+        <v>9513409.3409200013</v>
       </c>
     </row>
   </sheetData>
@@ -2369,25 +2383,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="86">
+        <v>80</v>
+      </c>
+      <c r="B1" s="83">
         <v>0.03</v>
       </c>
       <c r="C1" s="10"/>
@@ -2399,280 +2414,280 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="87">
+      <c r="B3" s="84">
         <f>'[1]Volumenes Ingresos'!B4*'[1]Tipo Ingreso'!B3</f>
-        <v>176000</v>
-      </c>
-      <c r="C3" s="87">
+        <v>208000</v>
+      </c>
+      <c r="C3" s="84">
         <f>'[1]Volumenes Ingresos'!$C$4*'[1]Tipo Ingreso'!$B$4</f>
-        <v>78800</v>
-      </c>
-      <c r="D3" s="87">
-        <f>'[1]Tipo Ingreso'!$B$6*'[1]Volumenes Ingresos'!D4</f>
-        <v>3120000</v>
-      </c>
-      <c r="E3" s="87">
-        <f>'[1]Volumenes Ingresos'!E4*'[1]Tipo Ingreso'!B7</f>
+        <v>39400</v>
+      </c>
+      <c r="D3" s="84">
+        <f>'[1]Tipo Ingreso'!$B$6*'[1]Volumenes Ingresos'!E4</f>
+        <v>8000</v>
+      </c>
+      <c r="E3" s="84">
+        <f>'[1]Volumenes Ingresos'!F4*'[1]Tipo Ingreso'!B7</f>
         <v>30000</v>
       </c>
-      <c r="F3" s="87">
-        <f>'[1]Volumenes Ingresos'!F4*'[1]Tipo Ingreso'!B8</f>
-        <v>4000</v>
-      </c>
-      <c r="G3" s="87">
-        <f>'[1]Volumenes Ingresos'!G4*'[1]Tipo Ingreso'!B9</f>
+      <c r="F3" s="84">
+        <f>'[1]Volumenes Ingresos'!G4*'[1]Tipo Ingreso'!B8</f>
+        <v>5000</v>
+      </c>
+      <c r="G3" s="84">
+        <f>'[1]Volumenes Ingresos'!H4*'[1]Tipo Ingreso'!B9</f>
         <v>16500</v>
       </c>
       <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="88">
+      <c r="A4" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="85">
         <f>B3*B1</f>
-        <v>5280</v>
-      </c>
-      <c r="C4" s="88">
+        <v>6240</v>
+      </c>
+      <c r="C4" s="85">
         <f>C3*B1</f>
-        <v>2364</v>
-      </c>
-      <c r="D4" s="88">
+        <v>1182</v>
+      </c>
+      <c r="D4" s="85">
         <f>D3*B1</f>
-        <v>93600</v>
-      </c>
-      <c r="E4" s="88">
+        <v>240</v>
+      </c>
+      <c r="E4" s="85">
         <f>E3*B1</f>
         <v>900</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="85">
         <f>F3*B1</f>
-        <v>120</v>
-      </c>
-      <c r="G4" s="88">
+        <v>150</v>
+      </c>
+      <c r="G4" s="85">
         <f>G3*B1</f>
         <v>495</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="85">
         <f>SUM(B4:G4)</f>
-        <v>102759</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="84">
+        <f>'[1]Volumenes Ingresos'!B5*'[1]Tipo Ingreso'!C3</f>
+        <v>214720</v>
+      </c>
+      <c r="C5" s="84">
+        <f>'[1]Volumenes Ingresos'!C5*'[1]Tipo Ingreso'!C4</f>
+        <v>96136</v>
+      </c>
+      <c r="D5" s="84">
+        <f>'[1]Volumenes Ingresos'!E5*'[1]Tipo Ingreso'!C6</f>
+        <v>12200</v>
+      </c>
+      <c r="E5" s="84">
+        <f>'[1]Volumenes Ingresos'!F5*'[1]Tipo Ingreso'!C7</f>
+        <v>64050</v>
+      </c>
+      <c r="F5" s="84">
+        <f>'[1]Volumenes Ingresos'!G5*'[1]Tipo Ingreso'!C8</f>
+        <v>6100</v>
+      </c>
+      <c r="G5" s="84">
+        <f>'[1]Volumenes Ingresos'!H5*'[1]Tipo Ingreso'!C9</f>
+        <v>28182</v>
+      </c>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="85">
+        <f>B5*B1</f>
+        <v>6441.5999999999995</v>
+      </c>
+      <c r="C6" s="85">
+        <f>C5*B1</f>
+        <v>2884.08</v>
+      </c>
+      <c r="D6" s="85">
+        <f>D5*B1</f>
+        <v>366</v>
+      </c>
+      <c r="E6" s="85">
+        <f>E5*B1</f>
+        <v>1921.5</v>
+      </c>
+      <c r="F6" s="85">
+        <f>F5*B1</f>
+        <v>183</v>
+      </c>
+      <c r="G6" s="85">
+        <f>G5*B1</f>
+        <v>845.45999999999992</v>
+      </c>
+      <c r="H6" s="85">
+        <f>SUM(B6:G6)</f>
+        <v>12641.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="87">
-        <f>'[1]Volumenes Ingresos'!B5*'[1]Tipo Ingreso'!C3</f>
-        <v>175680</v>
-      </c>
-      <c r="C5" s="87">
-        <f>'[1]Volumenes Ingresos'!C5*'[1]Tipo Ingreso'!C4</f>
-        <v>144204</v>
-      </c>
-      <c r="D5" s="87">
-        <f>'[1]Volumenes Ingresos'!D5*'[1]Tipo Ingreso'!C6</f>
-        <v>7320000</v>
-      </c>
-      <c r="E5" s="87">
-        <f>'[1]Volumenes Ingresos'!E5*'[1]Tipo Ingreso'!C7</f>
-        <v>45750</v>
-      </c>
-      <c r="F5" s="87">
-        <f>'[1]Volumenes Ingresos'!F5*'[1]Tipo Ingreso'!C8</f>
-        <v>8540</v>
-      </c>
-      <c r="G5" s="87">
-        <f>'[1]Volumenes Ingresos'!G5*'[1]Tipo Ingreso'!C9</f>
-        <v>20130</v>
-      </c>
-      <c r="H5" s="77"/>
-    </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="88">
-        <f>B5*B1</f>
-        <v>5270.4</v>
-      </c>
-      <c r="C6" s="88">
-        <f>C5*B1</f>
-        <v>4326.12</v>
-      </c>
-      <c r="D6" s="88">
-        <f>D5*B1</f>
-        <v>219600</v>
-      </c>
-      <c r="E6" s="88">
-        <f>E5*B1</f>
-        <v>1372.5</v>
-      </c>
-      <c r="F6" s="88">
-        <f>F5*B1</f>
-        <v>256.2</v>
-      </c>
-      <c r="G6" s="88">
-        <f>G5*B1</f>
-        <v>603.9</v>
-      </c>
-      <c r="H6" s="88">
-        <f>SUM(B6:G6)</f>
-        <v>231429.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="87">
+      <c r="B7" s="84">
         <f>'[1]Tipo Ingreso'!D3*'[1]Volumenes Ingresos'!B6</f>
         <v>529920</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="84">
         <f>'[1]Tipo Ingreso'!D4*'[1]Volumenes Ingresos'!C6</f>
         <v>198576</v>
       </c>
-      <c r="D7" s="87">
-        <f>'[1]Tipo Ingreso'!D6*'[1]Volumenes Ingresos'!D6</f>
-        <v>11520000</v>
-      </c>
-      <c r="E7" s="87">
-        <f>'[1]Tipo Ingreso'!D7*'[1]Volumenes Ingresos'!E6</f>
-        <v>64800</v>
-      </c>
-      <c r="F7" s="87">
-        <f>'[1]Tipo Ingreso'!D8*'[1]Volumenes Ingresos'!F6</f>
+      <c r="D7" s="84">
+        <f>'[1]Tipo Ingreso'!D6*'[1]Volumenes Ingresos'!E6</f>
+        <v>17280</v>
+      </c>
+      <c r="E7" s="84">
+        <f>'[1]Tipo Ingreso'!D7*'[1]Volumenes Ingresos'!F6</f>
+        <v>54000</v>
+      </c>
+      <c r="F7" s="84">
+        <f>'[1]Tipo Ingreso'!D8*'[1]Volumenes Ingresos'!G6</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="87">
-        <f>'[1]Tipo Ingreso'!D9*'[1]Volumenes Ingresos'!G6</f>
-        <v>23760</v>
+      <c r="G7" s="84">
+        <f>'[1]Tipo Ingreso'!D9*'[1]Volumenes Ingresos'!H6</f>
+        <v>38016</v>
       </c>
       <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="88">
+      <c r="A8" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="85">
         <f>B7*B1</f>
         <v>15897.599999999999</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="85">
         <f>C7*B1</f>
         <v>5957.28</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="85">
         <f>D7*B1</f>
-        <v>345600</v>
-      </c>
-      <c r="E8" s="88">
+        <v>518.4</v>
+      </c>
+      <c r="E8" s="85">
         <f>E7*B1</f>
-        <v>1944</v>
-      </c>
-      <c r="F8" s="88">
+        <v>1620</v>
+      </c>
+      <c r="F8" s="85">
         <f>F7*B1</f>
         <v>216</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="85">
         <f>G7*B1</f>
-        <v>712.8</v>
-      </c>
-      <c r="H8" s="88">
+        <v>1140.48</v>
+      </c>
+      <c r="H8" s="85">
         <f>SUM(B8:G8)</f>
-        <v>370327.68</v>
+        <v>25349.759999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="87">
+      <c r="A9" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="84">
         <f>'[1]Tipo Ingreso'!E3*'[1]Volumenes Ingresos'!B7</f>
         <v>557760</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="84">
         <f>'[1]Tipo Ingreso'!E4*'[1]Volumenes Ingresos'!C7</f>
         <v>294318</v>
       </c>
-      <c r="D9" s="87">
-        <f>'[1]Tipo Ingreso'!E6*'[1]Volumenes Ingresos'!D7</f>
-        <v>6972000</v>
-      </c>
-      <c r="E9" s="87">
-        <f>'[1]Tipo Ingreso'!E7*'[1]Volumenes Ingresos'!E7</f>
-        <v>62250</v>
-      </c>
-      <c r="F9" s="87">
-        <f>'[1]Tipo Ingreso'!E8*'[1]Volumenes Ingresos'!F7</f>
-        <v>4980</v>
-      </c>
-      <c r="G9" s="87">
-        <f>'[1]Tipo Ingreso'!E9*'[1]Volumenes Ingresos'!G7</f>
-        <v>32868</v>
+      <c r="D9" s="84">
+        <f>'[1]Tipo Ingreso'!E6*'[1]Volumenes Ingresos'!E7</f>
+        <v>16600</v>
+      </c>
+      <c r="E9" s="84">
+        <f>'[1]Tipo Ingreso'!E7*'[1]Volumenes Ingresos'!F7</f>
+        <v>37350</v>
+      </c>
+      <c r="F9" s="84">
+        <f>'[1]Tipo Ingreso'!E8*'[1]Volumenes Ingresos'!G7</f>
+        <v>9960</v>
+      </c>
+      <c r="G9" s="84">
+        <f>'[1]Tipo Ingreso'!E9*'[1]Volumenes Ingresos'!H7</f>
+        <v>49302</v>
       </c>
       <c r="H9" s="77"/>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="88">
+      <c r="A10" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="85">
         <f>B9*B1</f>
         <v>16732.8</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="85">
         <f>C9*B1</f>
         <v>8829.5399999999991</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="85">
         <f>D9*B1</f>
-        <v>209160</v>
-      </c>
-      <c r="E10" s="88">
+        <v>498</v>
+      </c>
+      <c r="E10" s="85">
         <f>E9*B1</f>
-        <v>1867.5</v>
-      </c>
-      <c r="F10" s="88">
+        <v>1120.5</v>
+      </c>
+      <c r="F10" s="85">
         <f>F9*B1</f>
-        <v>149.4</v>
-      </c>
-      <c r="G10" s="88">
+        <v>298.8</v>
+      </c>
+      <c r="G10" s="85">
         <f>G9*B1</f>
-        <v>986.04</v>
-      </c>
-      <c r="H10" s="88">
+        <v>1479.06</v>
+      </c>
+      <c r="H10" s="85">
         <f>SUM(B10:G10)</f>
-        <v>237725.28</v>
+        <v>28958.699999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2700,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,14 +2710,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="90"/>
+      <c r="A1" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43">
         <v>7</v>
@@ -2710,7 +2725,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="43">
         <v>2.9000000000000001E-2</v>
@@ -2718,7 +2733,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="43">
         <v>25200</v>
@@ -2726,7 +2741,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="43">
         <f>B4+B4*90%</f>
@@ -2735,24 +2750,24 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="90"/>
+      <c r="A9" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="87"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,25 +2815,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13 16384:16384" ht="30" x14ac:dyDescent="0.25">
@@ -2826,40 +2842,40 @@
         <v>20</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="71" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,7 +2897,7 @@
     </row>
     <row r="3" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B3" s="11">
         <v>30000</v>
@@ -2930,7 +2946,7 @@
     </row>
     <row r="4" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B4" s="11">
         <v>30000</v>
@@ -2985,7 +3001,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="14">
         <f>SUM(I3:I4)</f>
@@ -2994,7 +3010,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="14">
         <f>SUM(M3:M4)</f>
@@ -3003,7 +3019,7 @@
     </row>
     <row r="6" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="56"/>
@@ -3020,7 +3036,7 @@
     </row>
     <row r="7" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11">
         <v>9500</v>
@@ -3069,7 +3085,7 @@
     </row>
     <row r="8" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3078,7 +3094,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="14">
         <f>SUM(I7:I7)</f>
@@ -3087,7 +3103,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="14">
         <f>SUM(M7:M7)</f>
@@ -3096,7 +3112,7 @@
     </row>
     <row r="9" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="56"/>
@@ -3113,7 +3129,7 @@
     </row>
     <row r="10" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11">
         <v>18425</v>
@@ -3164,7 +3180,7 @@
     </row>
     <row r="11" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11">
         <v>16300</v>
@@ -3215,7 +3231,7 @@
     </row>
     <row r="12" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="11">
         <v>16300</v>
@@ -3270,7 +3286,7 @@
     </row>
     <row r="13" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="58"/>
@@ -3279,7 +3295,7 @@
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="58">
         <f>SUM(I10:I12)</f>
@@ -3288,7 +3304,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="14">
         <f>SUM(M10:M12)</f>
@@ -3297,7 +3313,7 @@
     </row>
     <row r="14" spans="1:13 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="56"/>
@@ -3314,7 +3330,7 @@
     </row>
     <row r="15" spans="1:13 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="11">
         <v>13600</v>
@@ -3365,7 +3381,7 @@
     </row>
     <row r="16" spans="1:13 16384:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="58"/>
@@ -3374,7 +3390,7 @@
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
       <c r="H16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="58">
         <f>SUM(I15)</f>
@@ -3383,7 +3399,7 @@
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" s="14">
         <f>SUM(M15)</f>
@@ -3392,7 +3408,7 @@
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="56"/>
@@ -3409,7 +3425,7 @@
     </row>
     <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="11">
         <v>18425</v>
@@ -3460,7 +3476,7 @@
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="11">
         <v>6500</v>
@@ -3511,7 +3527,7 @@
     </row>
     <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="11">
         <v>6500</v>
@@ -3562,7 +3578,7 @@
     </row>
     <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="11">
         <v>6500</v>
@@ -3613,7 +3629,7 @@
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="11">
         <v>6500</v>
@@ -3664,7 +3680,7 @@
     </row>
     <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="11">
         <v>6500</v>
@@ -3722,7 +3738,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="14">
         <f>SUM(I18:I23)</f>
@@ -3731,7 +3747,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M24" s="72">
         <f>SUM(M18:M23)</f>
@@ -3741,14 +3757,14 @@
     <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="55"/>
       <c r="H25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="17">
         <f>SUM(I24,I16,I13,I8,I5)</f>
         <v>166304</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="73">
         <f>SUM(M24,M16,M13,M8,M5)</f>
@@ -3757,13 +3773,13 @@
       <c r="N25" s="31"/>
     </row>
     <row r="27" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="A27" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3779,439 +3795,448 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>130</v>
+      <c r="E1" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="78">
+      <c r="A2" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="93">
         <v>99000</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="92">
         <v>5</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="94">
         <f>B2/C2</f>
         <v>19800</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="95">
         <f>D2</f>
         <v>19800</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="96">
         <f>B2-E2</f>
         <v>79200</v>
       </c>
-      <c r="G2" s="79">
+      <c r="G2" s="94">
         <f>D2</f>
         <v>19800</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="95">
         <f>D2+G2</f>
         <v>39600</v>
       </c>
-      <c r="I2" s="81">
+      <c r="I2" s="96">
         <f>B2-H2</f>
         <v>59400</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="78">
+      <c r="A3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="93">
         <f>B2+B2*20%</f>
         <v>118800</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="92">
         <v>5</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="79">
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="94">
         <f>B3/C3</f>
         <v>23760</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="95">
         <f t="shared" ref="H3:H11" si="0">D3+G3</f>
         <v>23760</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="96">
         <f>B3-H3</f>
         <v>95040</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="78">
+      <c r="A4" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="93">
         <v>50400</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="92">
         <v>5</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="94">
         <f t="shared" ref="D4:D11" si="1">B4/C4</f>
         <v>10080</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="95">
         <f t="shared" ref="E4:E11" si="2">D4</f>
         <v>10080</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="96">
         <f t="shared" ref="F4:F11" si="3">B4-E4</f>
         <v>40320</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="94">
         <f t="shared" ref="G4:G11" si="4">D4</f>
         <v>10080</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="95">
         <f t="shared" si="0"/>
         <v>20160</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="96">
         <f t="shared" ref="I4:I11" si="5">B4-H4</f>
         <v>30240</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="78">
+      <c r="A5" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="93">
         <v>21600</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="92">
         <v>5</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="94">
         <f t="shared" si="1"/>
         <v>4320</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="95">
         <f t="shared" si="2"/>
         <v>4320</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="96">
         <f t="shared" si="3"/>
         <v>17280</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="94">
         <f t="shared" si="4"/>
         <v>4320</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="95">
         <f t="shared" si="0"/>
         <v>8640</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="96">
         <f t="shared" si="5"/>
         <v>12960</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="78">
+      <c r="A6" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="93">
         <v>4600</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="92">
         <v>5</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="94">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="95">
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="96">
         <f t="shared" si="3"/>
         <v>3680</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="94">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="95">
         <f t="shared" si="0"/>
         <v>1840</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="96">
         <f t="shared" si="5"/>
         <v>2760</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="78">
+      <c r="A7" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="93">
         <v>738</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="92">
         <v>5</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="94">
         <f t="shared" si="1"/>
         <v>147.6</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="95">
         <f t="shared" si="2"/>
         <v>147.6</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="96">
         <f t="shared" si="3"/>
         <v>590.4</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="94">
         <f t="shared" si="4"/>
         <v>147.6</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="95">
         <f t="shared" si="0"/>
         <v>295.2</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="96">
         <f t="shared" si="5"/>
         <v>442.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="78">
+      <c r="A8" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="93">
         <v>100300</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="92">
         <v>10</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="94">
         <f t="shared" si="1"/>
         <v>10030</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="95">
         <f t="shared" si="2"/>
         <v>10030</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="96">
         <f t="shared" si="3"/>
         <v>90270</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="94">
         <f t="shared" si="4"/>
         <v>10030</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="95">
         <f t="shared" si="0"/>
         <v>20060</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="96">
         <f t="shared" si="5"/>
         <v>80240</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="78">
+      <c r="A9" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="93">
         <v>10000</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="92">
         <v>5</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="94">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="95">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="96">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="94">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="95">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="96">
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="78">
+      <c r="A10" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="93">
         <v>750</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="92">
         <v>5</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="94">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="95">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="96">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="94">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="95">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="96">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="78">
+      <c r="A11" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="93">
         <v>5300</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="92">
         <v>10</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="94">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="95">
         <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="96">
         <f t="shared" si="3"/>
         <v>4770</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="94">
         <f t="shared" si="4"/>
         <v>530</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="95">
         <f t="shared" si="0"/>
         <v>1060</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="96">
         <f t="shared" si="5"/>
         <v>4240</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="82">
+      <c r="A12" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="97">
         <f>SUM(B2,B4:B11)</f>
         <v>292688</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="82">
+      <c r="C12" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="97">
         <f>SUM(D2:D11)</f>
         <v>47977.599999999999</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="97">
         <f>SUM(E2:E11)</f>
         <v>47977.599999999999</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="97">
         <f>SUM(F2:F11)</f>
         <v>244710.39999999999</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="97">
         <f>SUM(G2:G11)</f>
         <v>71737.600000000006</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="97">
         <f>SUM(D12:G12)</f>
         <v>412403.19999999995</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="97">
         <f>SUM(I2:I11)</f>
         <v>291772.79999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="97">
         <f>B3</f>
         <v>118800</v>
       </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4220,7 +4245,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,10 +4260,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>17</v>
@@ -4256,7 +4281,7 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4269,7 +4294,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="48">
         <f>20000*6</f>
@@ -4294,7 +4319,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="7"/>
@@ -4307,15 +4332,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="48">
         <f>[1]Ingresos!$F$3*3.5%</f>
-        <v>66876.600000000006</v>
+        <v>65322.600000000006</v>
       </c>
       <c r="C5" s="48">
         <f>[1]Ingresos!$F$4*3.5%</f>
-        <v>102684.96</v>
+        <v>100789.08000000002</v>
       </c>
       <c r="D5" s="48">
         <f>[1]Ingresos!$F$5*3.5%</f>
@@ -4332,7 +4357,7 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="7"/>
@@ -4345,15 +4370,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="48">
         <f>(((([1]Ingresos!H3-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$3-10000)*6/1000)+200)*6</f>
-        <v>17668.77</v>
+        <v>17302.47</v>
       </c>
       <c r="C7" s="48">
         <f>(((([1]Ingresos!$H$4-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$4-10000)*6/1000)+200)*6</f>
-        <v>26109.312000000005</v>
+        <v>25662.425999999999</v>
       </c>
       <c r="D7" s="48">
         <f>(((([1]Ingresos!$H$5-10000)*6/1000)+200)+37.5%*(([1]Ingresos!$H$5-10000)*6/1000)+200)*6</f>
@@ -4370,7 +4395,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="48">
         <f>100*6</f>
@@ -4395,7 +4420,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="48">
         <f>321.2*6</f>
@@ -4420,7 +4445,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="48">
         <f>343.75*6</f>
@@ -4445,15 +4470,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="52">
         <f>SUM(B3:B10)</f>
-        <v>209135.07</v>
+        <v>207214.77000000002</v>
       </c>
       <c r="C11" s="52">
         <f>SUM(C3:C10)</f>
-        <v>302301.91200000001</v>
+        <v>299959.14600000001</v>
       </c>
       <c r="D11" s="52">
         <f>SUM(D3:D10)</f>
@@ -4465,12 +4490,12 @@
       </c>
       <c r="F11" s="50">
         <f>SUM(B11:E11)</f>
-        <v>1667944.7226</v>
+        <v>1663681.6566000001</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
